--- a/Weekly Planner/Weekly schedule planner1.xlsx
+++ b/Weekly Planner/Weekly schedule planner1.xlsx
@@ -3,24 +3,28 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72A7838C-DF3A-4217-8DC1-74FA22B290FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D53CB50-7186-4FFF-936F-518A052F8930}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Weekly Schedule Planner" sheetId="6" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId1"/>
+    <sheet name="Weekly Schedule Planner" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="StartDate">'Weekly Schedule Planner'!$V$4</definedName>
     <definedName name="WeekStart">'Weekly Schedule Planner'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="5" r:id="rId4"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
   <si>
     <t>Weekly Schedule Planner</t>
   </si>
@@ -220,9 +224,6 @@
     <t>1 hr 25 min</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>(MORNING)</t>
   </si>
   <si>
@@ -238,7 +239,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d"/>
-    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -528,7 +529,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -1008,8 +1009,119 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -1056,8 +1168,9 @@
     <xf numFmtId="164" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1188,6 +1301,176 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="71"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="72"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="73"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1216,23 +1499,7 @@
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
@@ -1240,35 +1507,11 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -1276,138 +1519,24 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="71"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="72"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="73"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="18" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="18" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="18" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="18">
+  <cellStyles count="19">
     <cellStyle name="Border Right" xfId="9" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Calculation" xfId="6" builtinId="22" hidden="1" customBuiltin="1"/>
     <cellStyle name="Chore Column Style" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -1424,13 +1553,14 @@
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="18" builtinId="5"/>
     <cellStyle name="Table Details" xfId="10" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="78">
+  <dxfs count="94">
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1439,14 +1569,127 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1" tint="0.24994659260841701"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <font>
@@ -1483,7 +1726,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
       <font>
@@ -2018,6 +2261,189 @@
       <font>
         <b val="0"/>
         <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
       </font>
       <border>
         <left style="medium">
@@ -2041,7 +2467,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Planner" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Planner" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="77"/>
+      <tableStyleElement type="wholeTable" dxfId="93"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -6402,19 +6828,409 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Author" refreshedDate="44305.616310532409" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="21" xr:uid="{FAF8C650-03EB-49EB-9861-DE5546E91E70}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:J22" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="10">
+    <cacheField name="Catergory" numFmtId="0">
+      <sharedItems count="20">
+        <s v="Total Markings"/>
+        <s v="(MORNING)"/>
+        <s v="Fajr Namaz"/>
+        <s v="Sleep"/>
+        <s v="Freshen up"/>
+        <s v="Zuhr Namaz"/>
+        <s v="Tableau"/>
+        <s v="Quran"/>
+        <s v="Asar Namaz"/>
+        <s v="(EVENING)"/>
+        <s v="Iftar"/>
+        <s v="Maghrib Namaz"/>
+        <s v="Excel"/>
+        <s v="(NIGHT)"/>
+        <s v="Isha Namaz"/>
+        <s v="Workout"/>
+        <s v="Shower"/>
+        <s v="Tang"/>
+        <s v="Sehri"/>
+        <s v="Green Tea"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Time Provided" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Time Spend" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Mon - Apr 19th" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="16" maxValue="16"/>
+    </cacheField>
+    <cacheField name="Tue - Apr 20th" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="16" maxValue="16"/>
+    </cacheField>
+    <cacheField name="Wed - Apr 21st" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="16" maxValue="16"/>
+    </cacheField>
+    <cacheField name="Thur - Apr 22nd" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="16" maxValue="16"/>
+    </cacheField>
+    <cacheField name="Fri - Apr 23rd" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="16" maxValue="16"/>
+    </cacheField>
+    <cacheField name="Sat - Apr 24th" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="16" maxValue="16"/>
+    </cacheField>
+    <cacheField name="Sun - Apr 25th" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="16" maxValue="16"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="21">
+  <r>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <n v="16"/>
+    <n v="16"/>
+    <n v="16"/>
+    <n v="16"/>
+    <n v="16"/>
+    <n v="16"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="4:45 - 5:20"/>
+    <s v="35 min"/>
+    <s v="YES"/>
+    <s v="YES"/>
+    <s v="YES"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="5:20 - 12"/>
+    <s v="7 hrs 40 min"/>
+    <s v="YES"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="12 - 1:00"/>
+    <s v="1 hr"/>
+    <s v="YES"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="1:00 - 1:20"/>
+    <s v="20 min"/>
+    <s v="YES"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="1:20 - 3:30"/>
+    <s v="1 hr 10 min"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="3:30 - 5:30"/>
+    <s v="2 hr"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="5:30 - 5:40"/>
+    <s v="10 min"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="5:40 - 7"/>
+    <s v="1 hr 20 min"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="7 - 7:20"/>
+    <s v="20 min"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="7:20 - 8:45"/>
+    <s v="1 hr 25 min"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="8:45 - 9"/>
+    <s v="15 min"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="9:00  - 10:00"/>
+    <s v="1 hr"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="10:00 - 10:30"/>
+    <s v="30 min"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="10:30 - 11"/>
+    <s v="30 min"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="11:00 - 2"/>
+    <s v="3 hr"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="2:00 - 4"/>
+    <s v="2 hr"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="4 - 4:45"/>
+    <s v="45 min"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CCD4BFAE-D7E2-4A9A-83CD-6D6FEE7DBD0A}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:C18" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="10">
+    <pivotField showAll="0">
+      <items count="21">
+        <item h="1" x="9"/>
+        <item h="1" x="1"/>
+        <item h="1" x="13"/>
+        <item h="1" x="8"/>
+        <item h="1" x="12"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="19"/>
+        <item h="1" x="10"/>
+        <item h="1" x="14"/>
+        <item h="1" x="11"/>
+        <item h="1" x="7"/>
+        <item h="1" x="18"/>
+        <item h="1" x="16"/>
+        <item h="1" x="3"/>
+        <item h="1" x="6"/>
+        <item h="1" x="17"/>
+        <item h="1" x="0"/>
+        <item h="1" x="15"/>
+        <item h="1" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{335D838A-61CA-4535-B799-C8FA419100F3}" name="Table1" displayName="Table1" ref="A1:J23" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{335D838A-61CA-4535-B799-C8FA419100F3}" name="Table1" displayName="Table1" ref="A1:J24" totalsRowCount="1" headerRowDxfId="92">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{657D9B9F-9709-4F9E-A69E-6A980B7C869E}" name="Catergory" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{D4A3FF5C-5A8B-4D44-8009-3097C44B145F}" name="Time Provided" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{42D401BF-C18C-4329-8EEA-09422E34AB6E}" name="Time Spend" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{3254F6A1-9E73-49D6-B15C-0C47B8CF4358}" name="Mon - Apr 19th"/>
-    <tableColumn id="5" xr3:uid="{8E90A1E1-1406-4FD8-8174-71E13CB568A3}" name="Tue - Apr 20th"/>
-    <tableColumn id="6" xr3:uid="{A91295AC-F05E-4783-9319-698D8DDA4148}" name="Wed - Apr 21st"/>
-    <tableColumn id="7" xr3:uid="{9838E1E5-3657-427E-8F45-059AAB6CEF9E}" name="Thur - Apr 22nd"/>
-    <tableColumn id="8" xr3:uid="{3EC1A6D2-6803-4EA4-A3BD-54150D63681E}" name="Fri - Apr 23rd"/>
-    <tableColumn id="9" xr3:uid="{E0F3C162-BFC5-416E-A9C2-884519778D18}" name="Sat - Apr 24th"/>
-    <tableColumn id="10" xr3:uid="{A7EDFBD9-3A91-4DF4-B4F3-E02574CA6563}" name="Sun - Apr 25th"/>
+    <tableColumn id="1" xr3:uid="{657D9B9F-9709-4F9E-A69E-6A980B7C869E}" name="Catergory" totalsRowFunction="custom" dataDxfId="91" totalsRowDxfId="9" totalsRowCellStyle="Percent">
+      <totalsRowFormula>SUM(Table1[[#Totals],[Mon - Apr 19th]:[Sun - Apr 25th]])/16</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{D4A3FF5C-5A8B-4D44-8009-3097C44B145F}" name="Time Provided" dataDxfId="90" totalsRowDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{42D401BF-C18C-4329-8EEA-09422E34AB6E}" name="Time Spend" dataDxfId="89" totalsRowDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{3254F6A1-9E73-49D6-B15C-0C47B8CF4358}" name="Mon - Apr 19th" totalsRowFunction="custom" dataDxfId="88" totalsRowDxfId="6">
+      <totalsRowFormula>SUM(D23)/16</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{8E90A1E1-1406-4FD8-8174-71E13CB568A3}" name="Tue - Apr 20th" totalsRowFunction="custom" dataDxfId="87" totalsRowDxfId="5">
+      <totalsRowFormula>SUM(E23)/16</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{A91295AC-F05E-4783-9319-698D8DDA4148}" name="Wed - Apr 21st" totalsRowFunction="custom" dataDxfId="86" totalsRowDxfId="4">
+      <totalsRowFormula>SUM(F23)/16</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{9838E1E5-3657-427E-8F45-059AAB6CEF9E}" name="Thur - Apr 22nd" totalsRowFunction="custom" dataDxfId="85" totalsRowDxfId="3">
+      <totalsRowFormula>SUM(G23)/16</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{3EC1A6D2-6803-4EA4-A3BD-54150D63681E}" name="Fri - Apr 23rd" totalsRowFunction="custom" dataDxfId="84" totalsRowDxfId="2">
+      <totalsRowFormula>SUM(H23)/16</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{E0F3C162-BFC5-416E-A9C2-884519778D18}" name="Sat - Apr 24th" totalsRowFunction="custom" dataDxfId="83" totalsRowDxfId="1">
+      <totalsRowFormula>SUM(I23)/16</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{A7EDFBD9-3A91-4DF4-B4F3-E02574CA6563}" name="Sun - Apr 25th" totalsRowFunction="custom" totalsRowDxfId="0">
+      <totalsRowFormula>SUM(J23)/16</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6622,12 +7438,120 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCF125A-664A-4E58-AA29-8662C806CA1F}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="21.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="116"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="118"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="119"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="121"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="119"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="121"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="113"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="119"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="121"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="119"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="121"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="119"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="121"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="119"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="121"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="119"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="121"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="119"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="121"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="119"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="121"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="119"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="121"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="119"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="121"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="119"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="121"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="119"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="121"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="119"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="121"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="119"/>
+      <c r="B16" s="120"/>
+      <c r="C16" s="121"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="119"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="121"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="122"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="124"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80AA66D-EEE4-4492-97C8-6AD44475CD8F}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:AP42"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:AM35"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6697,7 +7621,7 @@
       <c r="AO1" s="19"/>
       <c r="AP1" s="19"/>
     </row>
-    <row r="2" spans="1:42" s="35" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:42" s="35" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="33"/>
       <c r="B2" s="41"/>
       <c r="C2" s="42"/>
@@ -6742,45 +7666,45 @@
       <c r="AP2" s="33"/>
     </row>
     <row r="3" spans="1:42" s="15" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="46"/>
-      <c r="AJ3" s="46"/>
-      <c r="AK3" s="46"/>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="46"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="97"/>
+      <c r="AE3" s="97"/>
+      <c r="AF3" s="97"/>
+      <c r="AG3" s="97"/>
+      <c r="AH3" s="97"/>
+      <c r="AI3" s="97"/>
+      <c r="AJ3" s="97"/>
+      <c r="AK3" s="97"/>
+      <c r="AL3" s="97"/>
+      <c r="AM3" s="97"/>
     </row>
     <row r="4" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
@@ -6799,21 +7723,21 @@
       <c r="N4" s="21"/>
       <c r="O4" s="17"/>
       <c r="P4" s="17"/>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="78"/>
-      <c r="S4" s="78"/>
-      <c r="T4" s="78"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="71">
+      <c r="R4" s="87"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="87"/>
+      <c r="U4" s="87"/>
+      <c r="V4" s="90">
         <f ca="1">TODAY()-WEEKDAY(TODAY(),2)+1</f>
         <v>44305</v>
       </c>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="71"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
       <c r="AA4" s="17"/>
       <c r="AB4" s="17"/>
       <c r="AC4" s="17"/>
@@ -6878,49 +7802,49 @@
     <row r="6" spans="1:42" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="36"/>
       <c r="B6" s="37"/>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="49"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="100"/>
       <c r="N6" s="21"/>
       <c r="O6" s="17"/>
-      <c r="P6" s="47" t="s">
+      <c r="P6" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="48"/>
-      <c r="X6" s="48"/>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="49"/>
+      <c r="Q6" s="99"/>
+      <c r="R6" s="99"/>
+      <c r="S6" s="99"/>
+      <c r="T6" s="99"/>
+      <c r="U6" s="99"/>
+      <c r="V6" s="99"/>
+      <c r="W6" s="99"/>
+      <c r="X6" s="99"/>
+      <c r="Y6" s="99"/>
+      <c r="Z6" s="100"/>
       <c r="AA6" s="17"/>
       <c r="AB6" s="17"/>
-      <c r="AC6" s="47" t="s">
+      <c r="AC6" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="AD6" s="48"/>
-      <c r="AE6" s="48"/>
-      <c r="AF6" s="48"/>
-      <c r="AG6" s="48"/>
-      <c r="AH6" s="48"/>
-      <c r="AI6" s="48"/>
-      <c r="AJ6" s="48"/>
-      <c r="AK6" s="48"/>
-      <c r="AL6" s="48"/>
-      <c r="AM6" s="49"/>
+      <c r="AD6" s="99"/>
+      <c r="AE6" s="99"/>
+      <c r="AF6" s="99"/>
+      <c r="AG6" s="99"/>
+      <c r="AH6" s="99"/>
+      <c r="AI6" s="99"/>
+      <c r="AJ6" s="99"/>
+      <c r="AK6" s="99"/>
+      <c r="AL6" s="99"/>
+      <c r="AM6" s="100"/>
       <c r="AN6" s="38"/>
       <c r="AO6" s="39"/>
       <c r="AP6" s="39"/>
@@ -6928,43 +7852,43 @@
     <row r="7" spans="1:42" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="24"/>
       <c r="B7" s="25"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="74"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="67"/>
       <c r="N7" s="26"/>
       <c r="O7" s="27"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="54"/>
-      <c r="S7" s="54"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="54"/>
-      <c r="W7" s="54"/>
-      <c r="X7" s="54"/>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="55"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="91"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="91"/>
+      <c r="U7" s="91"/>
+      <c r="V7" s="91"/>
+      <c r="W7" s="91"/>
+      <c r="X7" s="91"/>
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="92"/>
       <c r="AA7" s="27"/>
       <c r="AB7" s="27"/>
-      <c r="AC7" s="72"/>
-      <c r="AD7" s="73"/>
-      <c r="AE7" s="73"/>
-      <c r="AF7" s="73"/>
-      <c r="AG7" s="73"/>
-      <c r="AH7" s="73"/>
-      <c r="AI7" s="73"/>
-      <c r="AJ7" s="73"/>
-      <c r="AK7" s="73"/>
-      <c r="AL7" s="73"/>
-      <c r="AM7" s="74"/>
+      <c r="AC7" s="65"/>
+      <c r="AD7" s="66"/>
+      <c r="AE7" s="66"/>
+      <c r="AF7" s="66"/>
+      <c r="AG7" s="66"/>
+      <c r="AH7" s="66"/>
+      <c r="AI7" s="66"/>
+      <c r="AJ7" s="66"/>
+      <c r="AK7" s="66"/>
+      <c r="AL7" s="66"/>
+      <c r="AM7" s="67"/>
       <c r="AN7" s="25"/>
       <c r="AO7" s="24"/>
       <c r="AP7" s="24"/>
@@ -6972,43 +7896,43 @@
     <row r="8" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="77"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="70"/>
       <c r="N8" s="6"/>
       <c r="O8" s="5"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="57"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="57"/>
-      <c r="X8" s="57"/>
-      <c r="Y8" s="57"/>
-      <c r="Z8" s="58"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="78"/>
+      <c r="S8" s="78"/>
+      <c r="T8" s="78"/>
+      <c r="U8" s="78"/>
+      <c r="V8" s="78"/>
+      <c r="W8" s="78"/>
+      <c r="X8" s="78"/>
+      <c r="Y8" s="78"/>
+      <c r="Z8" s="79"/>
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
-      <c r="AC8" s="75"/>
-      <c r="AD8" s="76"/>
-      <c r="AE8" s="76"/>
-      <c r="AF8" s="76"/>
-      <c r="AG8" s="76"/>
-      <c r="AH8" s="76"/>
-      <c r="AI8" s="76"/>
-      <c r="AJ8" s="76"/>
-      <c r="AK8" s="76"/>
-      <c r="AL8" s="76"/>
-      <c r="AM8" s="77"/>
+      <c r="AC8" s="68"/>
+      <c r="AD8" s="69"/>
+      <c r="AE8" s="69"/>
+      <c r="AF8" s="69"/>
+      <c r="AG8" s="69"/>
+      <c r="AH8" s="69"/>
+      <c r="AI8" s="69"/>
+      <c r="AJ8" s="69"/>
+      <c r="AK8" s="69"/>
+      <c r="AL8" s="69"/>
+      <c r="AM8" s="70"/>
       <c r="AN8" s="20"/>
       <c r="AO8" s="19"/>
       <c r="AP8" s="19"/>
@@ -7016,43 +7940,43 @@
     <row r="9" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="77"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="70"/>
       <c r="N9" s="6"/>
       <c r="O9" s="5"/>
       <c r="P9" s="8"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="57"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="57"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="58"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="78"/>
+      <c r="T9" s="78"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="78"/>
+      <c r="W9" s="78"/>
+      <c r="X9" s="78"/>
+      <c r="Y9" s="78"/>
+      <c r="Z9" s="79"/>
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
-      <c r="AC9" s="75"/>
-      <c r="AD9" s="76"/>
-      <c r="AE9" s="76"/>
-      <c r="AF9" s="76"/>
-      <c r="AG9" s="76"/>
-      <c r="AH9" s="76"/>
-      <c r="AI9" s="76"/>
-      <c r="AJ9" s="76"/>
-      <c r="AK9" s="76"/>
-      <c r="AL9" s="76"/>
-      <c r="AM9" s="77"/>
+      <c r="AC9" s="68"/>
+      <c r="AD9" s="69"/>
+      <c r="AE9" s="69"/>
+      <c r="AF9" s="69"/>
+      <c r="AG9" s="69"/>
+      <c r="AH9" s="69"/>
+      <c r="AI9" s="69"/>
+      <c r="AJ9" s="69"/>
+      <c r="AK9" s="69"/>
+      <c r="AL9" s="69"/>
+      <c r="AM9" s="70"/>
       <c r="AN9" s="20"/>
       <c r="AO9" s="19"/>
       <c r="AP9" s="19"/>
@@ -7060,43 +7984,43 @@
     <row r="10" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="77"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="70"/>
       <c r="N10" s="6"/>
       <c r="O10" s="5"/>
       <c r="P10" s="8"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="57"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="57"/>
-      <c r="Z10" s="58"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="78"/>
+      <c r="T10" s="78"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="78"/>
+      <c r="W10" s="78"/>
+      <c r="X10" s="78"/>
+      <c r="Y10" s="78"/>
+      <c r="Z10" s="79"/>
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
-      <c r="AC10" s="75"/>
-      <c r="AD10" s="76"/>
-      <c r="AE10" s="76"/>
-      <c r="AF10" s="76"/>
-      <c r="AG10" s="76"/>
-      <c r="AH10" s="76"/>
-      <c r="AI10" s="76"/>
-      <c r="AJ10" s="76"/>
-      <c r="AK10" s="76"/>
-      <c r="AL10" s="76"/>
-      <c r="AM10" s="77"/>
+      <c r="AC10" s="68"/>
+      <c r="AD10" s="69"/>
+      <c r="AE10" s="69"/>
+      <c r="AF10" s="69"/>
+      <c r="AG10" s="69"/>
+      <c r="AH10" s="69"/>
+      <c r="AI10" s="69"/>
+      <c r="AJ10" s="69"/>
+      <c r="AK10" s="69"/>
+      <c r="AL10" s="69"/>
+      <c r="AM10" s="70"/>
       <c r="AN10" s="20"/>
       <c r="AO10" s="19"/>
       <c r="AP10" s="19"/>
@@ -7104,43 +8028,43 @@
     <row r="11" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="77"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="70"/>
       <c r="N11" s="6"/>
       <c r="O11" s="5"/>
       <c r="P11" s="8"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="57"/>
-      <c r="Y11" s="57"/>
-      <c r="Z11" s="58"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="78"/>
+      <c r="T11" s="78"/>
+      <c r="U11" s="78"/>
+      <c r="V11" s="78"/>
+      <c r="W11" s="78"/>
+      <c r="X11" s="78"/>
+      <c r="Y11" s="78"/>
+      <c r="Z11" s="79"/>
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
-      <c r="AC11" s="75"/>
-      <c r="AD11" s="76"/>
-      <c r="AE11" s="76"/>
-      <c r="AF11" s="76"/>
-      <c r="AG11" s="76"/>
-      <c r="AH11" s="76"/>
-      <c r="AI11" s="76"/>
-      <c r="AJ11" s="76"/>
-      <c r="AK11" s="76"/>
-      <c r="AL11" s="76"/>
-      <c r="AM11" s="77"/>
+      <c r="AC11" s="68"/>
+      <c r="AD11" s="69"/>
+      <c r="AE11" s="69"/>
+      <c r="AF11" s="69"/>
+      <c r="AG11" s="69"/>
+      <c r="AH11" s="69"/>
+      <c r="AI11" s="69"/>
+      <c r="AJ11" s="69"/>
+      <c r="AK11" s="69"/>
+      <c r="AL11" s="69"/>
+      <c r="AM11" s="70"/>
       <c r="AN11" s="20"/>
       <c r="AO11" s="19"/>
       <c r="AP11" s="19"/>
@@ -7148,43 +8072,43 @@
     <row r="12" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="88"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="73"/>
       <c r="N12" s="6"/>
       <c r="O12" s="5"/>
       <c r="P12" s="9"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="60"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="60"/>
-      <c r="V12" s="60"/>
-      <c r="W12" s="60"/>
-      <c r="X12" s="60"/>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="61"/>
+      <c r="Q12" s="80"/>
+      <c r="R12" s="80"/>
+      <c r="S12" s="80"/>
+      <c r="T12" s="80"/>
+      <c r="U12" s="80"/>
+      <c r="V12" s="80"/>
+      <c r="W12" s="80"/>
+      <c r="X12" s="80"/>
+      <c r="Y12" s="80"/>
+      <c r="Z12" s="81"/>
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
-      <c r="AC12" s="86"/>
-      <c r="AD12" s="87"/>
-      <c r="AE12" s="87"/>
-      <c r="AF12" s="87"/>
-      <c r="AG12" s="87"/>
-      <c r="AH12" s="87"/>
-      <c r="AI12" s="87"/>
-      <c r="AJ12" s="87"/>
-      <c r="AK12" s="87"/>
-      <c r="AL12" s="87"/>
-      <c r="AM12" s="88"/>
+      <c r="AC12" s="71"/>
+      <c r="AD12" s="72"/>
+      <c r="AE12" s="72"/>
+      <c r="AF12" s="72"/>
+      <c r="AG12" s="72"/>
+      <c r="AH12" s="72"/>
+      <c r="AI12" s="72"/>
+      <c r="AJ12" s="72"/>
+      <c r="AK12" s="72"/>
+      <c r="AL12" s="72"/>
+      <c r="AM12" s="73"/>
       <c r="AN12" s="20"/>
       <c r="AO12" s="19"/>
       <c r="AP12" s="19"/>
@@ -7280,84 +8204,84 @@
     <row r="15" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="89" t="str">
+      <c r="C15" s="74" t="str">
         <f ca="1">TEXT(StartDate+0,"dd")</f>
         <v>19</v>
       </c>
-      <c r="D15" s="90"/>
-      <c r="E15" s="81" t="str">
+      <c r="D15" s="75"/>
+      <c r="E15" s="82" t="str">
         <f ca="1">(TEXT(StartDate+0,"aaaa"))</f>
         <v>Monday</v>
       </c>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="79" t="str">
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="63" t="str">
         <f ca="1">TEXT(StartDate+1,"dd")</f>
         <v>20</v>
       </c>
-      <c r="J15" s="79"/>
-      <c r="K15" s="81" t="str">
+      <c r="J15" s="63"/>
+      <c r="K15" s="82" t="str">
         <f ca="1">(TEXT(StartDate+1,"aaaa"))</f>
         <v>Tuesday</v>
       </c>
-      <c r="L15" s="81"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="79" t="str">
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="63" t="str">
         <f ca="1">TEXT(StartDate+2,"dd")</f>
         <v>21</v>
       </c>
-      <c r="O15" s="79"/>
-      <c r="P15" s="81" t="str">
+      <c r="O15" s="63"/>
+      <c r="P15" s="82" t="str">
         <f ca="1">(TEXT(StartDate+2,"aaaa"))</f>
         <v>Wednesday</v>
       </c>
-      <c r="Q15" s="81"/>
-      <c r="R15" s="81"/>
-      <c r="S15" s="79" t="str">
+      <c r="Q15" s="82"/>
+      <c r="R15" s="82"/>
+      <c r="S15" s="63" t="str">
         <f ca="1">TEXT(StartDate+3,"dd")</f>
         <v>22</v>
       </c>
-      <c r="T15" s="79"/>
-      <c r="U15" s="81" t="str">
+      <c r="T15" s="63"/>
+      <c r="U15" s="82" t="str">
         <f ca="1">(TEXT(StartDate+3,"aaaa"))</f>
         <v>Thursday</v>
       </c>
-      <c r="V15" s="81"/>
-      <c r="W15" s="81"/>
-      <c r="X15" s="79" t="str">
+      <c r="V15" s="82"/>
+      <c r="W15" s="82"/>
+      <c r="X15" s="63" t="str">
         <f ca="1">TEXT(StartDate+4,"dd")</f>
         <v>23</v>
       </c>
-      <c r="Y15" s="79"/>
-      <c r="Z15" s="81" t="str">
+      <c r="Y15" s="63"/>
+      <c r="Z15" s="82" t="str">
         <f ca="1">(TEXT(StartDate+4,"aaaa"))</f>
         <v>Friday</v>
       </c>
-      <c r="AA15" s="81"/>
-      <c r="AB15" s="81"/>
-      <c r="AC15" s="79" t="str">
+      <c r="AA15" s="82"/>
+      <c r="AB15" s="82"/>
+      <c r="AC15" s="63" t="str">
         <f ca="1">TEXT(StartDate+5,"dd")</f>
         <v>24</v>
       </c>
-      <c r="AD15" s="79"/>
-      <c r="AE15" s="81" t="str">
+      <c r="AD15" s="63"/>
+      <c r="AE15" s="82" t="str">
         <f ca="1">(TEXT(StartDate+5,"aaaa"))</f>
         <v>Saturday</v>
       </c>
-      <c r="AF15" s="81"/>
-      <c r="AG15" s="81"/>
-      <c r="AH15" s="79" t="str">
+      <c r="AF15" s="82"/>
+      <c r="AG15" s="82"/>
+      <c r="AH15" s="63" t="str">
         <f ca="1">TEXT(StartDate+6,"dd")</f>
         <v>25</v>
       </c>
-      <c r="AI15" s="79"/>
-      <c r="AJ15" s="81" t="str">
+      <c r="AI15" s="63"/>
+      <c r="AJ15" s="82" t="str">
         <f ca="1">(TEXT(StartDate+6,"aaaa"))</f>
         <v>Sunday</v>
       </c>
-      <c r="AK15" s="81"/>
-      <c r="AL15" s="81"/>
+      <c r="AK15" s="82"/>
+      <c r="AL15" s="82"/>
       <c r="AM15" s="31"/>
       <c r="AN15" s="20"/>
       <c r="AO15" s="19"/>
@@ -7366,63 +8290,63 @@
     <row r="16" spans="1:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="82" t="str">
+      <c r="C16" s="76"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="84" t="str">
         <f ca="1">(TEXT(StartDate+0,"mmmm"))</f>
         <v>April</v>
       </c>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="82" t="str">
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="84" t="str">
         <f ca="1">(TEXT(StartDate+1,"mmmm"))</f>
         <v>April</v>
       </c>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="80"/>
-      <c r="O16" s="80"/>
-      <c r="P16" s="82" t="str">
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="84" t="str">
         <f ca="1">(TEXT(StartDate+2,"mmmm"))</f>
         <v>April</v>
       </c>
-      <c r="Q16" s="82"/>
-      <c r="R16" s="82"/>
-      <c r="S16" s="80"/>
-      <c r="T16" s="80"/>
-      <c r="U16" s="82" t="str">
+      <c r="Q16" s="84"/>
+      <c r="R16" s="84"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="84" t="str">
         <f ca="1">(TEXT(StartDate+3,"mmmm"))</f>
         <v>April</v>
       </c>
-      <c r="V16" s="82"/>
-      <c r="W16" s="82"/>
-      <c r="X16" s="80"/>
-      <c r="Y16" s="80"/>
-      <c r="Z16" s="82" t="str">
+      <c r="V16" s="84"/>
+      <c r="W16" s="84"/>
+      <c r="X16" s="64"/>
+      <c r="Y16" s="64"/>
+      <c r="Z16" s="84" t="str">
         <f ca="1">(TEXT(StartDate+4,"mmmm"))</f>
         <v>April</v>
       </c>
-      <c r="AA16" s="82"/>
-      <c r="AB16" s="82"/>
-      <c r="AC16" s="80"/>
-      <c r="AD16" s="80"/>
-      <c r="AE16" s="82" t="str">
+      <c r="AA16" s="84"/>
+      <c r="AB16" s="84"/>
+      <c r="AC16" s="64"/>
+      <c r="AD16" s="64"/>
+      <c r="AE16" s="84" t="str">
         <f ca="1">(TEXT(StartDate+5,"mmmm"))</f>
         <v>April</v>
       </c>
-      <c r="AF16" s="82"/>
-      <c r="AG16" s="82"/>
-      <c r="AH16" s="80"/>
-      <c r="AI16" s="80"/>
-      <c r="AJ16" s="82" t="str">
+      <c r="AF16" s="84"/>
+      <c r="AG16" s="84"/>
+      <c r="AH16" s="64"/>
+      <c r="AI16" s="64"/>
+      <c r="AJ16" s="84" t="str">
         <f ca="1">(TEXT(StartDate+6,"mmmm"))</f>
         <v>April</v>
       </c>
-      <c r="AK16" s="82"/>
-      <c r="AL16" s="82"/>
+      <c r="AK16" s="84"/>
+      <c r="AL16" s="84"/>
       <c r="AM16" s="32"/>
       <c r="AN16" s="20"/>
       <c r="AO16" s="19"/>
@@ -7434,42 +8358,42 @@
       <c r="C17" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
       <c r="N17" s="11"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="65"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="86"/>
+      <c r="Q17" s="86"/>
+      <c r="R17" s="86"/>
       <c r="S17" s="11"/>
-      <c r="T17" s="65"/>
-      <c r="U17" s="65"/>
-      <c r="V17" s="65"/>
-      <c r="W17" s="65"/>
+      <c r="T17" s="86"/>
+      <c r="U17" s="86"/>
+      <c r="V17" s="86"/>
+      <c r="W17" s="86"/>
       <c r="X17" s="11"/>
-      <c r="Y17" s="65"/>
-      <c r="Z17" s="65"/>
-      <c r="AA17" s="65"/>
-      <c r="AB17" s="65"/>
+      <c r="Y17" s="86"/>
+      <c r="Z17" s="86"/>
+      <c r="AA17" s="86"/>
+      <c r="AB17" s="86"/>
       <c r="AC17" s="11"/>
-      <c r="AD17" s="65"/>
-      <c r="AE17" s="65"/>
-      <c r="AF17" s="65"/>
-      <c r="AG17" s="65"/>
+      <c r="AD17" s="86"/>
+      <c r="AE17" s="86"/>
+      <c r="AF17" s="86"/>
+      <c r="AG17" s="86"/>
       <c r="AH17" s="11"/>
-      <c r="AI17" s="65"/>
-      <c r="AJ17" s="65"/>
-      <c r="AK17" s="65"/>
-      <c r="AL17" s="65"/>
-      <c r="AM17" s="66"/>
+      <c r="AI17" s="86"/>
+      <c r="AJ17" s="86"/>
+      <c r="AK17" s="86"/>
+      <c r="AL17" s="86"/>
+      <c r="AM17" s="108"/>
       <c r="AN17" s="20"/>
       <c r="AO17" s="19"/>
       <c r="AP17" s="19"/>
@@ -7480,42 +8404,42 @@
       <c r="C18" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="70"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="89"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="88"/>
       <c r="N18" s="12"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67"/>
+      <c r="O18" s="88"/>
+      <c r="P18" s="88"/>
+      <c r="Q18" s="88"/>
+      <c r="R18" s="88"/>
       <c r="S18" s="12"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="67"/>
-      <c r="V18" s="67"/>
-      <c r="W18" s="67"/>
+      <c r="T18" s="88"/>
+      <c r="U18" s="88"/>
+      <c r="V18" s="88"/>
+      <c r="W18" s="88"/>
       <c r="X18" s="12"/>
-      <c r="Y18" s="67"/>
-      <c r="Z18" s="67"/>
-      <c r="AA18" s="67"/>
-      <c r="AB18" s="67"/>
+      <c r="Y18" s="88"/>
+      <c r="Z18" s="88"/>
+      <c r="AA18" s="88"/>
+      <c r="AB18" s="88"/>
       <c r="AC18" s="12"/>
-      <c r="AD18" s="67"/>
-      <c r="AE18" s="67"/>
-      <c r="AF18" s="67"/>
-      <c r="AG18" s="67"/>
+      <c r="AD18" s="88"/>
+      <c r="AE18" s="88"/>
+      <c r="AF18" s="88"/>
+      <c r="AG18" s="88"/>
       <c r="AH18" s="12"/>
-      <c r="AI18" s="67"/>
-      <c r="AJ18" s="67"/>
-      <c r="AK18" s="67"/>
-      <c r="AL18" s="67"/>
-      <c r="AM18" s="68"/>
+      <c r="AI18" s="88"/>
+      <c r="AJ18" s="88"/>
+      <c r="AK18" s="88"/>
+      <c r="AL18" s="88"/>
+      <c r="AM18" s="109"/>
       <c r="AN18" s="20"/>
       <c r="AO18" s="19"/>
       <c r="AP18" s="19"/>
@@ -7526,42 +8450,42 @@
       <c r="C19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="70"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="89"/>
       <c r="I19" s="12"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="88"/>
+      <c r="M19" s="88"/>
       <c r="N19" s="12"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="67"/>
+      <c r="O19" s="88"/>
+      <c r="P19" s="88"/>
+      <c r="Q19" s="88"/>
+      <c r="R19" s="88"/>
       <c r="S19" s="12"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="67"/>
-      <c r="V19" s="67"/>
-      <c r="W19" s="67"/>
+      <c r="T19" s="88"/>
+      <c r="U19" s="88"/>
+      <c r="V19" s="88"/>
+      <c r="W19" s="88"/>
       <c r="X19" s="12"/>
-      <c r="Y19" s="67"/>
-      <c r="Z19" s="67"/>
-      <c r="AA19" s="67"/>
-      <c r="AB19" s="67"/>
+      <c r="Y19" s="88"/>
+      <c r="Z19" s="88"/>
+      <c r="AA19" s="88"/>
+      <c r="AB19" s="88"/>
       <c r="AC19" s="12"/>
-      <c r="AD19" s="67"/>
-      <c r="AE19" s="67"/>
-      <c r="AF19" s="67"/>
-      <c r="AG19" s="67"/>
+      <c r="AD19" s="88"/>
+      <c r="AE19" s="88"/>
+      <c r="AF19" s="88"/>
+      <c r="AG19" s="88"/>
       <c r="AH19" s="12"/>
-      <c r="AI19" s="67"/>
-      <c r="AJ19" s="67"/>
-      <c r="AK19" s="67"/>
-      <c r="AL19" s="67"/>
-      <c r="AM19" s="68"/>
+      <c r="AI19" s="88"/>
+      <c r="AJ19" s="88"/>
+      <c r="AK19" s="88"/>
+      <c r="AL19" s="88"/>
+      <c r="AM19" s="109"/>
       <c r="AN19" s="20"/>
       <c r="AO19" s="19"/>
       <c r="AP19" s="19"/>
@@ -7570,42 +8494,42 @@
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="70"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="89"/>
       <c r="I20" s="12"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="88"/>
+      <c r="M20" s="88"/>
       <c r="N20" s="12"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="67"/>
+      <c r="O20" s="88"/>
+      <c r="P20" s="88"/>
+      <c r="Q20" s="88"/>
+      <c r="R20" s="88"/>
       <c r="S20" s="12"/>
-      <c r="T20" s="67"/>
-      <c r="U20" s="67"/>
-      <c r="V20" s="67"/>
-      <c r="W20" s="67"/>
+      <c r="T20" s="88"/>
+      <c r="U20" s="88"/>
+      <c r="V20" s="88"/>
+      <c r="W20" s="88"/>
       <c r="X20" s="12"/>
-      <c r="Y20" s="67"/>
-      <c r="Z20" s="67"/>
-      <c r="AA20" s="67"/>
-      <c r="AB20" s="67"/>
+      <c r="Y20" s="88"/>
+      <c r="Z20" s="88"/>
+      <c r="AA20" s="88"/>
+      <c r="AB20" s="88"/>
       <c r="AC20" s="12"/>
-      <c r="AD20" s="67"/>
-      <c r="AE20" s="67"/>
-      <c r="AF20" s="67"/>
-      <c r="AG20" s="67"/>
+      <c r="AD20" s="88"/>
+      <c r="AE20" s="88"/>
+      <c r="AF20" s="88"/>
+      <c r="AG20" s="88"/>
       <c r="AH20" s="12"/>
-      <c r="AI20" s="67"/>
-      <c r="AJ20" s="67"/>
-      <c r="AK20" s="67"/>
-      <c r="AL20" s="67"/>
-      <c r="AM20" s="68"/>
+      <c r="AI20" s="88"/>
+      <c r="AJ20" s="88"/>
+      <c r="AK20" s="88"/>
+      <c r="AL20" s="88"/>
+      <c r="AM20" s="109"/>
       <c r="AN20" s="20"/>
       <c r="AO20" s="19"/>
       <c r="AP20" s="19"/>
@@ -7614,42 +8538,42 @@
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="70"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="89"/>
       <c r="I21" s="12"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="88"/>
+      <c r="M21" s="88"/>
       <c r="N21" s="12"/>
-      <c r="O21" s="67"/>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="67"/>
-      <c r="R21" s="67"/>
+      <c r="O21" s="88"/>
+      <c r="P21" s="88"/>
+      <c r="Q21" s="88"/>
+      <c r="R21" s="88"/>
       <c r="S21" s="12"/>
-      <c r="T21" s="67"/>
-      <c r="U21" s="67"/>
-      <c r="V21" s="67"/>
-      <c r="W21" s="67"/>
+      <c r="T21" s="88"/>
+      <c r="U21" s="88"/>
+      <c r="V21" s="88"/>
+      <c r="W21" s="88"/>
       <c r="X21" s="12"/>
-      <c r="Y21" s="67"/>
-      <c r="Z21" s="67"/>
-      <c r="AA21" s="67"/>
-      <c r="AB21" s="67"/>
+      <c r="Y21" s="88"/>
+      <c r="Z21" s="88"/>
+      <c r="AA21" s="88"/>
+      <c r="AB21" s="88"/>
       <c r="AC21" s="12"/>
-      <c r="AD21" s="67"/>
-      <c r="AE21" s="67"/>
-      <c r="AF21" s="67"/>
-      <c r="AG21" s="67"/>
+      <c r="AD21" s="88"/>
+      <c r="AE21" s="88"/>
+      <c r="AF21" s="88"/>
+      <c r="AG21" s="88"/>
       <c r="AH21" s="12"/>
-      <c r="AI21" s="67"/>
-      <c r="AJ21" s="67"/>
-      <c r="AK21" s="67"/>
-      <c r="AL21" s="67"/>
-      <c r="AM21" s="68"/>
+      <c r="AI21" s="88"/>
+      <c r="AJ21" s="88"/>
+      <c r="AK21" s="88"/>
+      <c r="AL21" s="88"/>
+      <c r="AM21" s="109"/>
       <c r="AN21" s="20"/>
       <c r="AO21" s="19"/>
       <c r="AP21" s="19"/>
@@ -7658,42 +8582,42 @@
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
       <c r="I22" s="12"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="88"/>
+      <c r="M22" s="88"/>
       <c r="N22" s="12"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
+      <c r="O22" s="88"/>
+      <c r="P22" s="88"/>
+      <c r="Q22" s="88"/>
+      <c r="R22" s="88"/>
       <c r="S22" s="12"/>
-      <c r="T22" s="67"/>
-      <c r="U22" s="67"/>
-      <c r="V22" s="67"/>
-      <c r="W22" s="67"/>
+      <c r="T22" s="88"/>
+      <c r="U22" s="88"/>
+      <c r="V22" s="88"/>
+      <c r="W22" s="88"/>
       <c r="X22" s="12"/>
-      <c r="Y22" s="67"/>
-      <c r="Z22" s="67"/>
-      <c r="AA22" s="67"/>
-      <c r="AB22" s="67"/>
+      <c r="Y22" s="88"/>
+      <c r="Z22" s="88"/>
+      <c r="AA22" s="88"/>
+      <c r="AB22" s="88"/>
       <c r="AC22" s="12"/>
-      <c r="AD22" s="67"/>
-      <c r="AE22" s="67"/>
-      <c r="AF22" s="67"/>
-      <c r="AG22" s="67"/>
+      <c r="AD22" s="88"/>
+      <c r="AE22" s="88"/>
+      <c r="AF22" s="88"/>
+      <c r="AG22" s="88"/>
       <c r="AH22" s="12"/>
-      <c r="AI22" s="67"/>
-      <c r="AJ22" s="67"/>
-      <c r="AK22" s="67"/>
-      <c r="AL22" s="67"/>
-      <c r="AM22" s="68"/>
+      <c r="AI22" s="88"/>
+      <c r="AJ22" s="88"/>
+      <c r="AK22" s="88"/>
+      <c r="AL22" s="88"/>
+      <c r="AM22" s="109"/>
       <c r="AN22" s="20"/>
       <c r="AO22" s="19"/>
       <c r="AP22" s="19"/>
@@ -7702,42 +8626,42 @@
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
       <c r="I23" s="12"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="88"/>
+      <c r="M23" s="88"/>
       <c r="N23" s="12"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="67"/>
+      <c r="O23" s="88"/>
+      <c r="P23" s="88"/>
+      <c r="Q23" s="88"/>
+      <c r="R23" s="88"/>
       <c r="S23" s="12"/>
-      <c r="T23" s="67"/>
-      <c r="U23" s="67"/>
-      <c r="V23" s="67"/>
-      <c r="W23" s="67"/>
+      <c r="T23" s="88"/>
+      <c r="U23" s="88"/>
+      <c r="V23" s="88"/>
+      <c r="W23" s="88"/>
       <c r="X23" s="12"/>
-      <c r="Y23" s="67"/>
-      <c r="Z23" s="67"/>
-      <c r="AA23" s="67"/>
-      <c r="AB23" s="67"/>
+      <c r="Y23" s="88"/>
+      <c r="Z23" s="88"/>
+      <c r="AA23" s="88"/>
+      <c r="AB23" s="88"/>
       <c r="AC23" s="12"/>
-      <c r="AD23" s="67"/>
-      <c r="AE23" s="67"/>
-      <c r="AF23" s="67"/>
-      <c r="AG23" s="67"/>
+      <c r="AD23" s="88"/>
+      <c r="AE23" s="88"/>
+      <c r="AF23" s="88"/>
+      <c r="AG23" s="88"/>
       <c r="AH23" s="12"/>
-      <c r="AI23" s="67"/>
-      <c r="AJ23" s="67"/>
-      <c r="AK23" s="67"/>
-      <c r="AL23" s="67"/>
-      <c r="AM23" s="68"/>
+      <c r="AI23" s="88"/>
+      <c r="AJ23" s="88"/>
+      <c r="AK23" s="88"/>
+      <c r="AL23" s="88"/>
+      <c r="AM23" s="109"/>
       <c r="AN23" s="20"/>
       <c r="AO23" s="19"/>
       <c r="AP23" s="19"/>
@@ -7746,42 +8670,42 @@
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
       <c r="I24" s="12"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="67"/>
-      <c r="M24" s="67"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="88"/>
+      <c r="M24" s="88"/>
       <c r="N24" s="12"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="67"/>
-      <c r="R24" s="67"/>
+      <c r="O24" s="88"/>
+      <c r="P24" s="88"/>
+      <c r="Q24" s="88"/>
+      <c r="R24" s="88"/>
       <c r="S24" s="12"/>
-      <c r="T24" s="67"/>
-      <c r="U24" s="67"/>
-      <c r="V24" s="67"/>
-      <c r="W24" s="67"/>
+      <c r="T24" s="88"/>
+      <c r="U24" s="88"/>
+      <c r="V24" s="88"/>
+      <c r="W24" s="88"/>
       <c r="X24" s="12"/>
-      <c r="Y24" s="67"/>
-      <c r="Z24" s="67"/>
-      <c r="AA24" s="67"/>
-      <c r="AB24" s="67"/>
+      <c r="Y24" s="88"/>
+      <c r="Z24" s="88"/>
+      <c r="AA24" s="88"/>
+      <c r="AB24" s="88"/>
       <c r="AC24" s="12"/>
-      <c r="AD24" s="67"/>
-      <c r="AE24" s="67"/>
-      <c r="AF24" s="67"/>
-      <c r="AG24" s="67"/>
+      <c r="AD24" s="88"/>
+      <c r="AE24" s="88"/>
+      <c r="AF24" s="88"/>
+      <c r="AG24" s="88"/>
       <c r="AH24" s="12"/>
-      <c r="AI24" s="67"/>
-      <c r="AJ24" s="67"/>
-      <c r="AK24" s="67"/>
-      <c r="AL24" s="67"/>
-      <c r="AM24" s="68"/>
+      <c r="AI24" s="88"/>
+      <c r="AJ24" s="88"/>
+      <c r="AK24" s="88"/>
+      <c r="AL24" s="88"/>
+      <c r="AM24" s="109"/>
       <c r="AN24" s="20"/>
       <c r="AO24" s="19"/>
       <c r="AP24" s="19"/>
@@ -7790,42 +8714,42 @@
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
       <c r="I25" s="12"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="88"/>
+      <c r="L25" s="88"/>
+      <c r="M25" s="88"/>
       <c r="N25" s="12"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="67"/>
-      <c r="R25" s="67"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="88"/>
+      <c r="Q25" s="88"/>
+      <c r="R25" s="88"/>
       <c r="S25" s="12"/>
-      <c r="T25" s="67"/>
-      <c r="U25" s="67"/>
-      <c r="V25" s="67"/>
-      <c r="W25" s="67"/>
+      <c r="T25" s="88"/>
+      <c r="U25" s="88"/>
+      <c r="V25" s="88"/>
+      <c r="W25" s="88"/>
       <c r="X25" s="12"/>
-      <c r="Y25" s="67"/>
-      <c r="Z25" s="67"/>
-      <c r="AA25" s="67"/>
-      <c r="AB25" s="67"/>
+      <c r="Y25" s="88"/>
+      <c r="Z25" s="88"/>
+      <c r="AA25" s="88"/>
+      <c r="AB25" s="88"/>
       <c r="AC25" s="12"/>
-      <c r="AD25" s="67"/>
-      <c r="AE25" s="67"/>
-      <c r="AF25" s="67"/>
-      <c r="AG25" s="67"/>
+      <c r="AD25" s="88"/>
+      <c r="AE25" s="88"/>
+      <c r="AF25" s="88"/>
+      <c r="AG25" s="88"/>
       <c r="AH25" s="12"/>
-      <c r="AI25" s="67"/>
-      <c r="AJ25" s="67"/>
-      <c r="AK25" s="67"/>
-      <c r="AL25" s="67"/>
-      <c r="AM25" s="68"/>
+      <c r="AI25" s="88"/>
+      <c r="AJ25" s="88"/>
+      <c r="AK25" s="88"/>
+      <c r="AL25" s="88"/>
+      <c r="AM25" s="109"/>
       <c r="AN25" s="20"/>
       <c r="AO25" s="19"/>
       <c r="AP25" s="19"/>
@@ -7834,42 +8758,42 @@
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
       <c r="I26" s="12"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="88"/>
+      <c r="M26" s="88"/>
       <c r="N26" s="12"/>
-      <c r="O26" s="67"/>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="67"/>
-      <c r="R26" s="67"/>
+      <c r="O26" s="88"/>
+      <c r="P26" s="88"/>
+      <c r="Q26" s="88"/>
+      <c r="R26" s="88"/>
       <c r="S26" s="12"/>
-      <c r="T26" s="67"/>
-      <c r="U26" s="67"/>
-      <c r="V26" s="67"/>
-      <c r="W26" s="67"/>
+      <c r="T26" s="88"/>
+      <c r="U26" s="88"/>
+      <c r="V26" s="88"/>
+      <c r="W26" s="88"/>
       <c r="X26" s="12"/>
-      <c r="Y26" s="67"/>
-      <c r="Z26" s="67"/>
-      <c r="AA26" s="67"/>
-      <c r="AB26" s="67"/>
+      <c r="Y26" s="88"/>
+      <c r="Z26" s="88"/>
+      <c r="AA26" s="88"/>
+      <c r="AB26" s="88"/>
       <c r="AC26" s="12"/>
-      <c r="AD26" s="67"/>
-      <c r="AE26" s="67"/>
-      <c r="AF26" s="67"/>
-      <c r="AG26" s="67"/>
+      <c r="AD26" s="88"/>
+      <c r="AE26" s="88"/>
+      <c r="AF26" s="88"/>
+      <c r="AG26" s="88"/>
       <c r="AH26" s="12"/>
-      <c r="AI26" s="67"/>
-      <c r="AJ26" s="67"/>
-      <c r="AK26" s="67"/>
-      <c r="AL26" s="67"/>
-      <c r="AM26" s="68"/>
+      <c r="AI26" s="88"/>
+      <c r="AJ26" s="88"/>
+      <c r="AK26" s="88"/>
+      <c r="AL26" s="88"/>
+      <c r="AM26" s="109"/>
       <c r="AN26" s="20"/>
       <c r="AO26" s="19"/>
       <c r="AP26" s="19"/>
@@ -7878,42 +8802,42 @@
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="88"/>
       <c r="I27" s="12"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67"/>
+      <c r="J27" s="88"/>
+      <c r="K27" s="88"/>
+      <c r="L27" s="88"/>
+      <c r="M27" s="88"/>
       <c r="N27" s="12"/>
-      <c r="O27" s="67"/>
-      <c r="P27" s="67"/>
-      <c r="Q27" s="67"/>
-      <c r="R27" s="67"/>
+      <c r="O27" s="88"/>
+      <c r="P27" s="88"/>
+      <c r="Q27" s="88"/>
+      <c r="R27" s="88"/>
       <c r="S27" s="12"/>
-      <c r="T27" s="67"/>
-      <c r="U27" s="67"/>
-      <c r="V27" s="67"/>
-      <c r="W27" s="67"/>
+      <c r="T27" s="88"/>
+      <c r="U27" s="88"/>
+      <c r="V27" s="88"/>
+      <c r="W27" s="88"/>
       <c r="X27" s="12"/>
-      <c r="Y27" s="67"/>
-      <c r="Z27" s="67"/>
-      <c r="AA27" s="67"/>
-      <c r="AB27" s="67"/>
+      <c r="Y27" s="88"/>
+      <c r="Z27" s="88"/>
+      <c r="AA27" s="88"/>
+      <c r="AB27" s="88"/>
       <c r="AC27" s="12"/>
-      <c r="AD27" s="67"/>
-      <c r="AE27" s="67"/>
-      <c r="AF27" s="67"/>
-      <c r="AG27" s="67"/>
+      <c r="AD27" s="88"/>
+      <c r="AE27" s="88"/>
+      <c r="AF27" s="88"/>
+      <c r="AG27" s="88"/>
       <c r="AH27" s="12"/>
-      <c r="AI27" s="67"/>
-      <c r="AJ27" s="67"/>
-      <c r="AK27" s="67"/>
-      <c r="AL27" s="67"/>
-      <c r="AM27" s="68"/>
+      <c r="AI27" s="88"/>
+      <c r="AJ27" s="88"/>
+      <c r="AK27" s="88"/>
+      <c r="AL27" s="88"/>
+      <c r="AM27" s="109"/>
       <c r="AN27" s="20"/>
       <c r="AO27" s="19"/>
       <c r="AP27" s="19"/>
@@ -7922,42 +8846,42 @@
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
       <c r="I28" s="12"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="67"/>
-      <c r="M28" s="67"/>
+      <c r="J28" s="88"/>
+      <c r="K28" s="88"/>
+      <c r="L28" s="88"/>
+      <c r="M28" s="88"/>
       <c r="N28" s="12"/>
-      <c r="O28" s="67"/>
-      <c r="P28" s="67"/>
-      <c r="Q28" s="67"/>
-      <c r="R28" s="67"/>
+      <c r="O28" s="88"/>
+      <c r="P28" s="88"/>
+      <c r="Q28" s="88"/>
+      <c r="R28" s="88"/>
       <c r="S28" s="12"/>
-      <c r="T28" s="67"/>
-      <c r="U28" s="67"/>
-      <c r="V28" s="67"/>
-      <c r="W28" s="67"/>
+      <c r="T28" s="88"/>
+      <c r="U28" s="88"/>
+      <c r="V28" s="88"/>
+      <c r="W28" s="88"/>
       <c r="X28" s="12"/>
-      <c r="Y28" s="67"/>
-      <c r="Z28" s="67"/>
-      <c r="AA28" s="67"/>
-      <c r="AB28" s="67"/>
+      <c r="Y28" s="88"/>
+      <c r="Z28" s="88"/>
+      <c r="AA28" s="88"/>
+      <c r="AB28" s="88"/>
       <c r="AC28" s="12"/>
-      <c r="AD28" s="67"/>
-      <c r="AE28" s="67"/>
-      <c r="AF28" s="67"/>
-      <c r="AG28" s="67"/>
+      <c r="AD28" s="88"/>
+      <c r="AE28" s="88"/>
+      <c r="AF28" s="88"/>
+      <c r="AG28" s="88"/>
       <c r="AH28" s="12"/>
-      <c r="AI28" s="67"/>
-      <c r="AJ28" s="67"/>
-      <c r="AK28" s="67"/>
-      <c r="AL28" s="67"/>
-      <c r="AM28" s="68"/>
+      <c r="AI28" s="88"/>
+      <c r="AJ28" s="88"/>
+      <c r="AK28" s="88"/>
+      <c r="AL28" s="88"/>
+      <c r="AM28" s="109"/>
       <c r="AN28" s="20"/>
       <c r="AO28" s="19"/>
       <c r="AP28" s="19"/>
@@ -7966,42 +8890,42 @@
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
       <c r="I29" s="12"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="67"/>
-      <c r="M29" s="67"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="88"/>
+      <c r="L29" s="88"/>
+      <c r="M29" s="88"/>
       <c r="N29" s="12"/>
-      <c r="O29" s="67"/>
-      <c r="P29" s="67"/>
-      <c r="Q29" s="67"/>
-      <c r="R29" s="67"/>
+      <c r="O29" s="88"/>
+      <c r="P29" s="88"/>
+      <c r="Q29" s="88"/>
+      <c r="R29" s="88"/>
       <c r="S29" s="12"/>
-      <c r="T29" s="67"/>
-      <c r="U29" s="67"/>
-      <c r="V29" s="67"/>
-      <c r="W29" s="67"/>
+      <c r="T29" s="88"/>
+      <c r="U29" s="88"/>
+      <c r="V29" s="88"/>
+      <c r="W29" s="88"/>
       <c r="X29" s="12"/>
-      <c r="Y29" s="67"/>
-      <c r="Z29" s="67"/>
-      <c r="AA29" s="67"/>
-      <c r="AB29" s="67"/>
+      <c r="Y29" s="88"/>
+      <c r="Z29" s="88"/>
+      <c r="AA29" s="88"/>
+      <c r="AB29" s="88"/>
       <c r="AC29" s="12"/>
-      <c r="AD29" s="67"/>
-      <c r="AE29" s="67"/>
-      <c r="AF29" s="67"/>
-      <c r="AG29" s="67"/>
+      <c r="AD29" s="88"/>
+      <c r="AE29" s="88"/>
+      <c r="AF29" s="88"/>
+      <c r="AG29" s="88"/>
       <c r="AH29" s="12"/>
-      <c r="AI29" s="67"/>
-      <c r="AJ29" s="67"/>
-      <c r="AK29" s="67"/>
-      <c r="AL29" s="67"/>
-      <c r="AM29" s="68"/>
+      <c r="AI29" s="88"/>
+      <c r="AJ29" s="88"/>
+      <c r="AK29" s="88"/>
+      <c r="AL29" s="88"/>
+      <c r="AM29" s="109"/>
       <c r="AN29" s="20"/>
       <c r="AO29" s="19"/>
       <c r="AP29" s="19"/>
@@ -8010,42 +8934,42 @@
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
       <c r="I30" s="12"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="64"/>
-      <c r="M30" s="64"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="93"/>
+      <c r="L30" s="93"/>
+      <c r="M30" s="93"/>
       <c r="N30" s="12"/>
-      <c r="O30" s="64"/>
-      <c r="P30" s="64"/>
-      <c r="Q30" s="64"/>
-      <c r="R30" s="64"/>
+      <c r="O30" s="93"/>
+      <c r="P30" s="93"/>
+      <c r="Q30" s="93"/>
+      <c r="R30" s="93"/>
       <c r="S30" s="12"/>
-      <c r="T30" s="64"/>
-      <c r="U30" s="64"/>
-      <c r="V30" s="64"/>
-      <c r="W30" s="64"/>
+      <c r="T30" s="93"/>
+      <c r="U30" s="93"/>
+      <c r="V30" s="93"/>
+      <c r="W30" s="93"/>
       <c r="X30" s="12"/>
-      <c r="Y30" s="64"/>
-      <c r="Z30" s="64"/>
-      <c r="AA30" s="64"/>
-      <c r="AB30" s="64"/>
+      <c r="Y30" s="93"/>
+      <c r="Z30" s="93"/>
+      <c r="AA30" s="93"/>
+      <c r="AB30" s="93"/>
       <c r="AC30" s="12"/>
-      <c r="AD30" s="64"/>
-      <c r="AE30" s="64"/>
-      <c r="AF30" s="64"/>
-      <c r="AG30" s="64"/>
+      <c r="AD30" s="93"/>
+      <c r="AE30" s="93"/>
+      <c r="AF30" s="93"/>
+      <c r="AG30" s="93"/>
       <c r="AH30" s="12"/>
-      <c r="AI30" s="64"/>
-      <c r="AJ30" s="64"/>
-      <c r="AK30" s="64"/>
-      <c r="AL30" s="64"/>
-      <c r="AM30" s="69"/>
+      <c r="AI30" s="93"/>
+      <c r="AJ30" s="93"/>
+      <c r="AK30" s="93"/>
+      <c r="AL30" s="93"/>
+      <c r="AM30" s="95"/>
       <c r="AN30" s="20"/>
       <c r="AO30" s="19"/>
       <c r="AP30" s="19"/>
@@ -8054,42 +8978,42 @@
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="94"/>
       <c r="I31" s="13"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="94"/>
+      <c r="L31" s="94"/>
+      <c r="M31" s="94"/>
       <c r="N31" s="13"/>
-      <c r="O31" s="62"/>
-      <c r="P31" s="62"/>
-      <c r="Q31" s="62"/>
-      <c r="R31" s="62"/>
+      <c r="O31" s="94"/>
+      <c r="P31" s="94"/>
+      <c r="Q31" s="94"/>
+      <c r="R31" s="94"/>
       <c r="S31" s="13"/>
-      <c r="T31" s="62"/>
-      <c r="U31" s="62"/>
-      <c r="V31" s="62"/>
-      <c r="W31" s="62"/>
+      <c r="T31" s="94"/>
+      <c r="U31" s="94"/>
+      <c r="V31" s="94"/>
+      <c r="W31" s="94"/>
       <c r="X31" s="13"/>
-      <c r="Y31" s="62"/>
-      <c r="Z31" s="62"/>
-      <c r="AA31" s="62"/>
-      <c r="AB31" s="62"/>
+      <c r="Y31" s="94"/>
+      <c r="Z31" s="94"/>
+      <c r="AA31" s="94"/>
+      <c r="AB31" s="94"/>
       <c r="AC31" s="13"/>
-      <c r="AD31" s="62"/>
-      <c r="AE31" s="62"/>
-      <c r="AF31" s="62"/>
-      <c r="AG31" s="62"/>
+      <c r="AD31" s="94"/>
+      <c r="AE31" s="94"/>
+      <c r="AF31" s="94"/>
+      <c r="AG31" s="94"/>
       <c r="AH31" s="13"/>
-      <c r="AI31" s="62"/>
-      <c r="AJ31" s="62"/>
-      <c r="AK31" s="62"/>
-      <c r="AL31" s="62"/>
-      <c r="AM31" s="63"/>
+      <c r="AI31" s="94"/>
+      <c r="AJ31" s="94"/>
+      <c r="AK31" s="94"/>
+      <c r="AL31" s="94"/>
+      <c r="AM31" s="107"/>
       <c r="AN31" s="20"/>
       <c r="AO31" s="19"/>
       <c r="AP31" s="19"/>
@@ -8185,45 +9109,45 @@
     <row r="34" spans="1:42" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="51"/>
-      <c r="P34" s="51"/>
-      <c r="Q34" s="51"/>
-      <c r="R34" s="51"/>
-      <c r="S34" s="51"/>
-      <c r="T34" s="51"/>
-      <c r="U34" s="51"/>
-      <c r="V34" s="51"/>
-      <c r="W34" s="51"/>
-      <c r="X34" s="51"/>
-      <c r="Y34" s="51"/>
-      <c r="Z34" s="51"/>
-      <c r="AA34" s="51"/>
-      <c r="AB34" s="51"/>
-      <c r="AC34" s="51"/>
-      <c r="AD34" s="51"/>
-      <c r="AE34" s="51"/>
-      <c r="AF34" s="51"/>
-      <c r="AG34" s="51"/>
-      <c r="AH34" s="51"/>
-      <c r="AI34" s="51"/>
-      <c r="AJ34" s="51"/>
-      <c r="AK34" s="51"/>
-      <c r="AL34" s="51"/>
-      <c r="AM34" s="52"/>
+      <c r="D34" s="102"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="102"/>
+      <c r="H34" s="102"/>
+      <c r="I34" s="102"/>
+      <c r="J34" s="102"/>
+      <c r="K34" s="102"/>
+      <c r="L34" s="102"/>
+      <c r="M34" s="102"/>
+      <c r="N34" s="102"/>
+      <c r="O34" s="102"/>
+      <c r="P34" s="102"/>
+      <c r="Q34" s="102"/>
+      <c r="R34" s="102"/>
+      <c r="S34" s="102"/>
+      <c r="T34" s="102"/>
+      <c r="U34" s="102"/>
+      <c r="V34" s="102"/>
+      <c r="W34" s="102"/>
+      <c r="X34" s="102"/>
+      <c r="Y34" s="102"/>
+      <c r="Z34" s="102"/>
+      <c r="AA34" s="102"/>
+      <c r="AB34" s="102"/>
+      <c r="AC34" s="102"/>
+      <c r="AD34" s="102"/>
+      <c r="AE34" s="102"/>
+      <c r="AF34" s="102"/>
+      <c r="AG34" s="102"/>
+      <c r="AH34" s="102"/>
+      <c r="AI34" s="102"/>
+      <c r="AJ34" s="102"/>
+      <c r="AK34" s="102"/>
+      <c r="AL34" s="102"/>
+      <c r="AM34" s="103"/>
       <c r="AN34" s="20"/>
       <c r="AO34" s="19"/>
       <c r="AP34" s="19"/>
@@ -8231,43 +9155,43 @@
     <row r="35" spans="1:42" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="29"/>
       <c r="B35" s="30"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="54"/>
-      <c r="O35" s="54"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="54"/>
-      <c r="R35" s="54"/>
-      <c r="S35" s="54"/>
-      <c r="T35" s="54"/>
-      <c r="U35" s="54"/>
-      <c r="V35" s="54"/>
-      <c r="W35" s="54"/>
-      <c r="X35" s="54"/>
-      <c r="Y35" s="54"/>
-      <c r="Z35" s="54"/>
-      <c r="AA35" s="54"/>
-      <c r="AB35" s="54"/>
-      <c r="AC35" s="54"/>
-      <c r="AD35" s="54"/>
-      <c r="AE35" s="54"/>
-      <c r="AF35" s="54"/>
-      <c r="AG35" s="54"/>
-      <c r="AH35" s="54"/>
-      <c r="AI35" s="54"/>
-      <c r="AJ35" s="54"/>
-      <c r="AK35" s="54"/>
-      <c r="AL35" s="54"/>
-      <c r="AM35" s="55"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="91"/>
+      <c r="I35" s="91"/>
+      <c r="J35" s="91"/>
+      <c r="K35" s="91"/>
+      <c r="L35" s="91"/>
+      <c r="M35" s="91"/>
+      <c r="N35" s="91"/>
+      <c r="O35" s="91"/>
+      <c r="P35" s="91"/>
+      <c r="Q35" s="91"/>
+      <c r="R35" s="91"/>
+      <c r="S35" s="91"/>
+      <c r="T35" s="91"/>
+      <c r="U35" s="91"/>
+      <c r="V35" s="91"/>
+      <c r="W35" s="91"/>
+      <c r="X35" s="91"/>
+      <c r="Y35" s="91"/>
+      <c r="Z35" s="91"/>
+      <c r="AA35" s="91"/>
+      <c r="AB35" s="91"/>
+      <c r="AC35" s="91"/>
+      <c r="AD35" s="91"/>
+      <c r="AE35" s="91"/>
+      <c r="AF35" s="91"/>
+      <c r="AG35" s="91"/>
+      <c r="AH35" s="91"/>
+      <c r="AI35" s="91"/>
+      <c r="AJ35" s="91"/>
+      <c r="AK35" s="91"/>
+      <c r="AL35" s="91"/>
+      <c r="AM35" s="92"/>
       <c r="AN35" s="25"/>
       <c r="AO35" s="24"/>
       <c r="AP35" s="24"/>
@@ -8275,43 +9199,43 @@
     <row r="36" spans="1:42" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="29"/>
       <c r="B36" s="30"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="84"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="84"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="84"/>
-      <c r="K36" s="84"/>
-      <c r="L36" s="84"/>
-      <c r="M36" s="84"/>
-      <c r="N36" s="84"/>
-      <c r="O36" s="84"/>
-      <c r="P36" s="84"/>
-      <c r="Q36" s="84"/>
-      <c r="R36" s="84"/>
-      <c r="S36" s="84"/>
-      <c r="T36" s="84"/>
-      <c r="U36" s="84"/>
-      <c r="V36" s="84"/>
-      <c r="W36" s="84"/>
-      <c r="X36" s="84"/>
-      <c r="Y36" s="84"/>
-      <c r="Z36" s="84"/>
-      <c r="AA36" s="84"/>
-      <c r="AB36" s="84"/>
-      <c r="AC36" s="84"/>
-      <c r="AD36" s="84"/>
-      <c r="AE36" s="84"/>
-      <c r="AF36" s="84"/>
-      <c r="AG36" s="84"/>
-      <c r="AH36" s="84"/>
-      <c r="AI36" s="84"/>
-      <c r="AJ36" s="84"/>
-      <c r="AK36" s="84"/>
-      <c r="AL36" s="84"/>
-      <c r="AM36" s="85"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="61"/>
+      <c r="N36" s="61"/>
+      <c r="O36" s="61"/>
+      <c r="P36" s="61"/>
+      <c r="Q36" s="61"/>
+      <c r="R36" s="61"/>
+      <c r="S36" s="61"/>
+      <c r="T36" s="61"/>
+      <c r="U36" s="61"/>
+      <c r="V36" s="61"/>
+      <c r="W36" s="61"/>
+      <c r="X36" s="61"/>
+      <c r="Y36" s="61"/>
+      <c r="Z36" s="61"/>
+      <c r="AA36" s="61"/>
+      <c r="AB36" s="61"/>
+      <c r="AC36" s="61"/>
+      <c r="AD36" s="61"/>
+      <c r="AE36" s="61"/>
+      <c r="AF36" s="61"/>
+      <c r="AG36" s="61"/>
+      <c r="AH36" s="61"/>
+      <c r="AI36" s="61"/>
+      <c r="AJ36" s="61"/>
+      <c r="AK36" s="61"/>
+      <c r="AL36" s="61"/>
+      <c r="AM36" s="62"/>
       <c r="AN36" s="25"/>
       <c r="AO36" s="24"/>
       <c r="AP36" s="24"/>
@@ -8319,43 +9243,43 @@
     <row r="37" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="57"/>
-      <c r="O37" s="57"/>
-      <c r="P37" s="57"/>
-      <c r="Q37" s="57"/>
-      <c r="R37" s="57"/>
-      <c r="S37" s="57"/>
-      <c r="T37" s="57"/>
-      <c r="U37" s="57"/>
-      <c r="V37" s="57"/>
-      <c r="W37" s="57"/>
-      <c r="X37" s="57"/>
-      <c r="Y37" s="57"/>
-      <c r="Z37" s="57"/>
-      <c r="AA37" s="57"/>
-      <c r="AB37" s="57"/>
-      <c r="AC37" s="57"/>
-      <c r="AD37" s="57"/>
-      <c r="AE37" s="57"/>
-      <c r="AF37" s="57"/>
-      <c r="AG37" s="57"/>
-      <c r="AH37" s="57"/>
-      <c r="AI37" s="57"/>
-      <c r="AJ37" s="57"/>
-      <c r="AK37" s="57"/>
-      <c r="AL37" s="57"/>
-      <c r="AM37" s="58"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="78"/>
+      <c r="L37" s="78"/>
+      <c r="M37" s="78"/>
+      <c r="N37" s="78"/>
+      <c r="O37" s="78"/>
+      <c r="P37" s="78"/>
+      <c r="Q37" s="78"/>
+      <c r="R37" s="78"/>
+      <c r="S37" s="78"/>
+      <c r="T37" s="78"/>
+      <c r="U37" s="78"/>
+      <c r="V37" s="78"/>
+      <c r="W37" s="78"/>
+      <c r="X37" s="78"/>
+      <c r="Y37" s="78"/>
+      <c r="Z37" s="78"/>
+      <c r="AA37" s="78"/>
+      <c r="AB37" s="78"/>
+      <c r="AC37" s="78"/>
+      <c r="AD37" s="78"/>
+      <c r="AE37" s="78"/>
+      <c r="AF37" s="78"/>
+      <c r="AG37" s="78"/>
+      <c r="AH37" s="78"/>
+      <c r="AI37" s="78"/>
+      <c r="AJ37" s="78"/>
+      <c r="AK37" s="78"/>
+      <c r="AL37" s="78"/>
+      <c r="AM37" s="79"/>
       <c r="AN37" s="20"/>
       <c r="AO37" s="19"/>
       <c r="AP37" s="19"/>
@@ -8363,43 +9287,43 @@
     <row r="38" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="60"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="60"/>
-      <c r="L38" s="60"/>
-      <c r="M38" s="60"/>
-      <c r="N38" s="60"/>
-      <c r="O38" s="60"/>
-      <c r="P38" s="60"/>
-      <c r="Q38" s="60"/>
-      <c r="R38" s="60"/>
-      <c r="S38" s="60"/>
-      <c r="T38" s="60"/>
-      <c r="U38" s="60"/>
-      <c r="V38" s="60"/>
-      <c r="W38" s="60"/>
-      <c r="X38" s="60"/>
-      <c r="Y38" s="60"/>
-      <c r="Z38" s="60"/>
-      <c r="AA38" s="60"/>
-      <c r="AB38" s="60"/>
-      <c r="AC38" s="60"/>
-      <c r="AD38" s="60"/>
-      <c r="AE38" s="60"/>
-      <c r="AF38" s="60"/>
-      <c r="AG38" s="60"/>
-      <c r="AH38" s="60"/>
-      <c r="AI38" s="60"/>
-      <c r="AJ38" s="60"/>
-      <c r="AK38" s="60"/>
-      <c r="AL38" s="60"/>
-      <c r="AM38" s="61"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="80"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="80"/>
+      <c r="K38" s="80"/>
+      <c r="L38" s="80"/>
+      <c r="M38" s="80"/>
+      <c r="N38" s="80"/>
+      <c r="O38" s="80"/>
+      <c r="P38" s="80"/>
+      <c r="Q38" s="80"/>
+      <c r="R38" s="80"/>
+      <c r="S38" s="80"/>
+      <c r="T38" s="80"/>
+      <c r="U38" s="80"/>
+      <c r="V38" s="80"/>
+      <c r="W38" s="80"/>
+      <c r="X38" s="80"/>
+      <c r="Y38" s="80"/>
+      <c r="Z38" s="80"/>
+      <c r="AA38" s="80"/>
+      <c r="AB38" s="80"/>
+      <c r="AC38" s="80"/>
+      <c r="AD38" s="80"/>
+      <c r="AE38" s="80"/>
+      <c r="AF38" s="80"/>
+      <c r="AG38" s="80"/>
+      <c r="AH38" s="80"/>
+      <c r="AI38" s="80"/>
+      <c r="AJ38" s="80"/>
+      <c r="AK38" s="80"/>
+      <c r="AL38" s="80"/>
+      <c r="AM38" s="81"/>
       <c r="AN38" s="20"/>
       <c r="AO38" s="19"/>
       <c r="AP38" s="19"/>
@@ -8537,6 +9461,137 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="155">
+    <mergeCell ref="C3:AM3"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="P6:Z6"/>
+    <mergeCell ref="AC6:AM6"/>
+    <mergeCell ref="C34:AM34"/>
+    <mergeCell ref="C35:AM35"/>
+    <mergeCell ref="C37:AM37"/>
+    <mergeCell ref="C38:AM38"/>
+    <mergeCell ref="AI31:AM31"/>
+    <mergeCell ref="AD30:AG30"/>
+    <mergeCell ref="AD31:AG31"/>
+    <mergeCell ref="AI17:AM17"/>
+    <mergeCell ref="AI18:AM18"/>
+    <mergeCell ref="AI19:AM19"/>
+    <mergeCell ref="AI20:AM20"/>
+    <mergeCell ref="AI21:AM21"/>
+    <mergeCell ref="AI22:AM22"/>
+    <mergeCell ref="AI23:AM23"/>
+    <mergeCell ref="AI24:AM24"/>
+    <mergeCell ref="AI25:AM25"/>
+    <mergeCell ref="AI26:AM26"/>
+    <mergeCell ref="AI27:AM27"/>
+    <mergeCell ref="AI28:AM28"/>
+    <mergeCell ref="AI29:AM29"/>
+    <mergeCell ref="AI30:AM30"/>
+    <mergeCell ref="Y29:AB29"/>
+    <mergeCell ref="Y30:AB30"/>
+    <mergeCell ref="Y31:AB31"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="AD27:AG27"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="AD29:AG29"/>
+    <mergeCell ref="Y17:AB17"/>
+    <mergeCell ref="Y18:AB18"/>
+    <mergeCell ref="Y19:AB19"/>
+    <mergeCell ref="Y20:AB20"/>
+    <mergeCell ref="Y21:AB21"/>
+    <mergeCell ref="Y22:AB22"/>
+    <mergeCell ref="Y23:AB23"/>
+    <mergeCell ref="Y24:AB24"/>
+    <mergeCell ref="Y25:AB25"/>
+    <mergeCell ref="Y26:AB26"/>
+    <mergeCell ref="Y27:AB27"/>
+    <mergeCell ref="Y28:AB28"/>
+    <mergeCell ref="AD18:AG18"/>
+    <mergeCell ref="AD19:AG19"/>
+    <mergeCell ref="AD20:AG20"/>
+    <mergeCell ref="AD21:AG21"/>
+    <mergeCell ref="AD22:AG22"/>
+    <mergeCell ref="AD23:AG23"/>
+    <mergeCell ref="AD24:AG24"/>
+    <mergeCell ref="AD25:AG25"/>
+    <mergeCell ref="AD26:AG26"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="T20:W20"/>
+    <mergeCell ref="T21:W21"/>
+    <mergeCell ref="T22:W22"/>
+    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="T25:W25"/>
+    <mergeCell ref="T26:W26"/>
+    <mergeCell ref="T27:W27"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="T29:W29"/>
+    <mergeCell ref="T30:W30"/>
+    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="V4:Z4"/>
+    <mergeCell ref="Q7:Z7"/>
+    <mergeCell ref="Q8:Z8"/>
+    <mergeCell ref="Q9:Z9"/>
+    <mergeCell ref="Q10:Z10"/>
+    <mergeCell ref="AC7:AM7"/>
+    <mergeCell ref="AC8:AM8"/>
+    <mergeCell ref="AC9:AM9"/>
+    <mergeCell ref="AC10:AM10"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="I15:J16"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N15:O16"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S15:T16"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="U16:W16"/>
     <mergeCell ref="C36:AM36"/>
     <mergeCell ref="AH15:AI16"/>
     <mergeCell ref="C7:M7"/>
@@ -8561,500 +9616,369 @@
     <mergeCell ref="AJ15:AL15"/>
     <mergeCell ref="AJ16:AL16"/>
     <mergeCell ref="D17:H17"/>
-    <mergeCell ref="AC7:AM7"/>
-    <mergeCell ref="AC8:AM8"/>
-    <mergeCell ref="AC9:AM9"/>
-    <mergeCell ref="AC10:AM10"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="I15:J16"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="N15:O16"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S15:T16"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="V4:Z4"/>
-    <mergeCell ref="Q7:Z7"/>
-    <mergeCell ref="Q8:Z8"/>
-    <mergeCell ref="Q9:Z9"/>
-    <mergeCell ref="Q10:Z10"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="AD22:AG22"/>
-    <mergeCell ref="AD23:AG23"/>
-    <mergeCell ref="AD24:AG24"/>
-    <mergeCell ref="AD25:AG25"/>
-    <mergeCell ref="AD26:AG26"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="T19:W19"/>
-    <mergeCell ref="T20:W20"/>
-    <mergeCell ref="T21:W21"/>
-    <mergeCell ref="T22:W22"/>
-    <mergeCell ref="T23:W23"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="T25:W25"/>
-    <mergeCell ref="T26:W26"/>
-    <mergeCell ref="T27:W27"/>
-    <mergeCell ref="T28:W28"/>
-    <mergeCell ref="T29:W29"/>
-    <mergeCell ref="T30:W30"/>
-    <mergeCell ref="T31:W31"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="AI30:AM30"/>
-    <mergeCell ref="Y29:AB29"/>
-    <mergeCell ref="Y30:AB30"/>
-    <mergeCell ref="Y31:AB31"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="AD27:AG27"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="AD29:AG29"/>
-    <mergeCell ref="Y17:AB17"/>
-    <mergeCell ref="Y18:AB18"/>
-    <mergeCell ref="Y19:AB19"/>
-    <mergeCell ref="Y20:AB20"/>
-    <mergeCell ref="Y21:AB21"/>
-    <mergeCell ref="Y22:AB22"/>
-    <mergeCell ref="Y23:AB23"/>
-    <mergeCell ref="Y24:AB24"/>
-    <mergeCell ref="Y25:AB25"/>
-    <mergeCell ref="Y26:AB26"/>
-    <mergeCell ref="Y27:AB27"/>
-    <mergeCell ref="Y28:AB28"/>
-    <mergeCell ref="AD18:AG18"/>
-    <mergeCell ref="AD19:AG19"/>
-    <mergeCell ref="AD20:AG20"/>
-    <mergeCell ref="AD21:AG21"/>
-    <mergeCell ref="C3:AM3"/>
-    <mergeCell ref="C6:M6"/>
-    <mergeCell ref="P6:Z6"/>
-    <mergeCell ref="AC6:AM6"/>
-    <mergeCell ref="C34:AM34"/>
-    <mergeCell ref="C35:AM35"/>
-    <mergeCell ref="C37:AM37"/>
-    <mergeCell ref="C38:AM38"/>
-    <mergeCell ref="AI31:AM31"/>
-    <mergeCell ref="AD30:AG30"/>
-    <mergeCell ref="AD31:AG31"/>
-    <mergeCell ref="AI17:AM17"/>
-    <mergeCell ref="AI18:AM18"/>
-    <mergeCell ref="AI19:AM19"/>
-    <mergeCell ref="AI20:AM20"/>
-    <mergeCell ref="AI21:AM21"/>
-    <mergeCell ref="AI22:AM22"/>
-    <mergeCell ref="AI23:AM23"/>
-    <mergeCell ref="AI24:AM24"/>
-    <mergeCell ref="AI25:AM25"/>
-    <mergeCell ref="AI26:AM26"/>
-    <mergeCell ref="AI27:AM27"/>
-    <mergeCell ref="AI28:AM28"/>
-    <mergeCell ref="AI29:AM29"/>
   </mergeCells>
   <conditionalFormatting sqref="C6:C12 C15 E15:E16 O13:AM13 C1:AM1 C17:D31 J17:J31 C35:C38 C43:AM1048576 C4:AM5 O6:O12 AA6:AB12">
-    <cfRule type="cellIs" dxfId="76" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="99" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C12 C15 E15:E16 O13:AM13 C1:AM1 C17:D31 J17:J31 C35:C38 C43:AM1048576 C4:AM5 O6:O12 AA6:AB12">
-    <cfRule type="cellIs" dxfId="75" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="98" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8">
-    <cfRule type="cellIs" dxfId="74" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="65" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8">
-    <cfRule type="cellIs" dxfId="73" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="64" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12">
-    <cfRule type="cellIs" dxfId="72" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="57" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12">
-    <cfRule type="cellIs" dxfId="71" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="56" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10">
-    <cfRule type="cellIs" dxfId="70" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="61" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10">
-    <cfRule type="cellIs" dxfId="69" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="60" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11">
-    <cfRule type="cellIs" dxfId="68" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="59" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11">
-    <cfRule type="cellIs" dxfId="67" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="58" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:N13">
-    <cfRule type="cellIs" dxfId="66" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="85" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:N13">
-    <cfRule type="cellIs" dxfId="65" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="84" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC7:AC12">
-    <cfRule type="cellIs" dxfId="64" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="68" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="cellIs" dxfId="63" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="83" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="cellIs" dxfId="62" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="82" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15">
-    <cfRule type="cellIs" dxfId="61" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="81" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15">
-    <cfRule type="cellIs" dxfId="60" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="80" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S15">
-    <cfRule type="cellIs" dxfId="59" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="79" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S15">
-    <cfRule type="cellIs" dxfId="58" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="78" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X15">
-    <cfRule type="cellIs" dxfId="57" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="77" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X15">
-    <cfRule type="cellIs" dxfId="56" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="76" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC15">
-    <cfRule type="cellIs" dxfId="55" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="75" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC15">
-    <cfRule type="cellIs" dxfId="54" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="74" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH15">
-    <cfRule type="cellIs" dxfId="53" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="73" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH15">
-    <cfRule type="cellIs" dxfId="52" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="72" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC7:AC12">
-    <cfRule type="cellIs" dxfId="51" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="69" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7">
-    <cfRule type="cellIs" dxfId="50" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="67" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7">
-    <cfRule type="cellIs" dxfId="49" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="66" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9">
-    <cfRule type="cellIs" dxfId="48" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="63" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9">
-    <cfRule type="cellIs" dxfId="47" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="62" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:I31">
-    <cfRule type="cellIs" dxfId="46" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="26" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O17:O31">
-    <cfRule type="cellIs" dxfId="45" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="55" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O17:O31">
-    <cfRule type="cellIs" dxfId="44" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="54" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T17:T31">
-    <cfRule type="cellIs" dxfId="43" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="53" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T17:T31">
-    <cfRule type="cellIs" dxfId="42" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="52" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y17:Y31">
-    <cfRule type="cellIs" dxfId="41" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="51" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y17:Y31">
-    <cfRule type="cellIs" dxfId="40" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD17:AD31">
-    <cfRule type="cellIs" dxfId="39" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="49" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD17:AD31">
-    <cfRule type="cellIs" dxfId="38" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH17:AI31">
-    <cfRule type="cellIs" dxfId="37" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="47" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH17:AI31">
-    <cfRule type="cellIs" dxfId="36" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="46" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC17:AC31">
-    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="35" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC17:AC31">
-    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="34" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X17:X31">
-    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="33" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X17:X31">
-    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="32" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S17:S31">
-    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="31" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S17:S31">
-    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="30" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17:N31">
-    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="29" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17:N31">
-    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="28" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:I31">
-    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="27" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:H31">
-    <cfRule type="expression" dxfId="26" priority="23">
+    <cfRule type="expression" dxfId="32" priority="23">
       <formula>StartDate+0=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:M31">
-    <cfRule type="expression" dxfId="25" priority="22">
+    <cfRule type="expression" dxfId="31" priority="22">
       <formula>StartDate+1=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17:R31">
-    <cfRule type="expression" dxfId="24" priority="21">
+    <cfRule type="expression" dxfId="30" priority="21">
       <formula>StartDate+2=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S17:W31">
-    <cfRule type="expression" dxfId="23" priority="20">
+    <cfRule type="expression" dxfId="29" priority="20">
       <formula>StartDate+3=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X17:AB31">
-    <cfRule type="expression" dxfId="22" priority="19">
+    <cfRule type="expression" dxfId="28" priority="19">
       <formula>StartDate+4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC17:AG31">
-    <cfRule type="expression" dxfId="21" priority="18">
+    <cfRule type="expression" dxfId="27" priority="18">
       <formula>StartDate+5=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH17:AM31">
-    <cfRule type="expression" dxfId="20" priority="17">
+    <cfRule type="expression" dxfId="26" priority="17">
       <formula>StartDate+6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15:K16">
-    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="16" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15:K16">
-    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="15" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15:P16">
-    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="14" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15:P16">
-    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="13" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U15:U16">
-    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U15:U16">
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z15:Z16">
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z15:Z16">
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE15:AE16">
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE15:AE16">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ15:AJ16 AM15:AM16">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ15:AJ16 AM15:AM16">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC6">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC6">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9071,18 +9995,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAD748A-0236-4680-920A-ED00DE65B007}">
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="88" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.21875" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" style="98" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" style="48" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="21.88671875" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
@@ -9101,86 +10025,86 @@
     <col min="18" max="21" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="95" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
+    <row r="1" spans="1:21" s="45" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="99" t="s">
+      <c r="C1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="101" t="s">
+      <c r="D1" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="101" t="s">
+      <c r="E1" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="101" t="s">
+      <c r="F1" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="101" t="s">
+      <c r="G1" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="101" t="s">
+      <c r="H1" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="101" t="s">
+      <c r="I1" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="101" t="s">
+      <c r="J1" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="96"/>
-      <c r="M1" s="97"/>
-      <c r="O1" s="96" t="s">
+      <c r="K1" s="46"/>
+      <c r="M1" s="47"/>
+      <c r="O1" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="96" t="s">
+      <c r="P1" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="96" t="s">
+      <c r="Q1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="96" t="s">
+      <c r="R1" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="96" t="s">
+      <c r="S1" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="96" t="s">
+      <c r="T1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="96" t="s">
+      <c r="U1" s="46" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107">
+      <c r="B2" s="58"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57">
         <v>16</v>
       </c>
-      <c r="E2" s="107">
+      <c r="E2" s="57">
         <v>16</v>
       </c>
-      <c r="F2" s="107">
+      <c r="F2" s="57">
         <v>16</v>
       </c>
-      <c r="G2" s="107">
+      <c r="G2" s="57">
         <v>16</v>
       </c>
-      <c r="H2" s="107">
+      <c r="H2" s="57">
         <v>16</v>
       </c>
-      <c r="I2" s="107">
+      <c r="I2" s="57">
         <v>16</v>
       </c>
-      <c r="J2" s="107">
+      <c r="J2" s="57">
         <v>16</v>
       </c>
       <c r="O2" t="s">
@@ -9206,383 +10130,453 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="104" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
+      <c r="A3" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
     </row>
     <row r="4" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="57" t="s">
         <v>55</v>
       </c>
+      <c r="D4" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
     </row>
     <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="107" t="s">
+      <c r="C5" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
+      <c r="D5" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
     </row>
     <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="107" t="s">
+      <c r="A6" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
+      <c r="D6" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
     </row>
     <row r="7" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="107" t="s">
+      <c r="A7" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="107" t="s">
+      <c r="C7" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
+      <c r="D7" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
     </row>
     <row r="8" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="108" t="s">
+      <c r="B8" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="107" t="s">
+      <c r="C8" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
     </row>
     <row r="9" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="107" t="s">
+      <c r="A9" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
     </row>
     <row r="10" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="107" t="s">
+      <c r="A10" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="57" t="s">
         <v>58</v>
       </c>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
     </row>
     <row r="11" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="105" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="102"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
+      <c r="A11" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
     </row>
     <row r="12" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="107" t="s">
+      <c r="C12" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
     </row>
     <row r="13" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="107" t="s">
+      <c r="A13" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="108" t="s">
+      <c r="B13" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="107" t="s">
+      <c r="C13" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
     </row>
     <row r="14" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="107" t="s">
+      <c r="A14" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="108" t="s">
+      <c r="B14" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="107" t="s">
+      <c r="C14" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
     </row>
     <row r="15" spans="1:21" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="106" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="102"/>
+      <c r="A15" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
     </row>
     <row r="16" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="107" t="s">
+      <c r="A16" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="108" t="s">
+      <c r="B16" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="107" t="s">
+      <c r="C16" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
     </row>
     <row r="17" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="107" t="s">
+      <c r="A17" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="108" t="s">
+      <c r="B17" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="107" t="s">
+      <c r="C17" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="107"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
     </row>
     <row r="18" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="107" t="s">
+      <c r="A18" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="108" t="s">
+      <c r="B18" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="107" t="s">
+      <c r="C18" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
     </row>
     <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="107" t="s">
+      <c r="A19" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="108" t="s">
+      <c r="B19" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="107" t="s">
+      <c r="C19" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="107"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
     </row>
     <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A20" s="107" t="s">
+      <c r="A20" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="108" t="s">
+      <c r="B20" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="107" t="s">
+      <c r="C20" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="107"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
     </row>
     <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A21" s="107" t="s">
+      <c r="A21" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="108" t="s">
+      <c r="B21" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="107" t="s">
+      <c r="C21" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
     </row>
     <row r="22" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A22" s="107" t="s">
+      <c r="A22" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="108" t="s">
+      <c r="B22" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="107" t="s">
+      <c r="C22" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="107"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="107"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
     </row>
-    <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="107" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="108"/>
-      <c r="C23" s="107"/>
-      <c r="D23" s="107">
+    <row r="23" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="110" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="58"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57">
         <f>DCOUNTA(D1:D22,D1,O1:O2)</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="107">
+        <v>4</v>
+      </c>
+      <c r="E23" s="57">
         <f>DCOUNTA(E1:E22,E1,P1:P2)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="107">
+      <c r="F23" s="57">
         <f>DCOUNTA(F1:F22,F1,Q1:Q2)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="107">
+      <c r="G23" s="57">
         <f>DCOUNTA(G1:G22,G1,R1:R2)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="107">
+      <c r="H23" s="57">
         <f>DCOUNTA(H1:H22,H1,S1:S2)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="107">
+      <c r="I23" s="57">
         <f>DCOUNTA(I1:I22,I1,T1:T2)</f>
         <v>0</v>
       </c>
-      <c r="J23" s="107">
+      <c r="J23" s="57">
         <f>DCOUNTA(J1:J22,J1,U1:U2)</f>
         <v>0</v>
       </c>
     </row>
+    <row r="24" spans="1:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="115">
+        <f>SUM(Table1[[#Totals],[Mon - Apr 19th]:[Sun - Apr 25th]])/16</f>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="B24" s="112"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="114">
+        <f>SUM(D23)/16</f>
+        <v>0.25</v>
+      </c>
+      <c r="E24" s="114">
+        <f>SUM(E23)/16</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="114">
+        <f>SUM(F23)/16</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="114">
+        <f>SUM(G23)/16</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="114">
+        <f>SUM(H23)/16</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="114">
+        <f>SUM(I23)/16</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="114">
+        <f>SUM(J23)/16</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A29:A1048576 A1 L1" xr:uid="{1713A267-0C0A-438A-9CE7-A2F77CB3F8D6}">
+  <conditionalFormatting sqref="D4">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations disablePrompts="1" count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1 A1 A37:A1048576" xr:uid="{1713A267-0C0A-438A-9CE7-A2F77CB3F8D6}">
       <formula1>"Sleep, Excel, Tableau"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{86BA7885-9819-4515-934E-6239D10A747F}">
       <formula1>"Total Markings"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A24:A28 A4:A10 A12:A14 A16:A22" xr:uid="{6F088DA5-A702-4D35-AAE7-68292935574F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A16:A22 A4:A10 A12:A14" xr:uid="{6F088DA5-A702-4D35-AAE7-68292935574F}">
       <formula1>"Fajr Namaz, Sleep, Freshen up, Zuhr Namaz, Tableau, Quran, Asar Namaz, Iftar, Maghrib Namaz, Excel, Isha Namaz, Workout, Shower, Tang, Sehri, Green Tea"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:J10 D12:J14 D16:J22" xr:uid="{E0C4F1EB-F083-4DA2-868E-37D3A219CDF4}">
@@ -9590,31 +10584,14 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="46e0ad8bcb937777a496f4378509b82b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3afd91b9dddacb5807afd727ccca0e2e" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -9835,25 +10812,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D61C0559-A3A8-404B-B3C9-59977EEF143B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D895C161-5F30-4256-BAD3-309A58746C18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C3BEF7D-0560-4D92-8503-510D68BBABDD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9870,4 +10847,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D895C161-5F30-4256-BAD3-309A58746C18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D61C0559-A3A8-404B-B3C9-59977EEF143B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Weekly Planner/Weekly schedule planner1.xlsx
+++ b/Weekly Planner/Weekly schedule planner1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D53CB50-7186-4FFF-936F-518A052F8930}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D518115-FD74-4B16-9246-E627902B300A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,13 +18,13 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="70">
   <si>
     <t>Weekly Schedule Planner</t>
   </si>
@@ -232,14 +232,18 @@
   <si>
     <t>(NIGHT)</t>
   </si>
+  <si>
+    <t>NO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="d"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1170,7 +1174,7 @@
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1338,6 +1342,26 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="18" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="18" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="18" applyFont="1"/>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
@@ -1519,22 +1543,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="18" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="18" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="18" applyFont="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Border Right" xfId="9" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1745,6 +1753,189 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2256,189 +2447,6 @@
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -7152,7 +7160,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CCD4BFAE-D7E2-4A9A-83CD-6D6FEE7DBD0A}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CCD4BFAE-D7E2-4A9A-83CD-6D6FEE7DBD0A}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:C18" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="10">
     <pivotField showAll="0">
@@ -7203,29 +7211,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{335D838A-61CA-4535-B799-C8FA419100F3}" name="Table1" displayName="Table1" ref="A1:J24" totalsRowCount="1" headerRowDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{335D838A-61CA-4535-B799-C8FA419100F3}" name="Table1" displayName="Table1" ref="A1:J24" totalsRowCount="1" headerRowDxfId="19">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{657D9B9F-9709-4F9E-A69E-6A980B7C869E}" name="Catergory" totalsRowFunction="custom" dataDxfId="91" totalsRowDxfId="9" totalsRowCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{657D9B9F-9709-4F9E-A69E-6A980B7C869E}" name="Catergory" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="9" totalsRowCellStyle="Percent">
       <totalsRowFormula>SUM(Table1[[#Totals],[Mon - Apr 19th]:[Sun - Apr 25th]])/16</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D4A3FF5C-5A8B-4D44-8009-3097C44B145F}" name="Time Provided" dataDxfId="90" totalsRowDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{42D401BF-C18C-4329-8EEA-09422E34AB6E}" name="Time Spend" dataDxfId="89" totalsRowDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{3254F6A1-9E73-49D6-B15C-0C47B8CF4358}" name="Mon - Apr 19th" totalsRowFunction="custom" dataDxfId="88" totalsRowDxfId="6">
+    <tableColumn id="2" xr3:uid="{D4A3FF5C-5A8B-4D44-8009-3097C44B145F}" name="Time Provided" dataDxfId="17" totalsRowDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{42D401BF-C18C-4329-8EEA-09422E34AB6E}" name="Time Spend" dataDxfId="16" totalsRowDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{3254F6A1-9E73-49D6-B15C-0C47B8CF4358}" name="Mon - Apr 19th" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="6">
       <totalsRowFormula>SUM(D23)/16</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8E90A1E1-1406-4FD8-8174-71E13CB568A3}" name="Tue - Apr 20th" totalsRowFunction="custom" dataDxfId="87" totalsRowDxfId="5">
+    <tableColumn id="5" xr3:uid="{8E90A1E1-1406-4FD8-8174-71E13CB568A3}" name="Tue - Apr 20th" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="5">
       <totalsRowFormula>SUM(E23)/16</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A91295AC-F05E-4783-9319-698D8DDA4148}" name="Wed - Apr 21st" totalsRowFunction="custom" dataDxfId="86" totalsRowDxfId="4">
+    <tableColumn id="6" xr3:uid="{A91295AC-F05E-4783-9319-698D8DDA4148}" name="Wed - Apr 21st" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="4">
       <totalsRowFormula>SUM(F23)/16</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9838E1E5-3657-427E-8F45-059AAB6CEF9E}" name="Thur - Apr 22nd" totalsRowFunction="custom" dataDxfId="85" totalsRowDxfId="3">
+    <tableColumn id="7" xr3:uid="{9838E1E5-3657-427E-8F45-059AAB6CEF9E}" name="Thur - Apr 22nd" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="3">
       <totalsRowFormula>SUM(G23)/16</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{3EC1A6D2-6803-4EA4-A3BD-54150D63681E}" name="Fri - Apr 23rd" totalsRowFunction="custom" dataDxfId="84" totalsRowDxfId="2">
+    <tableColumn id="8" xr3:uid="{3EC1A6D2-6803-4EA4-A3BD-54150D63681E}" name="Fri - Apr 23rd" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="2">
       <totalsRowFormula>SUM(H23)/16</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E0F3C162-BFC5-416E-A9C2-884519778D18}" name="Sat - Apr 24th" totalsRowFunction="custom" dataDxfId="83" totalsRowDxfId="1">
+    <tableColumn id="9" xr3:uid="{E0F3C162-BFC5-416E-A9C2-884519778D18}" name="Sat - Apr 24th" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="1">
       <totalsRowFormula>SUM(I23)/16</totalsRowFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{A7EDFBD9-3A91-4DF4-B4F3-E02574CA6563}" name="Sun - Apr 25th" totalsRowFunction="custom" totalsRowDxfId="0">
@@ -7449,96 +7457,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="116"/>
-      <c r="B1" s="117"/>
-      <c r="C1" s="118"/>
+      <c r="A1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="68"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="119"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="121"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="71"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="119"/>
-      <c r="B3" s="120"/>
-      <c r="C3" s="121"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="113"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="63"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="119"/>
-      <c r="B4" s="120"/>
-      <c r="C4" s="121"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="119"/>
-      <c r="B5" s="120"/>
-      <c r="C5" s="121"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="71"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="119"/>
-      <c r="B6" s="120"/>
-      <c r="C6" s="121"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="71"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="119"/>
-      <c r="B7" s="120"/>
-      <c r="C7" s="121"/>
+      <c r="A7" s="69"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="71"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="119"/>
-      <c r="B8" s="120"/>
-      <c r="C8" s="121"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="71"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="119"/>
-      <c r="B9" s="120"/>
-      <c r="C9" s="121"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="71"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="119"/>
-      <c r="B10" s="120"/>
-      <c r="C10" s="121"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="71"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="119"/>
-      <c r="B11" s="120"/>
-      <c r="C11" s="121"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="71"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="119"/>
-      <c r="B12" s="120"/>
-      <c r="C12" s="121"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="71"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="119"/>
-      <c r="B13" s="120"/>
-      <c r="C13" s="121"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="71"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="119"/>
-      <c r="B14" s="120"/>
-      <c r="C14" s="121"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="71"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="119"/>
-      <c r="B15" s="120"/>
-      <c r="C15" s="121"/>
+      <c r="A15" s="69"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="71"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="119"/>
-      <c r="B16" s="120"/>
-      <c r="C16" s="121"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="71"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="119"/>
-      <c r="B17" s="120"/>
-      <c r="C17" s="121"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="71"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="122"/>
-      <c r="B18" s="123"/>
-      <c r="C18" s="124"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="74"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7666,45 +7674,45 @@
       <c r="AP2" s="33"/>
     </row>
     <row r="3" spans="1:42" s="15" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="96" t="s">
+      <c r="C3" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="97"/>
-      <c r="S3" s="97"/>
-      <c r="T3" s="97"/>
-      <c r="U3" s="97"/>
-      <c r="V3" s="97"/>
-      <c r="W3" s="97"/>
-      <c r="X3" s="97"/>
-      <c r="Y3" s="97"/>
-      <c r="Z3" s="97"/>
-      <c r="AA3" s="97"/>
-      <c r="AB3" s="97"/>
-      <c r="AC3" s="97"/>
-      <c r="AD3" s="97"/>
-      <c r="AE3" s="97"/>
-      <c r="AF3" s="97"/>
-      <c r="AG3" s="97"/>
-      <c r="AH3" s="97"/>
-      <c r="AI3" s="97"/>
-      <c r="AJ3" s="97"/>
-      <c r="AK3" s="97"/>
-      <c r="AL3" s="97"/>
-      <c r="AM3" s="97"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="115"/>
+      <c r="V3" s="115"/>
+      <c r="W3" s="115"/>
+      <c r="X3" s="115"/>
+      <c r="Y3" s="115"/>
+      <c r="Z3" s="115"/>
+      <c r="AA3" s="115"/>
+      <c r="AB3" s="115"/>
+      <c r="AC3" s="115"/>
+      <c r="AD3" s="115"/>
+      <c r="AE3" s="115"/>
+      <c r="AF3" s="115"/>
+      <c r="AG3" s="115"/>
+      <c r="AH3" s="115"/>
+      <c r="AI3" s="115"/>
+      <c r="AJ3" s="115"/>
+      <c r="AK3" s="115"/>
+      <c r="AL3" s="115"/>
+      <c r="AM3" s="115"/>
     </row>
     <row r="4" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
@@ -7723,21 +7731,21 @@
       <c r="N4" s="21"/>
       <c r="O4" s="17"/>
       <c r="P4" s="17"/>
-      <c r="Q4" s="87" t="s">
+      <c r="Q4" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="90">
+      <c r="R4" s="105"/>
+      <c r="S4" s="105"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="105"/>
+      <c r="V4" s="108">
         <f ca="1">TODAY()-WEEKDAY(TODAY(),2)+1</f>
         <v>44305</v>
       </c>
-      <c r="W4" s="90"/>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
+      <c r="W4" s="108"/>
+      <c r="X4" s="108"/>
+      <c r="Y4" s="108"/>
+      <c r="Z4" s="108"/>
       <c r="AA4" s="17"/>
       <c r="AB4" s="17"/>
       <c r="AC4" s="17"/>
@@ -7802,49 +7810,49 @@
     <row r="6" spans="1:42" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="36"/>
       <c r="B6" s="37"/>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="100"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="118"/>
       <c r="N6" s="21"/>
       <c r="O6" s="17"/>
-      <c r="P6" s="98" t="s">
+      <c r="P6" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="Q6" s="99"/>
-      <c r="R6" s="99"/>
-      <c r="S6" s="99"/>
-      <c r="T6" s="99"/>
-      <c r="U6" s="99"/>
-      <c r="V6" s="99"/>
-      <c r="W6" s="99"/>
-      <c r="X6" s="99"/>
-      <c r="Y6" s="99"/>
-      <c r="Z6" s="100"/>
+      <c r="Q6" s="117"/>
+      <c r="R6" s="117"/>
+      <c r="S6" s="117"/>
+      <c r="T6" s="117"/>
+      <c r="U6" s="117"/>
+      <c r="V6" s="117"/>
+      <c r="W6" s="117"/>
+      <c r="X6" s="117"/>
+      <c r="Y6" s="117"/>
+      <c r="Z6" s="118"/>
       <c r="AA6" s="17"/>
       <c r="AB6" s="17"/>
-      <c r="AC6" s="98" t="s">
+      <c r="AC6" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="AD6" s="99"/>
-      <c r="AE6" s="99"/>
-      <c r="AF6" s="99"/>
-      <c r="AG6" s="99"/>
-      <c r="AH6" s="99"/>
-      <c r="AI6" s="99"/>
-      <c r="AJ6" s="99"/>
-      <c r="AK6" s="99"/>
-      <c r="AL6" s="99"/>
-      <c r="AM6" s="100"/>
+      <c r="AD6" s="117"/>
+      <c r="AE6" s="117"/>
+      <c r="AF6" s="117"/>
+      <c r="AG6" s="117"/>
+      <c r="AH6" s="117"/>
+      <c r="AI6" s="117"/>
+      <c r="AJ6" s="117"/>
+      <c r="AK6" s="117"/>
+      <c r="AL6" s="117"/>
+      <c r="AM6" s="118"/>
       <c r="AN6" s="38"/>
       <c r="AO6" s="39"/>
       <c r="AP6" s="39"/>
@@ -7852,43 +7860,43 @@
     <row r="7" spans="1:42" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="24"/>
       <c r="B7" s="25"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="67"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="85"/>
       <c r="N7" s="26"/>
       <c r="O7" s="27"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="91"/>
-      <c r="R7" s="91"/>
-      <c r="S7" s="91"/>
-      <c r="T7" s="91"/>
-      <c r="U7" s="91"/>
-      <c r="V7" s="91"/>
-      <c r="W7" s="91"/>
-      <c r="X7" s="91"/>
-      <c r="Y7" s="91"/>
-      <c r="Z7" s="92"/>
+      <c r="Q7" s="109"/>
+      <c r="R7" s="109"/>
+      <c r="S7" s="109"/>
+      <c r="T7" s="109"/>
+      <c r="U7" s="109"/>
+      <c r="V7" s="109"/>
+      <c r="W7" s="109"/>
+      <c r="X7" s="109"/>
+      <c r="Y7" s="109"/>
+      <c r="Z7" s="110"/>
       <c r="AA7" s="27"/>
       <c r="AB7" s="27"/>
-      <c r="AC7" s="65"/>
-      <c r="AD7" s="66"/>
-      <c r="AE7" s="66"/>
-      <c r="AF7" s="66"/>
-      <c r="AG7" s="66"/>
-      <c r="AH7" s="66"/>
-      <c r="AI7" s="66"/>
-      <c r="AJ7" s="66"/>
-      <c r="AK7" s="66"/>
-      <c r="AL7" s="66"/>
-      <c r="AM7" s="67"/>
+      <c r="AC7" s="83"/>
+      <c r="AD7" s="84"/>
+      <c r="AE7" s="84"/>
+      <c r="AF7" s="84"/>
+      <c r="AG7" s="84"/>
+      <c r="AH7" s="84"/>
+      <c r="AI7" s="84"/>
+      <c r="AJ7" s="84"/>
+      <c r="AK7" s="84"/>
+      <c r="AL7" s="84"/>
+      <c r="AM7" s="85"/>
       <c r="AN7" s="25"/>
       <c r="AO7" s="24"/>
       <c r="AP7" s="24"/>
@@ -7896,43 +7904,43 @@
     <row r="8" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="70"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="88"/>
       <c r="N8" s="6"/>
       <c r="O8" s="5"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="78"/>
-      <c r="S8" s="78"/>
-      <c r="T8" s="78"/>
-      <c r="U8" s="78"/>
-      <c r="V8" s="78"/>
-      <c r="W8" s="78"/>
-      <c r="X8" s="78"/>
-      <c r="Y8" s="78"/>
-      <c r="Z8" s="79"/>
+      <c r="Q8" s="96"/>
+      <c r="R8" s="96"/>
+      <c r="S8" s="96"/>
+      <c r="T8" s="96"/>
+      <c r="U8" s="96"/>
+      <c r="V8" s="96"/>
+      <c r="W8" s="96"/>
+      <c r="X8" s="96"/>
+      <c r="Y8" s="96"/>
+      <c r="Z8" s="97"/>
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
-      <c r="AC8" s="68"/>
-      <c r="AD8" s="69"/>
-      <c r="AE8" s="69"/>
-      <c r="AF8" s="69"/>
-      <c r="AG8" s="69"/>
-      <c r="AH8" s="69"/>
-      <c r="AI8" s="69"/>
-      <c r="AJ8" s="69"/>
-      <c r="AK8" s="69"/>
-      <c r="AL8" s="69"/>
-      <c r="AM8" s="70"/>
+      <c r="AC8" s="86"/>
+      <c r="AD8" s="87"/>
+      <c r="AE8" s="87"/>
+      <c r="AF8" s="87"/>
+      <c r="AG8" s="87"/>
+      <c r="AH8" s="87"/>
+      <c r="AI8" s="87"/>
+      <c r="AJ8" s="87"/>
+      <c r="AK8" s="87"/>
+      <c r="AL8" s="87"/>
+      <c r="AM8" s="88"/>
       <c r="AN8" s="20"/>
       <c r="AO8" s="19"/>
       <c r="AP8" s="19"/>
@@ -7940,43 +7948,43 @@
     <row r="9" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="70"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="88"/>
       <c r="N9" s="6"/>
       <c r="O9" s="5"/>
       <c r="P9" s="8"/>
-      <c r="Q9" s="78"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="78"/>
-      <c r="T9" s="78"/>
-      <c r="U9" s="78"/>
-      <c r="V9" s="78"/>
-      <c r="W9" s="78"/>
-      <c r="X9" s="78"/>
-      <c r="Y9" s="78"/>
-      <c r="Z9" s="79"/>
+      <c r="Q9" s="96"/>
+      <c r="R9" s="96"/>
+      <c r="S9" s="96"/>
+      <c r="T9" s="96"/>
+      <c r="U9" s="96"/>
+      <c r="V9" s="96"/>
+      <c r="W9" s="96"/>
+      <c r="X9" s="96"/>
+      <c r="Y9" s="96"/>
+      <c r="Z9" s="97"/>
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
-      <c r="AC9" s="68"/>
-      <c r="AD9" s="69"/>
-      <c r="AE9" s="69"/>
-      <c r="AF9" s="69"/>
-      <c r="AG9" s="69"/>
-      <c r="AH9" s="69"/>
-      <c r="AI9" s="69"/>
-      <c r="AJ9" s="69"/>
-      <c r="AK9" s="69"/>
-      <c r="AL9" s="69"/>
-      <c r="AM9" s="70"/>
+      <c r="AC9" s="86"/>
+      <c r="AD9" s="87"/>
+      <c r="AE9" s="87"/>
+      <c r="AF9" s="87"/>
+      <c r="AG9" s="87"/>
+      <c r="AH9" s="87"/>
+      <c r="AI9" s="87"/>
+      <c r="AJ9" s="87"/>
+      <c r="AK9" s="87"/>
+      <c r="AL9" s="87"/>
+      <c r="AM9" s="88"/>
       <c r="AN9" s="20"/>
       <c r="AO9" s="19"/>
       <c r="AP9" s="19"/>
@@ -7984,43 +7992,43 @@
     <row r="10" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="70"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="88"/>
       <c r="N10" s="6"/>
       <c r="O10" s="5"/>
       <c r="P10" s="8"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="78"/>
-      <c r="S10" s="78"/>
-      <c r="T10" s="78"/>
-      <c r="U10" s="78"/>
-      <c r="V10" s="78"/>
-      <c r="W10" s="78"/>
-      <c r="X10" s="78"/>
-      <c r="Y10" s="78"/>
-      <c r="Z10" s="79"/>
+      <c r="Q10" s="96"/>
+      <c r="R10" s="96"/>
+      <c r="S10" s="96"/>
+      <c r="T10" s="96"/>
+      <c r="U10" s="96"/>
+      <c r="V10" s="96"/>
+      <c r="W10" s="96"/>
+      <c r="X10" s="96"/>
+      <c r="Y10" s="96"/>
+      <c r="Z10" s="97"/>
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
-      <c r="AC10" s="68"/>
-      <c r="AD10" s="69"/>
-      <c r="AE10" s="69"/>
-      <c r="AF10" s="69"/>
-      <c r="AG10" s="69"/>
-      <c r="AH10" s="69"/>
-      <c r="AI10" s="69"/>
-      <c r="AJ10" s="69"/>
-      <c r="AK10" s="69"/>
-      <c r="AL10" s="69"/>
-      <c r="AM10" s="70"/>
+      <c r="AC10" s="86"/>
+      <c r="AD10" s="87"/>
+      <c r="AE10" s="87"/>
+      <c r="AF10" s="87"/>
+      <c r="AG10" s="87"/>
+      <c r="AH10" s="87"/>
+      <c r="AI10" s="87"/>
+      <c r="AJ10" s="87"/>
+      <c r="AK10" s="87"/>
+      <c r="AL10" s="87"/>
+      <c r="AM10" s="88"/>
       <c r="AN10" s="20"/>
       <c r="AO10" s="19"/>
       <c r="AP10" s="19"/>
@@ -8028,43 +8036,43 @@
     <row r="11" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="70"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="88"/>
       <c r="N11" s="6"/>
       <c r="O11" s="5"/>
       <c r="P11" s="8"/>
-      <c r="Q11" s="78"/>
-      <c r="R11" s="78"/>
-      <c r="S11" s="78"/>
-      <c r="T11" s="78"/>
-      <c r="U11" s="78"/>
-      <c r="V11" s="78"/>
-      <c r="W11" s="78"/>
-      <c r="X11" s="78"/>
-      <c r="Y11" s="78"/>
-      <c r="Z11" s="79"/>
+      <c r="Q11" s="96"/>
+      <c r="R11" s="96"/>
+      <c r="S11" s="96"/>
+      <c r="T11" s="96"/>
+      <c r="U11" s="96"/>
+      <c r="V11" s="96"/>
+      <c r="W11" s="96"/>
+      <c r="X11" s="96"/>
+      <c r="Y11" s="96"/>
+      <c r="Z11" s="97"/>
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
-      <c r="AC11" s="68"/>
-      <c r="AD11" s="69"/>
-      <c r="AE11" s="69"/>
-      <c r="AF11" s="69"/>
-      <c r="AG11" s="69"/>
-      <c r="AH11" s="69"/>
-      <c r="AI11" s="69"/>
-      <c r="AJ11" s="69"/>
-      <c r="AK11" s="69"/>
-      <c r="AL11" s="69"/>
-      <c r="AM11" s="70"/>
+      <c r="AC11" s="86"/>
+      <c r="AD11" s="87"/>
+      <c r="AE11" s="87"/>
+      <c r="AF11" s="87"/>
+      <c r="AG11" s="87"/>
+      <c r="AH11" s="87"/>
+      <c r="AI11" s="87"/>
+      <c r="AJ11" s="87"/>
+      <c r="AK11" s="87"/>
+      <c r="AL11" s="87"/>
+      <c r="AM11" s="88"/>
       <c r="AN11" s="20"/>
       <c r="AO11" s="19"/>
       <c r="AP11" s="19"/>
@@ -8072,43 +8080,43 @@
     <row r="12" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="73"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="91"/>
       <c r="N12" s="6"/>
       <c r="O12" s="5"/>
       <c r="P12" s="9"/>
-      <c r="Q12" s="80"/>
-      <c r="R12" s="80"/>
-      <c r="S12" s="80"/>
-      <c r="T12" s="80"/>
-      <c r="U12" s="80"/>
-      <c r="V12" s="80"/>
-      <c r="W12" s="80"/>
-      <c r="X12" s="80"/>
-      <c r="Y12" s="80"/>
-      <c r="Z12" s="81"/>
+      <c r="Q12" s="98"/>
+      <c r="R12" s="98"/>
+      <c r="S12" s="98"/>
+      <c r="T12" s="98"/>
+      <c r="U12" s="98"/>
+      <c r="V12" s="98"/>
+      <c r="W12" s="98"/>
+      <c r="X12" s="98"/>
+      <c r="Y12" s="98"/>
+      <c r="Z12" s="99"/>
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
-      <c r="AC12" s="71"/>
-      <c r="AD12" s="72"/>
-      <c r="AE12" s="72"/>
-      <c r="AF12" s="72"/>
-      <c r="AG12" s="72"/>
-      <c r="AH12" s="72"/>
-      <c r="AI12" s="72"/>
-      <c r="AJ12" s="72"/>
-      <c r="AK12" s="72"/>
-      <c r="AL12" s="72"/>
-      <c r="AM12" s="73"/>
+      <c r="AC12" s="89"/>
+      <c r="AD12" s="90"/>
+      <c r="AE12" s="90"/>
+      <c r="AF12" s="90"/>
+      <c r="AG12" s="90"/>
+      <c r="AH12" s="90"/>
+      <c r="AI12" s="90"/>
+      <c r="AJ12" s="90"/>
+      <c r="AK12" s="90"/>
+      <c r="AL12" s="90"/>
+      <c r="AM12" s="91"/>
       <c r="AN12" s="20"/>
       <c r="AO12" s="19"/>
       <c r="AP12" s="19"/>
@@ -8204,84 +8212,84 @@
     <row r="15" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="74" t="str">
+      <c r="C15" s="92" t="str">
         <f ca="1">TEXT(StartDate+0,"dd")</f>
         <v>19</v>
       </c>
-      <c r="D15" s="75"/>
-      <c r="E15" s="82" t="str">
+      <c r="D15" s="93"/>
+      <c r="E15" s="100" t="str">
         <f ca="1">(TEXT(StartDate+0,"aaaa"))</f>
         <v>Monday</v>
       </c>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="63" t="str">
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="81" t="str">
         <f ca="1">TEXT(StartDate+1,"dd")</f>
         <v>20</v>
       </c>
-      <c r="J15" s="63"/>
-      <c r="K15" s="82" t="str">
+      <c r="J15" s="81"/>
+      <c r="K15" s="100" t="str">
         <f ca="1">(TEXT(StartDate+1,"aaaa"))</f>
         <v>Tuesday</v>
       </c>
-      <c r="L15" s="82"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="63" t="str">
+      <c r="L15" s="100"/>
+      <c r="M15" s="100"/>
+      <c r="N15" s="81" t="str">
         <f ca="1">TEXT(StartDate+2,"dd")</f>
         <v>21</v>
       </c>
-      <c r="O15" s="63"/>
-      <c r="P15" s="82" t="str">
+      <c r="O15" s="81"/>
+      <c r="P15" s="100" t="str">
         <f ca="1">(TEXT(StartDate+2,"aaaa"))</f>
         <v>Wednesday</v>
       </c>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="82"/>
-      <c r="S15" s="63" t="str">
+      <c r="Q15" s="100"/>
+      <c r="R15" s="100"/>
+      <c r="S15" s="81" t="str">
         <f ca="1">TEXT(StartDate+3,"dd")</f>
         <v>22</v>
       </c>
-      <c r="T15" s="63"/>
-      <c r="U15" s="82" t="str">
+      <c r="T15" s="81"/>
+      <c r="U15" s="100" t="str">
         <f ca="1">(TEXT(StartDate+3,"aaaa"))</f>
         <v>Thursday</v>
       </c>
-      <c r="V15" s="82"/>
-      <c r="W15" s="82"/>
-      <c r="X15" s="63" t="str">
+      <c r="V15" s="100"/>
+      <c r="W15" s="100"/>
+      <c r="X15" s="81" t="str">
         <f ca="1">TEXT(StartDate+4,"dd")</f>
         <v>23</v>
       </c>
-      <c r="Y15" s="63"/>
-      <c r="Z15" s="82" t="str">
+      <c r="Y15" s="81"/>
+      <c r="Z15" s="100" t="str">
         <f ca="1">(TEXT(StartDate+4,"aaaa"))</f>
         <v>Friday</v>
       </c>
-      <c r="AA15" s="82"/>
-      <c r="AB15" s="82"/>
-      <c r="AC15" s="63" t="str">
+      <c r="AA15" s="100"/>
+      <c r="AB15" s="100"/>
+      <c r="AC15" s="81" t="str">
         <f ca="1">TEXT(StartDate+5,"dd")</f>
         <v>24</v>
       </c>
-      <c r="AD15" s="63"/>
-      <c r="AE15" s="82" t="str">
+      <c r="AD15" s="81"/>
+      <c r="AE15" s="100" t="str">
         <f ca="1">(TEXT(StartDate+5,"aaaa"))</f>
         <v>Saturday</v>
       </c>
-      <c r="AF15" s="82"/>
-      <c r="AG15" s="82"/>
-      <c r="AH15" s="63" t="str">
+      <c r="AF15" s="100"/>
+      <c r="AG15" s="100"/>
+      <c r="AH15" s="81" t="str">
         <f ca="1">TEXT(StartDate+6,"dd")</f>
         <v>25</v>
       </c>
-      <c r="AI15" s="63"/>
-      <c r="AJ15" s="82" t="str">
+      <c r="AI15" s="81"/>
+      <c r="AJ15" s="100" t="str">
         <f ca="1">(TEXT(StartDate+6,"aaaa"))</f>
         <v>Sunday</v>
       </c>
-      <c r="AK15" s="82"/>
-      <c r="AL15" s="82"/>
+      <c r="AK15" s="100"/>
+      <c r="AL15" s="100"/>
       <c r="AM15" s="31"/>
       <c r="AN15" s="20"/>
       <c r="AO15" s="19"/>
@@ -8290,63 +8298,63 @@
     <row r="16" spans="1:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="84" t="str">
+      <c r="C16" s="94"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="102" t="str">
         <f ca="1">(TEXT(StartDate+0,"mmmm"))</f>
         <v>April</v>
       </c>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="84" t="str">
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="102" t="str">
         <f ca="1">(TEXT(StartDate+1,"mmmm"))</f>
         <v>April</v>
       </c>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="84" t="str">
+      <c r="L16" s="102"/>
+      <c r="M16" s="102"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="102" t="str">
         <f ca="1">(TEXT(StartDate+2,"mmmm"))</f>
         <v>April</v>
       </c>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="84"/>
-      <c r="S16" s="64"/>
-      <c r="T16" s="64"/>
-      <c r="U16" s="84" t="str">
+      <c r="Q16" s="102"/>
+      <c r="R16" s="102"/>
+      <c r="S16" s="82"/>
+      <c r="T16" s="82"/>
+      <c r="U16" s="102" t="str">
         <f ca="1">(TEXT(StartDate+3,"mmmm"))</f>
         <v>April</v>
       </c>
-      <c r="V16" s="84"/>
-      <c r="W16" s="84"/>
-      <c r="X16" s="64"/>
-      <c r="Y16" s="64"/>
-      <c r="Z16" s="84" t="str">
+      <c r="V16" s="102"/>
+      <c r="W16" s="102"/>
+      <c r="X16" s="82"/>
+      <c r="Y16" s="82"/>
+      <c r="Z16" s="102" t="str">
         <f ca="1">(TEXT(StartDate+4,"mmmm"))</f>
         <v>April</v>
       </c>
-      <c r="AA16" s="84"/>
-      <c r="AB16" s="84"/>
-      <c r="AC16" s="64"/>
-      <c r="AD16" s="64"/>
-      <c r="AE16" s="84" t="str">
+      <c r="AA16" s="102"/>
+      <c r="AB16" s="102"/>
+      <c r="AC16" s="82"/>
+      <c r="AD16" s="82"/>
+      <c r="AE16" s="102" t="str">
         <f ca="1">(TEXT(StartDate+5,"mmmm"))</f>
         <v>April</v>
       </c>
-      <c r="AF16" s="84"/>
-      <c r="AG16" s="84"/>
-      <c r="AH16" s="64"/>
-      <c r="AI16" s="64"/>
-      <c r="AJ16" s="84" t="str">
+      <c r="AF16" s="102"/>
+      <c r="AG16" s="102"/>
+      <c r="AH16" s="82"/>
+      <c r="AI16" s="82"/>
+      <c r="AJ16" s="102" t="str">
         <f ca="1">(TEXT(StartDate+6,"mmmm"))</f>
         <v>April</v>
       </c>
-      <c r="AK16" s="84"/>
-      <c r="AL16" s="84"/>
+      <c r="AK16" s="102"/>
+      <c r="AL16" s="102"/>
       <c r="AM16" s="32"/>
       <c r="AN16" s="20"/>
       <c r="AO16" s="19"/>
@@ -8358,42 +8366,42 @@
       <c r="C17" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="104"/>
+      <c r="M17" s="104"/>
       <c r="N17" s="11"/>
-      <c r="O17" s="86"/>
-      <c r="P17" s="86"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="86"/>
+      <c r="O17" s="104"/>
+      <c r="P17" s="104"/>
+      <c r="Q17" s="104"/>
+      <c r="R17" s="104"/>
       <c r="S17" s="11"/>
-      <c r="T17" s="86"/>
-      <c r="U17" s="86"/>
-      <c r="V17" s="86"/>
-      <c r="W17" s="86"/>
+      <c r="T17" s="104"/>
+      <c r="U17" s="104"/>
+      <c r="V17" s="104"/>
+      <c r="W17" s="104"/>
       <c r="X17" s="11"/>
-      <c r="Y17" s="86"/>
-      <c r="Z17" s="86"/>
-      <c r="AA17" s="86"/>
-      <c r="AB17" s="86"/>
+      <c r="Y17" s="104"/>
+      <c r="Z17" s="104"/>
+      <c r="AA17" s="104"/>
+      <c r="AB17" s="104"/>
       <c r="AC17" s="11"/>
-      <c r="AD17" s="86"/>
-      <c r="AE17" s="86"/>
-      <c r="AF17" s="86"/>
-      <c r="AG17" s="86"/>
+      <c r="AD17" s="104"/>
+      <c r="AE17" s="104"/>
+      <c r="AF17" s="104"/>
+      <c r="AG17" s="104"/>
       <c r="AH17" s="11"/>
-      <c r="AI17" s="86"/>
-      <c r="AJ17" s="86"/>
-      <c r="AK17" s="86"/>
-      <c r="AL17" s="86"/>
-      <c r="AM17" s="108"/>
+      <c r="AI17" s="104"/>
+      <c r="AJ17" s="104"/>
+      <c r="AK17" s="104"/>
+      <c r="AL17" s="104"/>
+      <c r="AM17" s="126"/>
       <c r="AN17" s="20"/>
       <c r="AO17" s="19"/>
       <c r="AP17" s="19"/>
@@ -8404,42 +8412,42 @@
       <c r="C18" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="89"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="107"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="88"/>
-      <c r="L18" s="88"/>
-      <c r="M18" s="88"/>
+      <c r="J18" s="106"/>
+      <c r="K18" s="106"/>
+      <c r="L18" s="106"/>
+      <c r="M18" s="106"/>
       <c r="N18" s="12"/>
-      <c r="O18" s="88"/>
-      <c r="P18" s="88"/>
-      <c r="Q18" s="88"/>
-      <c r="R18" s="88"/>
+      <c r="O18" s="106"/>
+      <c r="P18" s="106"/>
+      <c r="Q18" s="106"/>
+      <c r="R18" s="106"/>
       <c r="S18" s="12"/>
-      <c r="T18" s="88"/>
-      <c r="U18" s="88"/>
-      <c r="V18" s="88"/>
-      <c r="W18" s="88"/>
+      <c r="T18" s="106"/>
+      <c r="U18" s="106"/>
+      <c r="V18" s="106"/>
+      <c r="W18" s="106"/>
       <c r="X18" s="12"/>
-      <c r="Y18" s="88"/>
-      <c r="Z18" s="88"/>
-      <c r="AA18" s="88"/>
-      <c r="AB18" s="88"/>
+      <c r="Y18" s="106"/>
+      <c r="Z18" s="106"/>
+      <c r="AA18" s="106"/>
+      <c r="AB18" s="106"/>
       <c r="AC18" s="12"/>
-      <c r="AD18" s="88"/>
-      <c r="AE18" s="88"/>
-      <c r="AF18" s="88"/>
-      <c r="AG18" s="88"/>
+      <c r="AD18" s="106"/>
+      <c r="AE18" s="106"/>
+      <c r="AF18" s="106"/>
+      <c r="AG18" s="106"/>
       <c r="AH18" s="12"/>
-      <c r="AI18" s="88"/>
-      <c r="AJ18" s="88"/>
-      <c r="AK18" s="88"/>
-      <c r="AL18" s="88"/>
-      <c r="AM18" s="109"/>
+      <c r="AI18" s="106"/>
+      <c r="AJ18" s="106"/>
+      <c r="AK18" s="106"/>
+      <c r="AL18" s="106"/>
+      <c r="AM18" s="127"/>
       <c r="AN18" s="20"/>
       <c r="AO18" s="19"/>
       <c r="AP18" s="19"/>
@@ -8450,42 +8458,42 @@
       <c r="C19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="89"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="107"/>
       <c r="I19" s="12"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="88"/>
-      <c r="M19" s="88"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="106"/>
+      <c r="M19" s="106"/>
       <c r="N19" s="12"/>
-      <c r="O19" s="88"/>
-      <c r="P19" s="88"/>
-      <c r="Q19" s="88"/>
-      <c r="R19" s="88"/>
+      <c r="O19" s="106"/>
+      <c r="P19" s="106"/>
+      <c r="Q19" s="106"/>
+      <c r="R19" s="106"/>
       <c r="S19" s="12"/>
-      <c r="T19" s="88"/>
-      <c r="U19" s="88"/>
-      <c r="V19" s="88"/>
-      <c r="W19" s="88"/>
+      <c r="T19" s="106"/>
+      <c r="U19" s="106"/>
+      <c r="V19" s="106"/>
+      <c r="W19" s="106"/>
       <c r="X19" s="12"/>
-      <c r="Y19" s="88"/>
-      <c r="Z19" s="88"/>
-      <c r="AA19" s="88"/>
-      <c r="AB19" s="88"/>
+      <c r="Y19" s="106"/>
+      <c r="Z19" s="106"/>
+      <c r="AA19" s="106"/>
+      <c r="AB19" s="106"/>
       <c r="AC19" s="12"/>
-      <c r="AD19" s="88"/>
-      <c r="AE19" s="88"/>
-      <c r="AF19" s="88"/>
-      <c r="AG19" s="88"/>
+      <c r="AD19" s="106"/>
+      <c r="AE19" s="106"/>
+      <c r="AF19" s="106"/>
+      <c r="AG19" s="106"/>
       <c r="AH19" s="12"/>
-      <c r="AI19" s="88"/>
-      <c r="AJ19" s="88"/>
-      <c r="AK19" s="88"/>
-      <c r="AL19" s="88"/>
-      <c r="AM19" s="109"/>
+      <c r="AI19" s="106"/>
+      <c r="AJ19" s="106"/>
+      <c r="AK19" s="106"/>
+      <c r="AL19" s="106"/>
+      <c r="AM19" s="127"/>
       <c r="AN19" s="20"/>
       <c r="AO19" s="19"/>
       <c r="AP19" s="19"/>
@@ -8494,42 +8502,42 @@
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="89"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="107"/>
       <c r="I20" s="12"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="88"/>
+      <c r="J20" s="106"/>
+      <c r="K20" s="106"/>
+      <c r="L20" s="106"/>
+      <c r="M20" s="106"/>
       <c r="N20" s="12"/>
-      <c r="O20" s="88"/>
-      <c r="P20" s="88"/>
-      <c r="Q20" s="88"/>
-      <c r="R20" s="88"/>
+      <c r="O20" s="106"/>
+      <c r="P20" s="106"/>
+      <c r="Q20" s="106"/>
+      <c r="R20" s="106"/>
       <c r="S20" s="12"/>
-      <c r="T20" s="88"/>
-      <c r="U20" s="88"/>
-      <c r="V20" s="88"/>
-      <c r="W20" s="88"/>
+      <c r="T20" s="106"/>
+      <c r="U20" s="106"/>
+      <c r="V20" s="106"/>
+      <c r="W20" s="106"/>
       <c r="X20" s="12"/>
-      <c r="Y20" s="88"/>
-      <c r="Z20" s="88"/>
-      <c r="AA20" s="88"/>
-      <c r="AB20" s="88"/>
+      <c r="Y20" s="106"/>
+      <c r="Z20" s="106"/>
+      <c r="AA20" s="106"/>
+      <c r="AB20" s="106"/>
       <c r="AC20" s="12"/>
-      <c r="AD20" s="88"/>
-      <c r="AE20" s="88"/>
-      <c r="AF20" s="88"/>
-      <c r="AG20" s="88"/>
+      <c r="AD20" s="106"/>
+      <c r="AE20" s="106"/>
+      <c r="AF20" s="106"/>
+      <c r="AG20" s="106"/>
       <c r="AH20" s="12"/>
-      <c r="AI20" s="88"/>
-      <c r="AJ20" s="88"/>
-      <c r="AK20" s="88"/>
-      <c r="AL20" s="88"/>
-      <c r="AM20" s="109"/>
+      <c r="AI20" s="106"/>
+      <c r="AJ20" s="106"/>
+      <c r="AK20" s="106"/>
+      <c r="AL20" s="106"/>
+      <c r="AM20" s="127"/>
       <c r="AN20" s="20"/>
       <c r="AO20" s="19"/>
       <c r="AP20" s="19"/>
@@ -8538,42 +8546,42 @@
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="89"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="107"/>
       <c r="I21" s="12"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="88"/>
-      <c r="M21" s="88"/>
+      <c r="J21" s="106"/>
+      <c r="K21" s="106"/>
+      <c r="L21" s="106"/>
+      <c r="M21" s="106"/>
       <c r="N21" s="12"/>
-      <c r="O21" s="88"/>
-      <c r="P21" s="88"/>
-      <c r="Q21" s="88"/>
-      <c r="R21" s="88"/>
+      <c r="O21" s="106"/>
+      <c r="P21" s="106"/>
+      <c r="Q21" s="106"/>
+      <c r="R21" s="106"/>
       <c r="S21" s="12"/>
-      <c r="T21" s="88"/>
-      <c r="U21" s="88"/>
-      <c r="V21" s="88"/>
-      <c r="W21" s="88"/>
+      <c r="T21" s="106"/>
+      <c r="U21" s="106"/>
+      <c r="V21" s="106"/>
+      <c r="W21" s="106"/>
       <c r="X21" s="12"/>
-      <c r="Y21" s="88"/>
-      <c r="Z21" s="88"/>
-      <c r="AA21" s="88"/>
-      <c r="AB21" s="88"/>
+      <c r="Y21" s="106"/>
+      <c r="Z21" s="106"/>
+      <c r="AA21" s="106"/>
+      <c r="AB21" s="106"/>
       <c r="AC21" s="12"/>
-      <c r="AD21" s="88"/>
-      <c r="AE21" s="88"/>
-      <c r="AF21" s="88"/>
-      <c r="AG21" s="88"/>
+      <c r="AD21" s="106"/>
+      <c r="AE21" s="106"/>
+      <c r="AF21" s="106"/>
+      <c r="AG21" s="106"/>
       <c r="AH21" s="12"/>
-      <c r="AI21" s="88"/>
-      <c r="AJ21" s="88"/>
-      <c r="AK21" s="88"/>
-      <c r="AL21" s="88"/>
-      <c r="AM21" s="109"/>
+      <c r="AI21" s="106"/>
+      <c r="AJ21" s="106"/>
+      <c r="AK21" s="106"/>
+      <c r="AL21" s="106"/>
+      <c r="AM21" s="127"/>
       <c r="AN21" s="20"/>
       <c r="AO21" s="19"/>
       <c r="AP21" s="19"/>
@@ -8582,42 +8590,42 @@
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
       <c r="I22" s="12"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="88"/>
-      <c r="M22" s="88"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="106"/>
+      <c r="M22" s="106"/>
       <c r="N22" s="12"/>
-      <c r="O22" s="88"/>
-      <c r="P22" s="88"/>
-      <c r="Q22" s="88"/>
-      <c r="R22" s="88"/>
+      <c r="O22" s="106"/>
+      <c r="P22" s="106"/>
+      <c r="Q22" s="106"/>
+      <c r="R22" s="106"/>
       <c r="S22" s="12"/>
-      <c r="T22" s="88"/>
-      <c r="U22" s="88"/>
-      <c r="V22" s="88"/>
-      <c r="W22" s="88"/>
+      <c r="T22" s="106"/>
+      <c r="U22" s="106"/>
+      <c r="V22" s="106"/>
+      <c r="W22" s="106"/>
       <c r="X22" s="12"/>
-      <c r="Y22" s="88"/>
-      <c r="Z22" s="88"/>
-      <c r="AA22" s="88"/>
-      <c r="AB22" s="88"/>
+      <c r="Y22" s="106"/>
+      <c r="Z22" s="106"/>
+      <c r="AA22" s="106"/>
+      <c r="AB22" s="106"/>
       <c r="AC22" s="12"/>
-      <c r="AD22" s="88"/>
-      <c r="AE22" s="88"/>
-      <c r="AF22" s="88"/>
-      <c r="AG22" s="88"/>
+      <c r="AD22" s="106"/>
+      <c r="AE22" s="106"/>
+      <c r="AF22" s="106"/>
+      <c r="AG22" s="106"/>
       <c r="AH22" s="12"/>
-      <c r="AI22" s="88"/>
-      <c r="AJ22" s="88"/>
-      <c r="AK22" s="88"/>
-      <c r="AL22" s="88"/>
-      <c r="AM22" s="109"/>
+      <c r="AI22" s="106"/>
+      <c r="AJ22" s="106"/>
+      <c r="AK22" s="106"/>
+      <c r="AL22" s="106"/>
+      <c r="AM22" s="127"/>
       <c r="AN22" s="20"/>
       <c r="AO22" s="19"/>
       <c r="AP22" s="19"/>
@@ -8626,42 +8634,42 @@
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106"/>
       <c r="I23" s="12"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="88"/>
-      <c r="M23" s="88"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="106"/>
+      <c r="L23" s="106"/>
+      <c r="M23" s="106"/>
       <c r="N23" s="12"/>
-      <c r="O23" s="88"/>
-      <c r="P23" s="88"/>
-      <c r="Q23" s="88"/>
-      <c r="R23" s="88"/>
+      <c r="O23" s="106"/>
+      <c r="P23" s="106"/>
+      <c r="Q23" s="106"/>
+      <c r="R23" s="106"/>
       <c r="S23" s="12"/>
-      <c r="T23" s="88"/>
-      <c r="U23" s="88"/>
-      <c r="V23" s="88"/>
-      <c r="W23" s="88"/>
+      <c r="T23" s="106"/>
+      <c r="U23" s="106"/>
+      <c r="V23" s="106"/>
+      <c r="W23" s="106"/>
       <c r="X23" s="12"/>
-      <c r="Y23" s="88"/>
-      <c r="Z23" s="88"/>
-      <c r="AA23" s="88"/>
-      <c r="AB23" s="88"/>
+      <c r="Y23" s="106"/>
+      <c r="Z23" s="106"/>
+      <c r="AA23" s="106"/>
+      <c r="AB23" s="106"/>
       <c r="AC23" s="12"/>
-      <c r="AD23" s="88"/>
-      <c r="AE23" s="88"/>
-      <c r="AF23" s="88"/>
-      <c r="AG23" s="88"/>
+      <c r="AD23" s="106"/>
+      <c r="AE23" s="106"/>
+      <c r="AF23" s="106"/>
+      <c r="AG23" s="106"/>
       <c r="AH23" s="12"/>
-      <c r="AI23" s="88"/>
-      <c r="AJ23" s="88"/>
-      <c r="AK23" s="88"/>
-      <c r="AL23" s="88"/>
-      <c r="AM23" s="109"/>
+      <c r="AI23" s="106"/>
+      <c r="AJ23" s="106"/>
+      <c r="AK23" s="106"/>
+      <c r="AL23" s="106"/>
+      <c r="AM23" s="127"/>
       <c r="AN23" s="20"/>
       <c r="AO23" s="19"/>
       <c r="AP23" s="19"/>
@@ -8670,42 +8678,42 @@
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="106"/>
       <c r="I24" s="12"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="88"/>
+      <c r="J24" s="106"/>
+      <c r="K24" s="106"/>
+      <c r="L24" s="106"/>
+      <c r="M24" s="106"/>
       <c r="N24" s="12"/>
-      <c r="O24" s="88"/>
-      <c r="P24" s="88"/>
-      <c r="Q24" s="88"/>
-      <c r="R24" s="88"/>
+      <c r="O24" s="106"/>
+      <c r="P24" s="106"/>
+      <c r="Q24" s="106"/>
+      <c r="R24" s="106"/>
       <c r="S24" s="12"/>
-      <c r="T24" s="88"/>
-      <c r="U24" s="88"/>
-      <c r="V24" s="88"/>
-      <c r="W24" s="88"/>
+      <c r="T24" s="106"/>
+      <c r="U24" s="106"/>
+      <c r="V24" s="106"/>
+      <c r="W24" s="106"/>
       <c r="X24" s="12"/>
-      <c r="Y24" s="88"/>
-      <c r="Z24" s="88"/>
-      <c r="AA24" s="88"/>
-      <c r="AB24" s="88"/>
+      <c r="Y24" s="106"/>
+      <c r="Z24" s="106"/>
+      <c r="AA24" s="106"/>
+      <c r="AB24" s="106"/>
       <c r="AC24" s="12"/>
-      <c r="AD24" s="88"/>
-      <c r="AE24" s="88"/>
-      <c r="AF24" s="88"/>
-      <c r="AG24" s="88"/>
+      <c r="AD24" s="106"/>
+      <c r="AE24" s="106"/>
+      <c r="AF24" s="106"/>
+      <c r="AG24" s="106"/>
       <c r="AH24" s="12"/>
-      <c r="AI24" s="88"/>
-      <c r="AJ24" s="88"/>
-      <c r="AK24" s="88"/>
-      <c r="AL24" s="88"/>
-      <c r="AM24" s="109"/>
+      <c r="AI24" s="106"/>
+      <c r="AJ24" s="106"/>
+      <c r="AK24" s="106"/>
+      <c r="AL24" s="106"/>
+      <c r="AM24" s="127"/>
       <c r="AN24" s="20"/>
       <c r="AO24" s="19"/>
       <c r="AP24" s="19"/>
@@ -8714,42 +8722,42 @@
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
       <c r="I25" s="12"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="88"/>
-      <c r="L25" s="88"/>
-      <c r="M25" s="88"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="106"/>
+      <c r="L25" s="106"/>
+      <c r="M25" s="106"/>
       <c r="N25" s="12"/>
-      <c r="O25" s="88"/>
-      <c r="P25" s="88"/>
-      <c r="Q25" s="88"/>
-      <c r="R25" s="88"/>
+      <c r="O25" s="106"/>
+      <c r="P25" s="106"/>
+      <c r="Q25" s="106"/>
+      <c r="R25" s="106"/>
       <c r="S25" s="12"/>
-      <c r="T25" s="88"/>
-      <c r="U25" s="88"/>
-      <c r="V25" s="88"/>
-      <c r="W25" s="88"/>
+      <c r="T25" s="106"/>
+      <c r="U25" s="106"/>
+      <c r="V25" s="106"/>
+      <c r="W25" s="106"/>
       <c r="X25" s="12"/>
-      <c r="Y25" s="88"/>
-      <c r="Z25" s="88"/>
-      <c r="AA25" s="88"/>
-      <c r="AB25" s="88"/>
+      <c r="Y25" s="106"/>
+      <c r="Z25" s="106"/>
+      <c r="AA25" s="106"/>
+      <c r="AB25" s="106"/>
       <c r="AC25" s="12"/>
-      <c r="AD25" s="88"/>
-      <c r="AE25" s="88"/>
-      <c r="AF25" s="88"/>
-      <c r="AG25" s="88"/>
+      <c r="AD25" s="106"/>
+      <c r="AE25" s="106"/>
+      <c r="AF25" s="106"/>
+      <c r="AG25" s="106"/>
       <c r="AH25" s="12"/>
-      <c r="AI25" s="88"/>
-      <c r="AJ25" s="88"/>
-      <c r="AK25" s="88"/>
-      <c r="AL25" s="88"/>
-      <c r="AM25" s="109"/>
+      <c r="AI25" s="106"/>
+      <c r="AJ25" s="106"/>
+      <c r="AK25" s="106"/>
+      <c r="AL25" s="106"/>
+      <c r="AM25" s="127"/>
       <c r="AN25" s="20"/>
       <c r="AO25" s="19"/>
       <c r="AP25" s="19"/>
@@ -8758,42 +8766,42 @@
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
       <c r="I26" s="12"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="88"/>
-      <c r="L26" s="88"/>
-      <c r="M26" s="88"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="106"/>
+      <c r="L26" s="106"/>
+      <c r="M26" s="106"/>
       <c r="N26" s="12"/>
-      <c r="O26" s="88"/>
-      <c r="P26" s="88"/>
-      <c r="Q26" s="88"/>
-      <c r="R26" s="88"/>
+      <c r="O26" s="106"/>
+      <c r="P26" s="106"/>
+      <c r="Q26" s="106"/>
+      <c r="R26" s="106"/>
       <c r="S26" s="12"/>
-      <c r="T26" s="88"/>
-      <c r="U26" s="88"/>
-      <c r="V26" s="88"/>
-      <c r="W26" s="88"/>
+      <c r="T26" s="106"/>
+      <c r="U26" s="106"/>
+      <c r="V26" s="106"/>
+      <c r="W26" s="106"/>
       <c r="X26" s="12"/>
-      <c r="Y26" s="88"/>
-      <c r="Z26" s="88"/>
-      <c r="AA26" s="88"/>
-      <c r="AB26" s="88"/>
+      <c r="Y26" s="106"/>
+      <c r="Z26" s="106"/>
+      <c r="AA26" s="106"/>
+      <c r="AB26" s="106"/>
       <c r="AC26" s="12"/>
-      <c r="AD26" s="88"/>
-      <c r="AE26" s="88"/>
-      <c r="AF26" s="88"/>
-      <c r="AG26" s="88"/>
+      <c r="AD26" s="106"/>
+      <c r="AE26" s="106"/>
+      <c r="AF26" s="106"/>
+      <c r="AG26" s="106"/>
       <c r="AH26" s="12"/>
-      <c r="AI26" s="88"/>
-      <c r="AJ26" s="88"/>
-      <c r="AK26" s="88"/>
-      <c r="AL26" s="88"/>
-      <c r="AM26" s="109"/>
+      <c r="AI26" s="106"/>
+      <c r="AJ26" s="106"/>
+      <c r="AK26" s="106"/>
+      <c r="AL26" s="106"/>
+      <c r="AM26" s="127"/>
       <c r="AN26" s="20"/>
       <c r="AO26" s="19"/>
       <c r="AP26" s="19"/>
@@ -8802,42 +8810,42 @@
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
       <c r="I27" s="12"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="88"/>
-      <c r="L27" s="88"/>
-      <c r="M27" s="88"/>
+      <c r="J27" s="106"/>
+      <c r="K27" s="106"/>
+      <c r="L27" s="106"/>
+      <c r="M27" s="106"/>
       <c r="N27" s="12"/>
-      <c r="O27" s="88"/>
-      <c r="P27" s="88"/>
-      <c r="Q27" s="88"/>
-      <c r="R27" s="88"/>
+      <c r="O27" s="106"/>
+      <c r="P27" s="106"/>
+      <c r="Q27" s="106"/>
+      <c r="R27" s="106"/>
       <c r="S27" s="12"/>
-      <c r="T27" s="88"/>
-      <c r="U27" s="88"/>
-      <c r="V27" s="88"/>
-      <c r="W27" s="88"/>
+      <c r="T27" s="106"/>
+      <c r="U27" s="106"/>
+      <c r="V27" s="106"/>
+      <c r="W27" s="106"/>
       <c r="X27" s="12"/>
-      <c r="Y27" s="88"/>
-      <c r="Z27" s="88"/>
-      <c r="AA27" s="88"/>
-      <c r="AB27" s="88"/>
+      <c r="Y27" s="106"/>
+      <c r="Z27" s="106"/>
+      <c r="AA27" s="106"/>
+      <c r="AB27" s="106"/>
       <c r="AC27" s="12"/>
-      <c r="AD27" s="88"/>
-      <c r="AE27" s="88"/>
-      <c r="AF27" s="88"/>
-      <c r="AG27" s="88"/>
+      <c r="AD27" s="106"/>
+      <c r="AE27" s="106"/>
+      <c r="AF27" s="106"/>
+      <c r="AG27" s="106"/>
       <c r="AH27" s="12"/>
-      <c r="AI27" s="88"/>
-      <c r="AJ27" s="88"/>
-      <c r="AK27" s="88"/>
-      <c r="AL27" s="88"/>
-      <c r="AM27" s="109"/>
+      <c r="AI27" s="106"/>
+      <c r="AJ27" s="106"/>
+      <c r="AK27" s="106"/>
+      <c r="AL27" s="106"/>
+      <c r="AM27" s="127"/>
       <c r="AN27" s="20"/>
       <c r="AO27" s="19"/>
       <c r="AP27" s="19"/>
@@ -8846,42 +8854,42 @@
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="88"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="106"/>
       <c r="I28" s="12"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="88"/>
-      <c r="L28" s="88"/>
-      <c r="M28" s="88"/>
+      <c r="J28" s="106"/>
+      <c r="K28" s="106"/>
+      <c r="L28" s="106"/>
+      <c r="M28" s="106"/>
       <c r="N28" s="12"/>
-      <c r="O28" s="88"/>
-      <c r="P28" s="88"/>
-      <c r="Q28" s="88"/>
-      <c r="R28" s="88"/>
+      <c r="O28" s="106"/>
+      <c r="P28" s="106"/>
+      <c r="Q28" s="106"/>
+      <c r="R28" s="106"/>
       <c r="S28" s="12"/>
-      <c r="T28" s="88"/>
-      <c r="U28" s="88"/>
-      <c r="V28" s="88"/>
-      <c r="W28" s="88"/>
+      <c r="T28" s="106"/>
+      <c r="U28" s="106"/>
+      <c r="V28" s="106"/>
+      <c r="W28" s="106"/>
       <c r="X28" s="12"/>
-      <c r="Y28" s="88"/>
-      <c r="Z28" s="88"/>
-      <c r="AA28" s="88"/>
-      <c r="AB28" s="88"/>
+      <c r="Y28" s="106"/>
+      <c r="Z28" s="106"/>
+      <c r="AA28" s="106"/>
+      <c r="AB28" s="106"/>
       <c r="AC28" s="12"/>
-      <c r="AD28" s="88"/>
-      <c r="AE28" s="88"/>
-      <c r="AF28" s="88"/>
-      <c r="AG28" s="88"/>
+      <c r="AD28" s="106"/>
+      <c r="AE28" s="106"/>
+      <c r="AF28" s="106"/>
+      <c r="AG28" s="106"/>
       <c r="AH28" s="12"/>
-      <c r="AI28" s="88"/>
-      <c r="AJ28" s="88"/>
-      <c r="AK28" s="88"/>
-      <c r="AL28" s="88"/>
-      <c r="AM28" s="109"/>
+      <c r="AI28" s="106"/>
+      <c r="AJ28" s="106"/>
+      <c r="AK28" s="106"/>
+      <c r="AL28" s="106"/>
+      <c r="AM28" s="127"/>
       <c r="AN28" s="20"/>
       <c r="AO28" s="19"/>
       <c r="AP28" s="19"/>
@@ -8890,42 +8898,42 @@
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
       <c r="I29" s="12"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="88"/>
-      <c r="L29" s="88"/>
-      <c r="M29" s="88"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="106"/>
+      <c r="L29" s="106"/>
+      <c r="M29" s="106"/>
       <c r="N29" s="12"/>
-      <c r="O29" s="88"/>
-      <c r="P29" s="88"/>
-      <c r="Q29" s="88"/>
-      <c r="R29" s="88"/>
+      <c r="O29" s="106"/>
+      <c r="P29" s="106"/>
+      <c r="Q29" s="106"/>
+      <c r="R29" s="106"/>
       <c r="S29" s="12"/>
-      <c r="T29" s="88"/>
-      <c r="U29" s="88"/>
-      <c r="V29" s="88"/>
-      <c r="W29" s="88"/>
+      <c r="T29" s="106"/>
+      <c r="U29" s="106"/>
+      <c r="V29" s="106"/>
+      <c r="W29" s="106"/>
       <c r="X29" s="12"/>
-      <c r="Y29" s="88"/>
-      <c r="Z29" s="88"/>
-      <c r="AA29" s="88"/>
-      <c r="AB29" s="88"/>
+      <c r="Y29" s="106"/>
+      <c r="Z29" s="106"/>
+      <c r="AA29" s="106"/>
+      <c r="AB29" s="106"/>
       <c r="AC29" s="12"/>
-      <c r="AD29" s="88"/>
-      <c r="AE29" s="88"/>
-      <c r="AF29" s="88"/>
-      <c r="AG29" s="88"/>
+      <c r="AD29" s="106"/>
+      <c r="AE29" s="106"/>
+      <c r="AF29" s="106"/>
+      <c r="AG29" s="106"/>
       <c r="AH29" s="12"/>
-      <c r="AI29" s="88"/>
-      <c r="AJ29" s="88"/>
-      <c r="AK29" s="88"/>
-      <c r="AL29" s="88"/>
-      <c r="AM29" s="109"/>
+      <c r="AI29" s="106"/>
+      <c r="AJ29" s="106"/>
+      <c r="AK29" s="106"/>
+      <c r="AL29" s="106"/>
+      <c r="AM29" s="127"/>
       <c r="AN29" s="20"/>
       <c r="AO29" s="19"/>
       <c r="AP29" s="19"/>
@@ -8934,42 +8942,42 @@
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="93"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="111"/>
       <c r="I30" s="12"/>
-      <c r="J30" s="93"/>
-      <c r="K30" s="93"/>
-      <c r="L30" s="93"/>
-      <c r="M30" s="93"/>
+      <c r="J30" s="111"/>
+      <c r="K30" s="111"/>
+      <c r="L30" s="111"/>
+      <c r="M30" s="111"/>
       <c r="N30" s="12"/>
-      <c r="O30" s="93"/>
-      <c r="P30" s="93"/>
-      <c r="Q30" s="93"/>
-      <c r="R30" s="93"/>
+      <c r="O30" s="111"/>
+      <c r="P30" s="111"/>
+      <c r="Q30" s="111"/>
+      <c r="R30" s="111"/>
       <c r="S30" s="12"/>
-      <c r="T30" s="93"/>
-      <c r="U30" s="93"/>
-      <c r="V30" s="93"/>
-      <c r="W30" s="93"/>
+      <c r="T30" s="111"/>
+      <c r="U30" s="111"/>
+      <c r="V30" s="111"/>
+      <c r="W30" s="111"/>
       <c r="X30" s="12"/>
-      <c r="Y30" s="93"/>
-      <c r="Z30" s="93"/>
-      <c r="AA30" s="93"/>
-      <c r="AB30" s="93"/>
+      <c r="Y30" s="111"/>
+      <c r="Z30" s="111"/>
+      <c r="AA30" s="111"/>
+      <c r="AB30" s="111"/>
       <c r="AC30" s="12"/>
-      <c r="AD30" s="93"/>
-      <c r="AE30" s="93"/>
-      <c r="AF30" s="93"/>
-      <c r="AG30" s="93"/>
+      <c r="AD30" s="111"/>
+      <c r="AE30" s="111"/>
+      <c r="AF30" s="111"/>
+      <c r="AG30" s="111"/>
       <c r="AH30" s="12"/>
-      <c r="AI30" s="93"/>
-      <c r="AJ30" s="93"/>
-      <c r="AK30" s="93"/>
-      <c r="AL30" s="93"/>
-      <c r="AM30" s="95"/>
+      <c r="AI30" s="111"/>
+      <c r="AJ30" s="111"/>
+      <c r="AK30" s="111"/>
+      <c r="AL30" s="111"/>
+      <c r="AM30" s="113"/>
       <c r="AN30" s="20"/>
       <c r="AO30" s="19"/>
       <c r="AP30" s="19"/>
@@ -8978,42 +8986,42 @@
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="94"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="94"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="112"/>
+      <c r="H31" s="112"/>
       <c r="I31" s="13"/>
-      <c r="J31" s="94"/>
-      <c r="K31" s="94"/>
-      <c r="L31" s="94"/>
-      <c r="M31" s="94"/>
+      <c r="J31" s="112"/>
+      <c r="K31" s="112"/>
+      <c r="L31" s="112"/>
+      <c r="M31" s="112"/>
       <c r="N31" s="13"/>
-      <c r="O31" s="94"/>
-      <c r="P31" s="94"/>
-      <c r="Q31" s="94"/>
-      <c r="R31" s="94"/>
+      <c r="O31" s="112"/>
+      <c r="P31" s="112"/>
+      <c r="Q31" s="112"/>
+      <c r="R31" s="112"/>
       <c r="S31" s="13"/>
-      <c r="T31" s="94"/>
-      <c r="U31" s="94"/>
-      <c r="V31" s="94"/>
-      <c r="W31" s="94"/>
+      <c r="T31" s="112"/>
+      <c r="U31" s="112"/>
+      <c r="V31" s="112"/>
+      <c r="W31" s="112"/>
       <c r="X31" s="13"/>
-      <c r="Y31" s="94"/>
-      <c r="Z31" s="94"/>
-      <c r="AA31" s="94"/>
-      <c r="AB31" s="94"/>
+      <c r="Y31" s="112"/>
+      <c r="Z31" s="112"/>
+      <c r="AA31" s="112"/>
+      <c r="AB31" s="112"/>
       <c r="AC31" s="13"/>
-      <c r="AD31" s="94"/>
-      <c r="AE31" s="94"/>
-      <c r="AF31" s="94"/>
-      <c r="AG31" s="94"/>
+      <c r="AD31" s="112"/>
+      <c r="AE31" s="112"/>
+      <c r="AF31" s="112"/>
+      <c r="AG31" s="112"/>
       <c r="AH31" s="13"/>
-      <c r="AI31" s="94"/>
-      <c r="AJ31" s="94"/>
-      <c r="AK31" s="94"/>
-      <c r="AL31" s="94"/>
-      <c r="AM31" s="107"/>
+      <c r="AI31" s="112"/>
+      <c r="AJ31" s="112"/>
+      <c r="AK31" s="112"/>
+      <c r="AL31" s="112"/>
+      <c r="AM31" s="125"/>
       <c r="AN31" s="20"/>
       <c r="AO31" s="19"/>
       <c r="AP31" s="19"/>
@@ -9109,45 +9117,45 @@
     <row r="34" spans="1:42" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
-      <c r="C34" s="101" t="s">
+      <c r="C34" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="102"/>
-      <c r="I34" s="102"/>
-      <c r="J34" s="102"/>
-      <c r="K34" s="102"/>
-      <c r="L34" s="102"/>
-      <c r="M34" s="102"/>
-      <c r="N34" s="102"/>
-      <c r="O34" s="102"/>
-      <c r="P34" s="102"/>
-      <c r="Q34" s="102"/>
-      <c r="R34" s="102"/>
-      <c r="S34" s="102"/>
-      <c r="T34" s="102"/>
-      <c r="U34" s="102"/>
-      <c r="V34" s="102"/>
-      <c r="W34" s="102"/>
-      <c r="X34" s="102"/>
-      <c r="Y34" s="102"/>
-      <c r="Z34" s="102"/>
-      <c r="AA34" s="102"/>
-      <c r="AB34" s="102"/>
-      <c r="AC34" s="102"/>
-      <c r="AD34" s="102"/>
-      <c r="AE34" s="102"/>
-      <c r="AF34" s="102"/>
-      <c r="AG34" s="102"/>
-      <c r="AH34" s="102"/>
-      <c r="AI34" s="102"/>
-      <c r="AJ34" s="102"/>
-      <c r="AK34" s="102"/>
-      <c r="AL34" s="102"/>
-      <c r="AM34" s="103"/>
+      <c r="D34" s="120"/>
+      <c r="E34" s="120"/>
+      <c r="F34" s="120"/>
+      <c r="G34" s="120"/>
+      <c r="H34" s="120"/>
+      <c r="I34" s="120"/>
+      <c r="J34" s="120"/>
+      <c r="K34" s="120"/>
+      <c r="L34" s="120"/>
+      <c r="M34" s="120"/>
+      <c r="N34" s="120"/>
+      <c r="O34" s="120"/>
+      <c r="P34" s="120"/>
+      <c r="Q34" s="120"/>
+      <c r="R34" s="120"/>
+      <c r="S34" s="120"/>
+      <c r="T34" s="120"/>
+      <c r="U34" s="120"/>
+      <c r="V34" s="120"/>
+      <c r="W34" s="120"/>
+      <c r="X34" s="120"/>
+      <c r="Y34" s="120"/>
+      <c r="Z34" s="120"/>
+      <c r="AA34" s="120"/>
+      <c r="AB34" s="120"/>
+      <c r="AC34" s="120"/>
+      <c r="AD34" s="120"/>
+      <c r="AE34" s="120"/>
+      <c r="AF34" s="120"/>
+      <c r="AG34" s="120"/>
+      <c r="AH34" s="120"/>
+      <c r="AI34" s="120"/>
+      <c r="AJ34" s="120"/>
+      <c r="AK34" s="120"/>
+      <c r="AL34" s="120"/>
+      <c r="AM34" s="121"/>
       <c r="AN34" s="20"/>
       <c r="AO34" s="19"/>
       <c r="AP34" s="19"/>
@@ -9155,43 +9163,43 @@
     <row r="35" spans="1:42" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="29"/>
       <c r="B35" s="30"/>
-      <c r="C35" s="104"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="91"/>
-      <c r="I35" s="91"/>
-      <c r="J35" s="91"/>
-      <c r="K35" s="91"/>
-      <c r="L35" s="91"/>
-      <c r="M35" s="91"/>
-      <c r="N35" s="91"/>
-      <c r="O35" s="91"/>
-      <c r="P35" s="91"/>
-      <c r="Q35" s="91"/>
-      <c r="R35" s="91"/>
-      <c r="S35" s="91"/>
-      <c r="T35" s="91"/>
-      <c r="U35" s="91"/>
-      <c r="V35" s="91"/>
-      <c r="W35" s="91"/>
-      <c r="X35" s="91"/>
-      <c r="Y35" s="91"/>
-      <c r="Z35" s="91"/>
-      <c r="AA35" s="91"/>
-      <c r="AB35" s="91"/>
-      <c r="AC35" s="91"/>
-      <c r="AD35" s="91"/>
-      <c r="AE35" s="91"/>
-      <c r="AF35" s="91"/>
-      <c r="AG35" s="91"/>
-      <c r="AH35" s="91"/>
-      <c r="AI35" s="91"/>
-      <c r="AJ35" s="91"/>
-      <c r="AK35" s="91"/>
-      <c r="AL35" s="91"/>
-      <c r="AM35" s="92"/>
+      <c r="C35" s="122"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="109"/>
+      <c r="G35" s="109"/>
+      <c r="H35" s="109"/>
+      <c r="I35" s="109"/>
+      <c r="J35" s="109"/>
+      <c r="K35" s="109"/>
+      <c r="L35" s="109"/>
+      <c r="M35" s="109"/>
+      <c r="N35" s="109"/>
+      <c r="O35" s="109"/>
+      <c r="P35" s="109"/>
+      <c r="Q35" s="109"/>
+      <c r="R35" s="109"/>
+      <c r="S35" s="109"/>
+      <c r="T35" s="109"/>
+      <c r="U35" s="109"/>
+      <c r="V35" s="109"/>
+      <c r="W35" s="109"/>
+      <c r="X35" s="109"/>
+      <c r="Y35" s="109"/>
+      <c r="Z35" s="109"/>
+      <c r="AA35" s="109"/>
+      <c r="AB35" s="109"/>
+      <c r="AC35" s="109"/>
+      <c r="AD35" s="109"/>
+      <c r="AE35" s="109"/>
+      <c r="AF35" s="109"/>
+      <c r="AG35" s="109"/>
+      <c r="AH35" s="109"/>
+      <c r="AI35" s="109"/>
+      <c r="AJ35" s="109"/>
+      <c r="AK35" s="109"/>
+      <c r="AL35" s="109"/>
+      <c r="AM35" s="110"/>
       <c r="AN35" s="25"/>
       <c r="AO35" s="24"/>
       <c r="AP35" s="24"/>
@@ -9199,43 +9207,43 @@
     <row r="36" spans="1:42" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="29"/>
       <c r="B36" s="30"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="61"/>
-      <c r="L36" s="61"/>
-      <c r="M36" s="61"/>
-      <c r="N36" s="61"/>
-      <c r="O36" s="61"/>
-      <c r="P36" s="61"/>
-      <c r="Q36" s="61"/>
-      <c r="R36" s="61"/>
-      <c r="S36" s="61"/>
-      <c r="T36" s="61"/>
-      <c r="U36" s="61"/>
-      <c r="V36" s="61"/>
-      <c r="W36" s="61"/>
-      <c r="X36" s="61"/>
-      <c r="Y36" s="61"/>
-      <c r="Z36" s="61"/>
-      <c r="AA36" s="61"/>
-      <c r="AB36" s="61"/>
-      <c r="AC36" s="61"/>
-      <c r="AD36" s="61"/>
-      <c r="AE36" s="61"/>
-      <c r="AF36" s="61"/>
-      <c r="AG36" s="61"/>
-      <c r="AH36" s="61"/>
-      <c r="AI36" s="61"/>
-      <c r="AJ36" s="61"/>
-      <c r="AK36" s="61"/>
-      <c r="AL36" s="61"/>
-      <c r="AM36" s="62"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="79"/>
+      <c r="K36" s="79"/>
+      <c r="L36" s="79"/>
+      <c r="M36" s="79"/>
+      <c r="N36" s="79"/>
+      <c r="O36" s="79"/>
+      <c r="P36" s="79"/>
+      <c r="Q36" s="79"/>
+      <c r="R36" s="79"/>
+      <c r="S36" s="79"/>
+      <c r="T36" s="79"/>
+      <c r="U36" s="79"/>
+      <c r="V36" s="79"/>
+      <c r="W36" s="79"/>
+      <c r="X36" s="79"/>
+      <c r="Y36" s="79"/>
+      <c r="Z36" s="79"/>
+      <c r="AA36" s="79"/>
+      <c r="AB36" s="79"/>
+      <c r="AC36" s="79"/>
+      <c r="AD36" s="79"/>
+      <c r="AE36" s="79"/>
+      <c r="AF36" s="79"/>
+      <c r="AG36" s="79"/>
+      <c r="AH36" s="79"/>
+      <c r="AI36" s="79"/>
+      <c r="AJ36" s="79"/>
+      <c r="AK36" s="79"/>
+      <c r="AL36" s="79"/>
+      <c r="AM36" s="80"/>
       <c r="AN36" s="25"/>
       <c r="AO36" s="24"/>
       <c r="AP36" s="24"/>
@@ -9243,43 +9251,43 @@
     <row r="37" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
-      <c r="C37" s="105"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="78"/>
-      <c r="I37" s="78"/>
-      <c r="J37" s="78"/>
-      <c r="K37" s="78"/>
-      <c r="L37" s="78"/>
-      <c r="M37" s="78"/>
-      <c r="N37" s="78"/>
-      <c r="O37" s="78"/>
-      <c r="P37" s="78"/>
-      <c r="Q37" s="78"/>
-      <c r="R37" s="78"/>
-      <c r="S37" s="78"/>
-      <c r="T37" s="78"/>
-      <c r="U37" s="78"/>
-      <c r="V37" s="78"/>
-      <c r="W37" s="78"/>
-      <c r="X37" s="78"/>
-      <c r="Y37" s="78"/>
-      <c r="Z37" s="78"/>
-      <c r="AA37" s="78"/>
-      <c r="AB37" s="78"/>
-      <c r="AC37" s="78"/>
-      <c r="AD37" s="78"/>
-      <c r="AE37" s="78"/>
-      <c r="AF37" s="78"/>
-      <c r="AG37" s="78"/>
-      <c r="AH37" s="78"/>
-      <c r="AI37" s="78"/>
-      <c r="AJ37" s="78"/>
-      <c r="AK37" s="78"/>
-      <c r="AL37" s="78"/>
-      <c r="AM37" s="79"/>
+      <c r="C37" s="123"/>
+      <c r="D37" s="96"/>
+      <c r="E37" s="96"/>
+      <c r="F37" s="96"/>
+      <c r="G37" s="96"/>
+      <c r="H37" s="96"/>
+      <c r="I37" s="96"/>
+      <c r="J37" s="96"/>
+      <c r="K37" s="96"/>
+      <c r="L37" s="96"/>
+      <c r="M37" s="96"/>
+      <c r="N37" s="96"/>
+      <c r="O37" s="96"/>
+      <c r="P37" s="96"/>
+      <c r="Q37" s="96"/>
+      <c r="R37" s="96"/>
+      <c r="S37" s="96"/>
+      <c r="T37" s="96"/>
+      <c r="U37" s="96"/>
+      <c r="V37" s="96"/>
+      <c r="W37" s="96"/>
+      <c r="X37" s="96"/>
+      <c r="Y37" s="96"/>
+      <c r="Z37" s="96"/>
+      <c r="AA37" s="96"/>
+      <c r="AB37" s="96"/>
+      <c r="AC37" s="96"/>
+      <c r="AD37" s="96"/>
+      <c r="AE37" s="96"/>
+      <c r="AF37" s="96"/>
+      <c r="AG37" s="96"/>
+      <c r="AH37" s="96"/>
+      <c r="AI37" s="96"/>
+      <c r="AJ37" s="96"/>
+      <c r="AK37" s="96"/>
+      <c r="AL37" s="96"/>
+      <c r="AM37" s="97"/>
       <c r="AN37" s="20"/>
       <c r="AO37" s="19"/>
       <c r="AP37" s="19"/>
@@ -9287,43 +9295,43 @@
     <row r="38" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="80"/>
-      <c r="H38" s="80"/>
-      <c r="I38" s="80"/>
-      <c r="J38" s="80"/>
-      <c r="K38" s="80"/>
-      <c r="L38" s="80"/>
-      <c r="M38" s="80"/>
-      <c r="N38" s="80"/>
-      <c r="O38" s="80"/>
-      <c r="P38" s="80"/>
-      <c r="Q38" s="80"/>
-      <c r="R38" s="80"/>
-      <c r="S38" s="80"/>
-      <c r="T38" s="80"/>
-      <c r="U38" s="80"/>
-      <c r="V38" s="80"/>
-      <c r="W38" s="80"/>
-      <c r="X38" s="80"/>
-      <c r="Y38" s="80"/>
-      <c r="Z38" s="80"/>
-      <c r="AA38" s="80"/>
-      <c r="AB38" s="80"/>
-      <c r="AC38" s="80"/>
-      <c r="AD38" s="80"/>
-      <c r="AE38" s="80"/>
-      <c r="AF38" s="80"/>
-      <c r="AG38" s="80"/>
-      <c r="AH38" s="80"/>
-      <c r="AI38" s="80"/>
-      <c r="AJ38" s="80"/>
-      <c r="AK38" s="80"/>
-      <c r="AL38" s="80"/>
-      <c r="AM38" s="81"/>
+      <c r="C38" s="124"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="98"/>
+      <c r="F38" s="98"/>
+      <c r="G38" s="98"/>
+      <c r="H38" s="98"/>
+      <c r="I38" s="98"/>
+      <c r="J38" s="98"/>
+      <c r="K38" s="98"/>
+      <c r="L38" s="98"/>
+      <c r="M38" s="98"/>
+      <c r="N38" s="98"/>
+      <c r="O38" s="98"/>
+      <c r="P38" s="98"/>
+      <c r="Q38" s="98"/>
+      <c r="R38" s="98"/>
+      <c r="S38" s="98"/>
+      <c r="T38" s="98"/>
+      <c r="U38" s="98"/>
+      <c r="V38" s="98"/>
+      <c r="W38" s="98"/>
+      <c r="X38" s="98"/>
+      <c r="Y38" s="98"/>
+      <c r="Z38" s="98"/>
+      <c r="AA38" s="98"/>
+      <c r="AB38" s="98"/>
+      <c r="AC38" s="98"/>
+      <c r="AD38" s="98"/>
+      <c r="AE38" s="98"/>
+      <c r="AF38" s="98"/>
+      <c r="AG38" s="98"/>
+      <c r="AH38" s="98"/>
+      <c r="AI38" s="98"/>
+      <c r="AJ38" s="98"/>
+      <c r="AK38" s="98"/>
+      <c r="AL38" s="98"/>
+      <c r="AM38" s="99"/>
       <c r="AN38" s="20"/>
       <c r="AO38" s="19"/>
       <c r="AP38" s="19"/>
@@ -9618,367 +9626,367 @@
     <mergeCell ref="D17:H17"/>
   </mergeCells>
   <conditionalFormatting sqref="C6:C12 C15 E15:E16 O13:AM13 C1:AM1 C17:D31 J17:J31 C35:C38 C43:AM1048576 C4:AM5 O6:O12 AA6:AB12">
-    <cfRule type="cellIs" dxfId="82" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="99" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C12 C15 E15:E16 O13:AM13 C1:AM1 C17:D31 J17:J31 C35:C38 C43:AM1048576 C4:AM5 O6:O12 AA6:AB12">
-    <cfRule type="cellIs" dxfId="81" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="98" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8">
-    <cfRule type="cellIs" dxfId="80" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="65" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8">
-    <cfRule type="cellIs" dxfId="79" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="64" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12">
-    <cfRule type="cellIs" dxfId="78" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="57" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12">
-    <cfRule type="cellIs" dxfId="77" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="56" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10">
-    <cfRule type="cellIs" dxfId="76" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="61" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10">
-    <cfRule type="cellIs" dxfId="75" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="60" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11">
-    <cfRule type="cellIs" dxfId="74" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="59" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11">
-    <cfRule type="cellIs" dxfId="73" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="58" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:N13">
-    <cfRule type="cellIs" dxfId="72" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="85" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:N13">
-    <cfRule type="cellIs" dxfId="71" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="84" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC7:AC12">
-    <cfRule type="cellIs" dxfId="70" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="68" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="cellIs" dxfId="69" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="83" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="cellIs" dxfId="68" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="82" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15">
-    <cfRule type="cellIs" dxfId="67" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="81" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15">
-    <cfRule type="cellIs" dxfId="66" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="80" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S15">
-    <cfRule type="cellIs" dxfId="65" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="79" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S15">
-    <cfRule type="cellIs" dxfId="64" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="78" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X15">
-    <cfRule type="cellIs" dxfId="63" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="77" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X15">
-    <cfRule type="cellIs" dxfId="62" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="76" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC15">
-    <cfRule type="cellIs" dxfId="61" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="75" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC15">
-    <cfRule type="cellIs" dxfId="60" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="74" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH15">
-    <cfRule type="cellIs" dxfId="59" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="73" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH15">
-    <cfRule type="cellIs" dxfId="58" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="72" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC7:AC12">
-    <cfRule type="cellIs" dxfId="57" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="69" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7">
-    <cfRule type="cellIs" dxfId="56" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="67" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7">
-    <cfRule type="cellIs" dxfId="55" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="66" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9">
-    <cfRule type="cellIs" dxfId="54" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="63" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9">
-    <cfRule type="cellIs" dxfId="53" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="62" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:I31">
-    <cfRule type="cellIs" dxfId="52" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="26" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O17:O31">
-    <cfRule type="cellIs" dxfId="51" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="55" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O17:O31">
-    <cfRule type="cellIs" dxfId="50" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="54" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T17:T31">
-    <cfRule type="cellIs" dxfId="49" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="53" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T17:T31">
-    <cfRule type="cellIs" dxfId="48" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="52" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y17:Y31">
-    <cfRule type="cellIs" dxfId="47" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="51" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y17:Y31">
-    <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="50" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD17:AD31">
-    <cfRule type="cellIs" dxfId="45" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="49" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD17:AD31">
-    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="48" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH17:AI31">
-    <cfRule type="cellIs" dxfId="43" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="47" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH17:AI31">
-    <cfRule type="cellIs" dxfId="42" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="46" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC17:AC31">
-    <cfRule type="cellIs" dxfId="41" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="35" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC17:AC31">
-    <cfRule type="cellIs" dxfId="40" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="34" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X17:X31">
-    <cfRule type="cellIs" dxfId="39" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="33" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X17:X31">
-    <cfRule type="cellIs" dxfId="38" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="32" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S17:S31">
-    <cfRule type="cellIs" dxfId="37" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="31" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S17:S31">
-    <cfRule type="cellIs" dxfId="36" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="30" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17:N31">
-    <cfRule type="cellIs" dxfId="35" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="29" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17:N31">
-    <cfRule type="cellIs" dxfId="34" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="28" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:I31">
-    <cfRule type="cellIs" dxfId="33" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="27" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:H31">
-    <cfRule type="expression" dxfId="32" priority="23">
+    <cfRule type="expression" dxfId="42" priority="23">
       <formula>StartDate+0=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:M31">
-    <cfRule type="expression" dxfId="31" priority="22">
+    <cfRule type="expression" dxfId="41" priority="22">
       <formula>StartDate+1=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17:R31">
-    <cfRule type="expression" dxfId="30" priority="21">
+    <cfRule type="expression" dxfId="40" priority="21">
       <formula>StartDate+2=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S17:W31">
-    <cfRule type="expression" dxfId="29" priority="20">
+    <cfRule type="expression" dxfId="39" priority="20">
       <formula>StartDate+3=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X17:AB31">
-    <cfRule type="expression" dxfId="28" priority="19">
+    <cfRule type="expression" dxfId="38" priority="19">
       <formula>StartDate+4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC17:AG31">
-    <cfRule type="expression" dxfId="27" priority="18">
+    <cfRule type="expression" dxfId="37" priority="18">
       <formula>StartDate+5=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH17:AM31">
-    <cfRule type="expression" dxfId="26" priority="17">
+    <cfRule type="expression" dxfId="36" priority="17">
       <formula>StartDate+6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15:K16">
-    <cfRule type="cellIs" dxfId="25" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="16" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15:K16">
-    <cfRule type="cellIs" dxfId="24" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="15" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15:P16">
-    <cfRule type="cellIs" dxfId="23" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="14" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15:P16">
-    <cfRule type="cellIs" dxfId="22" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="13" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U15:U16">
-    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="12" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U15:U16">
-    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="11" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z15:Z16">
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="10" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z15:Z16">
-    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="9" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE15:AE16">
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="8" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE15:AE16">
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="7" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ15:AJ16 AM15:AM16">
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="6" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ15:AJ16 AM15:AM16">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="5" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC6">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC6">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9997,10 +10005,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAD748A-0236-4680-920A-ED00DE65B007}">
-  <dimension ref="A1:U24"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="88" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="88" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10015,7 +10023,7 @@
     <col min="8" max="8" width="20.5546875" customWidth="1"/>
     <col min="9" max="9" width="19.44140625" customWidth="1"/>
     <col min="10" max="10" width="24.6640625" customWidth="1"/>
-    <col min="11" max="11" width="18.77734375" customWidth="1"/>
+    <col min="11" max="11" width="18.77734375" style="77" customWidth="1"/>
     <col min="12" max="12" width="15.21875" customWidth="1"/>
     <col min="13" max="13" width="13.88671875" customWidth="1"/>
     <col min="14" max="14" width="14.33203125" customWidth="1"/>
@@ -10025,7 +10033,7 @@
     <col min="18" max="21" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="45" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="45" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="49" t="s">
         <v>8</v>
       </c>
@@ -10035,7 +10043,7 @@
       <c r="C1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="76" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="51" t="s">
@@ -10056,31 +10064,30 @@
       <c r="J1" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="46"/>
-      <c r="M1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="N1" s="46" t="s">
+        <v>12</v>
+      </c>
       <c r="O1" s="46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P1" s="46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q1" s="46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R1" s="46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S1" s="46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T1" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="46" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="57" t="s">
         <v>40</v>
       </c>
@@ -10107,6 +10114,10 @@
       <c r="J2" s="57">
         <v>16</v>
       </c>
+      <c r="K2"/>
+      <c r="N2" t="s">
+        <v>39</v>
+      </c>
       <c r="O2" t="s">
         <v>39</v>
       </c>
@@ -10125,11 +10136,8 @@
       <c r="T2" t="s">
         <v>39</v>
       </c>
-      <c r="U2" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="3" spans="1:21" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="54" t="s">
         <v>66</v>
       </c>
@@ -10142,8 +10150,9 @@
       <c r="H3" s="54"/>
       <c r="I3" s="54"/>
       <c r="J3" s="54"/>
+      <c r="K3"/>
     </row>
-    <row r="4" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="57" t="s">
         <v>19</v>
       </c>
@@ -10162,8 +10171,9 @@
       <c r="H4" s="57"/>
       <c r="I4" s="57"/>
       <c r="J4" s="57"/>
+      <c r="K4"/>
     </row>
-    <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="57" t="s">
         <v>10</v>
       </c>
@@ -10182,8 +10192,9 @@
       <c r="H5" s="57"/>
       <c r="I5" s="57"/>
       <c r="J5" s="57"/>
+      <c r="K5"/>
     </row>
-    <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="57" t="s">
         <v>20</v>
       </c>
@@ -10202,8 +10213,9 @@
       <c r="H6" s="57"/>
       <c r="I6" s="57"/>
       <c r="J6" s="57"/>
+      <c r="K6"/>
     </row>
-    <row r="7" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="57" t="s">
         <v>21</v>
       </c>
@@ -10222,8 +10234,9 @@
       <c r="H7" s="57"/>
       <c r="I7" s="57"/>
       <c r="J7" s="57"/>
+      <c r="K7"/>
     </row>
-    <row r="8" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="57" t="s">
         <v>22</v>
       </c>
@@ -10233,15 +10246,18 @@
       <c r="C8" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="57"/>
+      <c r="D8" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="E8" s="57"/>
       <c r="F8" s="57"/>
       <c r="G8" s="57"/>
       <c r="H8" s="57"/>
       <c r="I8" s="57"/>
       <c r="J8" s="57"/>
+      <c r="K8"/>
     </row>
-    <row r="9" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="57" t="s">
         <v>23</v>
       </c>
@@ -10251,15 +10267,18 @@
       <c r="C9" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="57"/>
+      <c r="D9" s="57" t="s">
+        <v>69</v>
+      </c>
       <c r="E9" s="57"/>
       <c r="F9" s="57"/>
       <c r="G9" s="57"/>
       <c r="H9" s="57"/>
       <c r="I9" s="57"/>
       <c r="J9" s="57"/>
+      <c r="K9"/>
     </row>
-    <row r="10" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="57" t="s">
         <v>24</v>
       </c>
@@ -10269,15 +10288,18 @@
       <c r="C10" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="57"/>
+      <c r="D10" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="E10" s="57"/>
       <c r="F10" s="57"/>
       <c r="G10" s="57"/>
       <c r="H10" s="57"/>
       <c r="I10" s="57"/>
       <c r="J10" s="57"/>
+      <c r="K10"/>
     </row>
-    <row r="11" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="55" t="s">
         <v>67</v>
       </c>
@@ -10290,8 +10312,9 @@
       <c r="H11" s="52"/>
       <c r="I11" s="52"/>
       <c r="J11" s="52"/>
+      <c r="K11"/>
     </row>
-    <row r="12" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="57" t="s">
         <v>25</v>
       </c>
@@ -10301,15 +10324,18 @@
       <c r="C12" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="57"/>
+      <c r="D12" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="E12" s="57"/>
       <c r="F12" s="57"/>
       <c r="G12" s="57"/>
       <c r="H12" s="57"/>
       <c r="I12" s="57"/>
       <c r="J12" s="57"/>
+      <c r="K12"/>
     </row>
-    <row r="13" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="57" t="s">
         <v>26</v>
       </c>
@@ -10319,15 +10345,18 @@
       <c r="C13" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="57"/>
+      <c r="D13" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="E13" s="57"/>
       <c r="F13" s="57"/>
       <c r="G13" s="57"/>
       <c r="H13" s="57"/>
       <c r="I13" s="57"/>
       <c r="J13" s="57"/>
+      <c r="K13"/>
     </row>
-    <row r="14" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="57" t="s">
         <v>11</v>
       </c>
@@ -10337,15 +10366,18 @@
       <c r="C14" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="57"/>
+      <c r="D14" s="57" t="s">
+        <v>69</v>
+      </c>
       <c r="E14" s="57"/>
       <c r="F14" s="57"/>
       <c r="G14" s="57"/>
       <c r="H14" s="57"/>
       <c r="I14" s="57"/>
       <c r="J14" s="57"/>
+      <c r="K14"/>
     </row>
-    <row r="15" spans="1:21" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="56" t="s">
         <v>68</v>
       </c>
@@ -10358,8 +10390,9 @@
       <c r="H15" s="52"/>
       <c r="I15" s="52"/>
       <c r="J15" s="52"/>
+      <c r="K15"/>
     </row>
-    <row r="16" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="57" t="s">
         <v>27</v>
       </c>
@@ -10369,15 +10402,18 @@
       <c r="C16" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="57"/>
+      <c r="D16" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="E16" s="57"/>
       <c r="F16" s="57"/>
       <c r="G16" s="57"/>
       <c r="H16" s="57"/>
       <c r="I16" s="57"/>
       <c r="J16" s="57"/>
+      <c r="K16"/>
     </row>
-    <row r="17" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="57" t="s">
         <v>28</v>
       </c>
@@ -10387,15 +10423,18 @@
       <c r="C17" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="57"/>
+      <c r="D17" s="57" t="s">
+        <v>69</v>
+      </c>
       <c r="E17" s="57"/>
       <c r="F17" s="57"/>
       <c r="G17" s="57"/>
       <c r="H17" s="57"/>
       <c r="I17" s="57"/>
       <c r="J17" s="57"/>
+      <c r="K17"/>
     </row>
-    <row r="18" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="57" t="s">
         <v>29</v>
       </c>
@@ -10405,15 +10444,18 @@
       <c r="C18" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="57"/>
+      <c r="D18" s="57" t="s">
+        <v>69</v>
+      </c>
       <c r="E18" s="57"/>
       <c r="F18" s="57"/>
       <c r="G18" s="57"/>
       <c r="H18" s="57"/>
       <c r="I18" s="57"/>
       <c r="J18" s="57"/>
+      <c r="K18"/>
     </row>
-    <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="57" t="s">
         <v>30</v>
       </c>
@@ -10423,15 +10465,18 @@
       <c r="C19" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="57"/>
+      <c r="D19" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="E19" s="57"/>
       <c r="F19" s="57"/>
       <c r="G19" s="57"/>
       <c r="H19" s="57"/>
       <c r="I19" s="57"/>
       <c r="J19" s="57"/>
+      <c r="K19"/>
     </row>
-    <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="57" t="s">
         <v>22</v>
       </c>
@@ -10441,15 +10486,18 @@
       <c r="C20" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="57"/>
+      <c r="D20" s="57" t="s">
+        <v>69</v>
+      </c>
       <c r="E20" s="57"/>
       <c r="F20" s="57"/>
       <c r="G20" s="57"/>
       <c r="H20" s="57"/>
       <c r="I20" s="57"/>
       <c r="J20" s="57"/>
+      <c r="K20"/>
     </row>
-    <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="57" t="s">
         <v>31</v>
       </c>
@@ -10459,15 +10507,18 @@
       <c r="C21" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="57"/>
+      <c r="D21" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="E21" s="57"/>
       <c r="F21" s="57"/>
       <c r="G21" s="57"/>
       <c r="H21" s="57"/>
       <c r="I21" s="57"/>
       <c r="J21" s="57"/>
+      <c r="K21"/>
     </row>
-    <row r="22" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="57" t="s">
         <v>32</v>
       </c>
@@ -10477,84 +10528,89 @@
       <c r="C22" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="57"/>
+      <c r="D22" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="E22" s="57"/>
       <c r="F22" s="57"/>
       <c r="G22" s="57"/>
       <c r="H22" s="57"/>
       <c r="I22" s="57"/>
       <c r="J22" s="57"/>
+      <c r="K22"/>
     </row>
-    <row r="23" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="110" t="s">
+    <row r="23" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="60" t="s">
         <v>40</v>
       </c>
       <c r="B23" s="58"/>
       <c r="C23" s="57"/>
       <c r="D23" s="57">
-        <f>DCOUNTA(D1:D22,D1,O1:O2)</f>
-        <v>4</v>
+        <f t="shared" ref="D23:J23" si="0">DCOUNTA(D1:D22,D1,N1:N2)</f>
+        <v>12</v>
       </c>
       <c r="E23" s="57">
-        <f>DCOUNTA(E1:E22,E1,P1:P2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F23" s="57">
-        <f>DCOUNTA(F1:F22,F1,Q1:Q2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G23" s="57">
-        <f>DCOUNTA(G1:G22,G1,R1:R2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H23" s="57">
-        <f>DCOUNTA(H1:H22,H1,S1:S2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I23" s="57">
-        <f>DCOUNTA(I1:I22,I1,T1:T2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J23" s="57">
-        <f>DCOUNTA(J1:J22,J1,U1:U2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="K23"/>
     </row>
-    <row r="24" spans="1:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="115">
+    <row r="24" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="65">
         <f>SUM(Table1[[#Totals],[Mon - Apr 19th]:[Sun - Apr 25th]])/16</f>
-        <v>1.5625E-2</v>
-      </c>
-      <c r="B24" s="112"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="114">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="B24" s="62"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="64">
         <f>SUM(D23)/16</f>
-        <v>0.25</v>
-      </c>
-      <c r="E24" s="114">
-        <f>SUM(E23)/16</f>
+        <v>0.75</v>
+      </c>
+      <c r="E24" s="64">
+        <f t="shared" ref="E24:J24" si="1">SUM(E23)/16</f>
         <v>0</v>
       </c>
-      <c r="F24" s="114">
-        <f>SUM(F23)/16</f>
+      <c r="F24" s="64">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G24" s="114">
-        <f>SUM(G23)/16</f>
+      <c r="G24" s="64">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H24" s="114">
-        <f>SUM(H23)/16</f>
+      <c r="H24" s="64">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I24" s="114">
-        <f>SUM(I23)/16</f>
+      <c r="I24" s="64">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J24" s="114">
-        <f>SUM(J23)/16</f>
+      <c r="J24" s="64">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="K24"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D4">
@@ -10569,8 +10625,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1 A1 A37:A1048576" xr:uid="{1713A267-0C0A-438A-9CE7-A2F77CB3F8D6}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 A1 A37:A1048576" xr:uid="{1713A267-0C0A-438A-9CE7-A2F77CB3F8D6}">
       <formula1>"Sleep, Excel, Tableau"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{86BA7885-9819-4515-934E-6239D10A747F}">

--- a/Weekly Planner/Weekly schedule planner1.xlsx
+++ b/Weekly Planner/Weekly schedule planner1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D518115-FD74-4B16-9246-E627902B300A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BAE8861-BC01-4690-9B35-B67A69213FF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="70">
   <si>
     <t>Weekly Schedule Planner</t>
   </si>
@@ -1362,139 +1362,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1523,7 +1390,23 @@
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
@@ -1531,17 +1414,134 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -7674,45 +7674,45 @@
       <c r="AP2" s="33"/>
     </row>
     <row r="3" spans="1:42" s="15" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="114" t="s">
+      <c r="C3" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="115"/>
-      <c r="O3" s="115"/>
-      <c r="P3" s="115"/>
-      <c r="Q3" s="115"/>
-      <c r="R3" s="115"/>
-      <c r="S3" s="115"/>
-      <c r="T3" s="115"/>
-      <c r="U3" s="115"/>
-      <c r="V3" s="115"/>
-      <c r="W3" s="115"/>
-      <c r="X3" s="115"/>
-      <c r="Y3" s="115"/>
-      <c r="Z3" s="115"/>
-      <c r="AA3" s="115"/>
-      <c r="AB3" s="115"/>
-      <c r="AC3" s="115"/>
-      <c r="AD3" s="115"/>
-      <c r="AE3" s="115"/>
-      <c r="AF3" s="115"/>
-      <c r="AG3" s="115"/>
-      <c r="AH3" s="115"/>
-      <c r="AI3" s="115"/>
-      <c r="AJ3" s="115"/>
-      <c r="AK3" s="115"/>
-      <c r="AL3" s="115"/>
-      <c r="AM3" s="115"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="79"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="79"/>
+      <c r="AK3" s="79"/>
+      <c r="AL3" s="79"/>
+      <c r="AM3" s="79"/>
     </row>
     <row r="4" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
@@ -7731,21 +7731,21 @@
       <c r="N4" s="21"/>
       <c r="O4" s="17"/>
       <c r="P4" s="17"/>
-      <c r="Q4" s="105" t="s">
+      <c r="Q4" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
-      <c r="U4" s="105"/>
-      <c r="V4" s="108">
+      <c r="R4" s="111"/>
+      <c r="S4" s="111"/>
+      <c r="T4" s="111"/>
+      <c r="U4" s="111"/>
+      <c r="V4" s="104">
         <f ca="1">TODAY()-WEEKDAY(TODAY(),2)+1</f>
         <v>44305</v>
       </c>
-      <c r="W4" s="108"/>
-      <c r="X4" s="108"/>
-      <c r="Y4" s="108"/>
-      <c r="Z4" s="108"/>
+      <c r="W4" s="104"/>
+      <c r="X4" s="104"/>
+      <c r="Y4" s="104"/>
+      <c r="Z4" s="104"/>
       <c r="AA4" s="17"/>
       <c r="AB4" s="17"/>
       <c r="AC4" s="17"/>
@@ -7810,49 +7810,49 @@
     <row r="6" spans="1:42" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="36"/>
       <c r="B6" s="37"/>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="117"/>
-      <c r="M6" s="118"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="82"/>
       <c r="N6" s="21"/>
       <c r="O6" s="17"/>
-      <c r="P6" s="116" t="s">
+      <c r="P6" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="Q6" s="117"/>
-      <c r="R6" s="117"/>
-      <c r="S6" s="117"/>
-      <c r="T6" s="117"/>
-      <c r="U6" s="117"/>
-      <c r="V6" s="117"/>
-      <c r="W6" s="117"/>
-      <c r="X6" s="117"/>
-      <c r="Y6" s="117"/>
-      <c r="Z6" s="118"/>
+      <c r="Q6" s="81"/>
+      <c r="R6" s="81"/>
+      <c r="S6" s="81"/>
+      <c r="T6" s="81"/>
+      <c r="U6" s="81"/>
+      <c r="V6" s="81"/>
+      <c r="W6" s="81"/>
+      <c r="X6" s="81"/>
+      <c r="Y6" s="81"/>
+      <c r="Z6" s="82"/>
       <c r="AA6" s="17"/>
       <c r="AB6" s="17"/>
-      <c r="AC6" s="116" t="s">
+      <c r="AC6" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="AD6" s="117"/>
-      <c r="AE6" s="117"/>
-      <c r="AF6" s="117"/>
-      <c r="AG6" s="117"/>
-      <c r="AH6" s="117"/>
-      <c r="AI6" s="117"/>
-      <c r="AJ6" s="117"/>
-      <c r="AK6" s="117"/>
-      <c r="AL6" s="117"/>
-      <c r="AM6" s="118"/>
+      <c r="AD6" s="81"/>
+      <c r="AE6" s="81"/>
+      <c r="AF6" s="81"/>
+      <c r="AG6" s="81"/>
+      <c r="AH6" s="81"/>
+      <c r="AI6" s="81"/>
+      <c r="AJ6" s="81"/>
+      <c r="AK6" s="81"/>
+      <c r="AL6" s="81"/>
+      <c r="AM6" s="82"/>
       <c r="AN6" s="38"/>
       <c r="AO6" s="39"/>
       <c r="AP6" s="39"/>
@@ -7860,43 +7860,43 @@
     <row r="7" spans="1:42" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="24"/>
       <c r="B7" s="25"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="85"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="107"/>
       <c r="N7" s="26"/>
       <c r="O7" s="27"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="109"/>
-      <c r="R7" s="109"/>
-      <c r="S7" s="109"/>
-      <c r="T7" s="109"/>
-      <c r="U7" s="109"/>
-      <c r="V7" s="109"/>
-      <c r="W7" s="109"/>
-      <c r="X7" s="109"/>
-      <c r="Y7" s="109"/>
-      <c r="Z7" s="110"/>
+      <c r="Q7" s="87"/>
+      <c r="R7" s="87"/>
+      <c r="S7" s="87"/>
+      <c r="T7" s="87"/>
+      <c r="U7" s="87"/>
+      <c r="V7" s="87"/>
+      <c r="W7" s="87"/>
+      <c r="X7" s="87"/>
+      <c r="Y7" s="87"/>
+      <c r="Z7" s="88"/>
       <c r="AA7" s="27"/>
       <c r="AB7" s="27"/>
-      <c r="AC7" s="83"/>
-      <c r="AD7" s="84"/>
-      <c r="AE7" s="84"/>
-      <c r="AF7" s="84"/>
-      <c r="AG7" s="84"/>
-      <c r="AH7" s="84"/>
-      <c r="AI7" s="84"/>
-      <c r="AJ7" s="84"/>
-      <c r="AK7" s="84"/>
-      <c r="AL7" s="84"/>
-      <c r="AM7" s="85"/>
+      <c r="AC7" s="105"/>
+      <c r="AD7" s="106"/>
+      <c r="AE7" s="106"/>
+      <c r="AF7" s="106"/>
+      <c r="AG7" s="106"/>
+      <c r="AH7" s="106"/>
+      <c r="AI7" s="106"/>
+      <c r="AJ7" s="106"/>
+      <c r="AK7" s="106"/>
+      <c r="AL7" s="106"/>
+      <c r="AM7" s="107"/>
       <c r="AN7" s="25"/>
       <c r="AO7" s="24"/>
       <c r="AP7" s="24"/>
@@ -7904,43 +7904,43 @@
     <row r="8" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="88"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="110"/>
       <c r="N8" s="6"/>
       <c r="O8" s="5"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="96"/>
-      <c r="R8" s="96"/>
-      <c r="S8" s="96"/>
-      <c r="T8" s="96"/>
-      <c r="U8" s="96"/>
-      <c r="V8" s="96"/>
-      <c r="W8" s="96"/>
-      <c r="X8" s="96"/>
-      <c r="Y8" s="96"/>
-      <c r="Z8" s="97"/>
+      <c r="Q8" s="90"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="90"/>
+      <c r="T8" s="90"/>
+      <c r="U8" s="90"/>
+      <c r="V8" s="90"/>
+      <c r="W8" s="90"/>
+      <c r="X8" s="90"/>
+      <c r="Y8" s="90"/>
+      <c r="Z8" s="91"/>
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
-      <c r="AC8" s="86"/>
-      <c r="AD8" s="87"/>
-      <c r="AE8" s="87"/>
-      <c r="AF8" s="87"/>
-      <c r="AG8" s="87"/>
-      <c r="AH8" s="87"/>
-      <c r="AI8" s="87"/>
-      <c r="AJ8" s="87"/>
-      <c r="AK8" s="87"/>
-      <c r="AL8" s="87"/>
-      <c r="AM8" s="88"/>
+      <c r="AC8" s="108"/>
+      <c r="AD8" s="109"/>
+      <c r="AE8" s="109"/>
+      <c r="AF8" s="109"/>
+      <c r="AG8" s="109"/>
+      <c r="AH8" s="109"/>
+      <c r="AI8" s="109"/>
+      <c r="AJ8" s="109"/>
+      <c r="AK8" s="109"/>
+      <c r="AL8" s="109"/>
+      <c r="AM8" s="110"/>
       <c r="AN8" s="20"/>
       <c r="AO8" s="19"/>
       <c r="AP8" s="19"/>
@@ -7948,43 +7948,43 @@
     <row r="9" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="88"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="110"/>
       <c r="N9" s="6"/>
       <c r="O9" s="5"/>
       <c r="P9" s="8"/>
-      <c r="Q9" s="96"/>
-      <c r="R9" s="96"/>
-      <c r="S9" s="96"/>
-      <c r="T9" s="96"/>
-      <c r="U9" s="96"/>
-      <c r="V9" s="96"/>
-      <c r="W9" s="96"/>
-      <c r="X9" s="96"/>
-      <c r="Y9" s="96"/>
-      <c r="Z9" s="97"/>
+      <c r="Q9" s="90"/>
+      <c r="R9" s="90"/>
+      <c r="S9" s="90"/>
+      <c r="T9" s="90"/>
+      <c r="U9" s="90"/>
+      <c r="V9" s="90"/>
+      <c r="W9" s="90"/>
+      <c r="X9" s="90"/>
+      <c r="Y9" s="90"/>
+      <c r="Z9" s="91"/>
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
-      <c r="AC9" s="86"/>
-      <c r="AD9" s="87"/>
-      <c r="AE9" s="87"/>
-      <c r="AF9" s="87"/>
-      <c r="AG9" s="87"/>
-      <c r="AH9" s="87"/>
-      <c r="AI9" s="87"/>
-      <c r="AJ9" s="87"/>
-      <c r="AK9" s="87"/>
-      <c r="AL9" s="87"/>
-      <c r="AM9" s="88"/>
+      <c r="AC9" s="108"/>
+      <c r="AD9" s="109"/>
+      <c r="AE9" s="109"/>
+      <c r="AF9" s="109"/>
+      <c r="AG9" s="109"/>
+      <c r="AH9" s="109"/>
+      <c r="AI9" s="109"/>
+      <c r="AJ9" s="109"/>
+      <c r="AK9" s="109"/>
+      <c r="AL9" s="109"/>
+      <c r="AM9" s="110"/>
       <c r="AN9" s="20"/>
       <c r="AO9" s="19"/>
       <c r="AP9" s="19"/>
@@ -7992,43 +7992,43 @@
     <row r="10" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="88"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="110"/>
       <c r="N10" s="6"/>
       <c r="O10" s="5"/>
       <c r="P10" s="8"/>
-      <c r="Q10" s="96"/>
-      <c r="R10" s="96"/>
-      <c r="S10" s="96"/>
-      <c r="T10" s="96"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="96"/>
-      <c r="W10" s="96"/>
-      <c r="X10" s="96"/>
-      <c r="Y10" s="96"/>
-      <c r="Z10" s="97"/>
+      <c r="Q10" s="90"/>
+      <c r="R10" s="90"/>
+      <c r="S10" s="90"/>
+      <c r="T10" s="90"/>
+      <c r="U10" s="90"/>
+      <c r="V10" s="90"/>
+      <c r="W10" s="90"/>
+      <c r="X10" s="90"/>
+      <c r="Y10" s="90"/>
+      <c r="Z10" s="91"/>
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
-      <c r="AC10" s="86"/>
-      <c r="AD10" s="87"/>
-      <c r="AE10" s="87"/>
-      <c r="AF10" s="87"/>
-      <c r="AG10" s="87"/>
-      <c r="AH10" s="87"/>
-      <c r="AI10" s="87"/>
-      <c r="AJ10" s="87"/>
-      <c r="AK10" s="87"/>
-      <c r="AL10" s="87"/>
-      <c r="AM10" s="88"/>
+      <c r="AC10" s="108"/>
+      <c r="AD10" s="109"/>
+      <c r="AE10" s="109"/>
+      <c r="AF10" s="109"/>
+      <c r="AG10" s="109"/>
+      <c r="AH10" s="109"/>
+      <c r="AI10" s="109"/>
+      <c r="AJ10" s="109"/>
+      <c r="AK10" s="109"/>
+      <c r="AL10" s="109"/>
+      <c r="AM10" s="110"/>
       <c r="AN10" s="20"/>
       <c r="AO10" s="19"/>
       <c r="AP10" s="19"/>
@@ -8036,43 +8036,43 @@
     <row r="11" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="88"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="110"/>
       <c r="N11" s="6"/>
       <c r="O11" s="5"/>
       <c r="P11" s="8"/>
-      <c r="Q11" s="96"/>
-      <c r="R11" s="96"/>
-      <c r="S11" s="96"/>
-      <c r="T11" s="96"/>
-      <c r="U11" s="96"/>
-      <c r="V11" s="96"/>
-      <c r="W11" s="96"/>
-      <c r="X11" s="96"/>
-      <c r="Y11" s="96"/>
-      <c r="Z11" s="97"/>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="90"/>
+      <c r="S11" s="90"/>
+      <c r="T11" s="90"/>
+      <c r="U11" s="90"/>
+      <c r="V11" s="90"/>
+      <c r="W11" s="90"/>
+      <c r="X11" s="90"/>
+      <c r="Y11" s="90"/>
+      <c r="Z11" s="91"/>
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
-      <c r="AC11" s="86"/>
-      <c r="AD11" s="87"/>
-      <c r="AE11" s="87"/>
-      <c r="AF11" s="87"/>
-      <c r="AG11" s="87"/>
-      <c r="AH11" s="87"/>
-      <c r="AI11" s="87"/>
-      <c r="AJ11" s="87"/>
-      <c r="AK11" s="87"/>
-      <c r="AL11" s="87"/>
-      <c r="AM11" s="88"/>
+      <c r="AC11" s="108"/>
+      <c r="AD11" s="109"/>
+      <c r="AE11" s="109"/>
+      <c r="AF11" s="109"/>
+      <c r="AG11" s="109"/>
+      <c r="AH11" s="109"/>
+      <c r="AI11" s="109"/>
+      <c r="AJ11" s="109"/>
+      <c r="AK11" s="109"/>
+      <c r="AL11" s="109"/>
+      <c r="AM11" s="110"/>
       <c r="AN11" s="20"/>
       <c r="AO11" s="19"/>
       <c r="AP11" s="19"/>
@@ -8080,43 +8080,43 @@
     <row r="12" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="91"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="120"/>
+      <c r="M12" s="121"/>
       <c r="N12" s="6"/>
       <c r="O12" s="5"/>
       <c r="P12" s="9"/>
-      <c r="Q12" s="98"/>
-      <c r="R12" s="98"/>
-      <c r="S12" s="98"/>
-      <c r="T12" s="98"/>
-      <c r="U12" s="98"/>
-      <c r="V12" s="98"/>
-      <c r="W12" s="98"/>
-      <c r="X12" s="98"/>
-      <c r="Y12" s="98"/>
-      <c r="Z12" s="99"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="93"/>
+      <c r="S12" s="93"/>
+      <c r="T12" s="93"/>
+      <c r="U12" s="93"/>
+      <c r="V12" s="93"/>
+      <c r="W12" s="93"/>
+      <c r="X12" s="93"/>
+      <c r="Y12" s="93"/>
+      <c r="Z12" s="94"/>
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
-      <c r="AC12" s="89"/>
-      <c r="AD12" s="90"/>
-      <c r="AE12" s="90"/>
-      <c r="AF12" s="90"/>
-      <c r="AG12" s="90"/>
-      <c r="AH12" s="90"/>
-      <c r="AI12" s="90"/>
-      <c r="AJ12" s="90"/>
-      <c r="AK12" s="90"/>
-      <c r="AL12" s="90"/>
-      <c r="AM12" s="91"/>
+      <c r="AC12" s="119"/>
+      <c r="AD12" s="120"/>
+      <c r="AE12" s="120"/>
+      <c r="AF12" s="120"/>
+      <c r="AG12" s="120"/>
+      <c r="AH12" s="120"/>
+      <c r="AI12" s="120"/>
+      <c r="AJ12" s="120"/>
+      <c r="AK12" s="120"/>
+      <c r="AL12" s="120"/>
+      <c r="AM12" s="121"/>
       <c r="AN12" s="20"/>
       <c r="AO12" s="19"/>
       <c r="AP12" s="19"/>
@@ -8212,84 +8212,84 @@
     <row r="15" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="92" t="str">
+      <c r="C15" s="122" t="str">
         <f ca="1">TEXT(StartDate+0,"dd")</f>
         <v>19</v>
       </c>
-      <c r="D15" s="93"/>
-      <c r="E15" s="100" t="str">
+      <c r="D15" s="123"/>
+      <c r="E15" s="114" t="str">
         <f ca="1">(TEXT(StartDate+0,"aaaa"))</f>
         <v>Monday</v>
       </c>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="81" t="str">
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="112" t="str">
         <f ca="1">TEXT(StartDate+1,"dd")</f>
         <v>20</v>
       </c>
-      <c r="J15" s="81"/>
-      <c r="K15" s="100" t="str">
+      <c r="J15" s="112"/>
+      <c r="K15" s="114" t="str">
         <f ca="1">(TEXT(StartDate+1,"aaaa"))</f>
         <v>Tuesday</v>
       </c>
-      <c r="L15" s="100"/>
-      <c r="M15" s="100"/>
-      <c r="N15" s="81" t="str">
+      <c r="L15" s="114"/>
+      <c r="M15" s="114"/>
+      <c r="N15" s="112" t="str">
         <f ca="1">TEXT(StartDate+2,"dd")</f>
         <v>21</v>
       </c>
-      <c r="O15" s="81"/>
-      <c r="P15" s="100" t="str">
+      <c r="O15" s="112"/>
+      <c r="P15" s="114" t="str">
         <f ca="1">(TEXT(StartDate+2,"aaaa"))</f>
         <v>Wednesday</v>
       </c>
-      <c r="Q15" s="100"/>
-      <c r="R15" s="100"/>
-      <c r="S15" s="81" t="str">
+      <c r="Q15" s="114"/>
+      <c r="R15" s="114"/>
+      <c r="S15" s="112" t="str">
         <f ca="1">TEXT(StartDate+3,"dd")</f>
         <v>22</v>
       </c>
-      <c r="T15" s="81"/>
-      <c r="U15" s="100" t="str">
+      <c r="T15" s="112"/>
+      <c r="U15" s="114" t="str">
         <f ca="1">(TEXT(StartDate+3,"aaaa"))</f>
         <v>Thursday</v>
       </c>
-      <c r="V15" s="100"/>
-      <c r="W15" s="100"/>
-      <c r="X15" s="81" t="str">
+      <c r="V15" s="114"/>
+      <c r="W15" s="114"/>
+      <c r="X15" s="112" t="str">
         <f ca="1">TEXT(StartDate+4,"dd")</f>
         <v>23</v>
       </c>
-      <c r="Y15" s="81"/>
-      <c r="Z15" s="100" t="str">
+      <c r="Y15" s="112"/>
+      <c r="Z15" s="114" t="str">
         <f ca="1">(TEXT(StartDate+4,"aaaa"))</f>
         <v>Friday</v>
       </c>
-      <c r="AA15" s="100"/>
-      <c r="AB15" s="100"/>
-      <c r="AC15" s="81" t="str">
+      <c r="AA15" s="114"/>
+      <c r="AB15" s="114"/>
+      <c r="AC15" s="112" t="str">
         <f ca="1">TEXT(StartDate+5,"dd")</f>
         <v>24</v>
       </c>
-      <c r="AD15" s="81"/>
-      <c r="AE15" s="100" t="str">
+      <c r="AD15" s="112"/>
+      <c r="AE15" s="114" t="str">
         <f ca="1">(TEXT(StartDate+5,"aaaa"))</f>
         <v>Saturday</v>
       </c>
-      <c r="AF15" s="100"/>
-      <c r="AG15" s="100"/>
-      <c r="AH15" s="81" t="str">
+      <c r="AF15" s="114"/>
+      <c r="AG15" s="114"/>
+      <c r="AH15" s="112" t="str">
         <f ca="1">TEXT(StartDate+6,"dd")</f>
         <v>25</v>
       </c>
-      <c r="AI15" s="81"/>
-      <c r="AJ15" s="100" t="str">
+      <c r="AI15" s="112"/>
+      <c r="AJ15" s="114" t="str">
         <f ca="1">(TEXT(StartDate+6,"aaaa"))</f>
         <v>Sunday</v>
       </c>
-      <c r="AK15" s="100"/>
-      <c r="AL15" s="100"/>
+      <c r="AK15" s="114"/>
+      <c r="AL15" s="114"/>
       <c r="AM15" s="31"/>
       <c r="AN15" s="20"/>
       <c r="AO15" s="19"/>
@@ -8298,63 +8298,63 @@
     <row r="16" spans="1:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="102" t="str">
+      <c r="C16" s="124"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="115" t="str">
         <f ca="1">(TEXT(StartDate+0,"mmmm"))</f>
         <v>April</v>
       </c>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="102" t="str">
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="115" t="str">
         <f ca="1">(TEXT(StartDate+1,"mmmm"))</f>
         <v>April</v>
       </c>
-      <c r="L16" s="102"/>
-      <c r="M16" s="102"/>
-      <c r="N16" s="82"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="102" t="str">
+      <c r="L16" s="115"/>
+      <c r="M16" s="115"/>
+      <c r="N16" s="113"/>
+      <c r="O16" s="113"/>
+      <c r="P16" s="115" t="str">
         <f ca="1">(TEXT(StartDate+2,"mmmm"))</f>
         <v>April</v>
       </c>
-      <c r="Q16" s="102"/>
-      <c r="R16" s="102"/>
-      <c r="S16" s="82"/>
-      <c r="T16" s="82"/>
-      <c r="U16" s="102" t="str">
+      <c r="Q16" s="115"/>
+      <c r="R16" s="115"/>
+      <c r="S16" s="113"/>
+      <c r="T16" s="113"/>
+      <c r="U16" s="115" t="str">
         <f ca="1">(TEXT(StartDate+3,"mmmm"))</f>
         <v>April</v>
       </c>
-      <c r="V16" s="102"/>
-      <c r="W16" s="102"/>
-      <c r="X16" s="82"/>
-      <c r="Y16" s="82"/>
-      <c r="Z16" s="102" t="str">
+      <c r="V16" s="115"/>
+      <c r="W16" s="115"/>
+      <c r="X16" s="113"/>
+      <c r="Y16" s="113"/>
+      <c r="Z16" s="115" t="str">
         <f ca="1">(TEXT(StartDate+4,"mmmm"))</f>
         <v>April</v>
       </c>
-      <c r="AA16" s="102"/>
-      <c r="AB16" s="102"/>
-      <c r="AC16" s="82"/>
-      <c r="AD16" s="82"/>
-      <c r="AE16" s="102" t="str">
+      <c r="AA16" s="115"/>
+      <c r="AB16" s="115"/>
+      <c r="AC16" s="113"/>
+      <c r="AD16" s="113"/>
+      <c r="AE16" s="115" t="str">
         <f ca="1">(TEXT(StartDate+5,"mmmm"))</f>
         <v>April</v>
       </c>
-      <c r="AF16" s="102"/>
-      <c r="AG16" s="102"/>
-      <c r="AH16" s="82"/>
-      <c r="AI16" s="82"/>
-      <c r="AJ16" s="102" t="str">
+      <c r="AF16" s="115"/>
+      <c r="AG16" s="115"/>
+      <c r="AH16" s="113"/>
+      <c r="AI16" s="113"/>
+      <c r="AJ16" s="115" t="str">
         <f ca="1">(TEXT(StartDate+6,"mmmm"))</f>
         <v>April</v>
       </c>
-      <c r="AK16" s="102"/>
-      <c r="AL16" s="102"/>
+      <c r="AK16" s="115"/>
+      <c r="AL16" s="115"/>
       <c r="AM16" s="32"/>
       <c r="AN16" s="20"/>
       <c r="AO16" s="19"/>
@@ -8366,42 +8366,42 @@
       <c r="C17" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="104"/>
-      <c r="K17" s="104"/>
-      <c r="L17" s="104"/>
-      <c r="M17" s="104"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="98"/>
       <c r="N17" s="11"/>
-      <c r="O17" s="104"/>
-      <c r="P17" s="104"/>
-      <c r="Q17" s="104"/>
-      <c r="R17" s="104"/>
+      <c r="O17" s="98"/>
+      <c r="P17" s="98"/>
+      <c r="Q17" s="98"/>
+      <c r="R17" s="98"/>
       <c r="S17" s="11"/>
-      <c r="T17" s="104"/>
-      <c r="U17" s="104"/>
-      <c r="V17" s="104"/>
-      <c r="W17" s="104"/>
+      <c r="T17" s="98"/>
+      <c r="U17" s="98"/>
+      <c r="V17" s="98"/>
+      <c r="W17" s="98"/>
       <c r="X17" s="11"/>
-      <c r="Y17" s="104"/>
-      <c r="Z17" s="104"/>
-      <c r="AA17" s="104"/>
-      <c r="AB17" s="104"/>
+      <c r="Y17" s="98"/>
+      <c r="Z17" s="98"/>
+      <c r="AA17" s="98"/>
+      <c r="AB17" s="98"/>
       <c r="AC17" s="11"/>
-      <c r="AD17" s="104"/>
-      <c r="AE17" s="104"/>
-      <c r="AF17" s="104"/>
-      <c r="AG17" s="104"/>
+      <c r="AD17" s="98"/>
+      <c r="AE17" s="98"/>
+      <c r="AF17" s="98"/>
+      <c r="AG17" s="98"/>
       <c r="AH17" s="11"/>
-      <c r="AI17" s="104"/>
-      <c r="AJ17" s="104"/>
-      <c r="AK17" s="104"/>
-      <c r="AL17" s="104"/>
-      <c r="AM17" s="126"/>
+      <c r="AI17" s="98"/>
+      <c r="AJ17" s="98"/>
+      <c r="AK17" s="98"/>
+      <c r="AL17" s="98"/>
+      <c r="AM17" s="99"/>
       <c r="AN17" s="20"/>
       <c r="AO17" s="19"/>
       <c r="AP17" s="19"/>
@@ -8412,42 +8412,42 @@
       <c r="C18" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="106"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="107"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="103"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="106"/>
-      <c r="K18" s="106"/>
-      <c r="L18" s="106"/>
-      <c r="M18" s="106"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="100"/>
+      <c r="M18" s="100"/>
       <c r="N18" s="12"/>
-      <c r="O18" s="106"/>
-      <c r="P18" s="106"/>
-      <c r="Q18" s="106"/>
-      <c r="R18" s="106"/>
+      <c r="O18" s="100"/>
+      <c r="P18" s="100"/>
+      <c r="Q18" s="100"/>
+      <c r="R18" s="100"/>
       <c r="S18" s="12"/>
-      <c r="T18" s="106"/>
-      <c r="U18" s="106"/>
-      <c r="V18" s="106"/>
-      <c r="W18" s="106"/>
+      <c r="T18" s="100"/>
+      <c r="U18" s="100"/>
+      <c r="V18" s="100"/>
+      <c r="W18" s="100"/>
       <c r="X18" s="12"/>
-      <c r="Y18" s="106"/>
-      <c r="Z18" s="106"/>
-      <c r="AA18" s="106"/>
-      <c r="AB18" s="106"/>
+      <c r="Y18" s="100"/>
+      <c r="Z18" s="100"/>
+      <c r="AA18" s="100"/>
+      <c r="AB18" s="100"/>
       <c r="AC18" s="12"/>
-      <c r="AD18" s="106"/>
-      <c r="AE18" s="106"/>
-      <c r="AF18" s="106"/>
-      <c r="AG18" s="106"/>
+      <c r="AD18" s="100"/>
+      <c r="AE18" s="100"/>
+      <c r="AF18" s="100"/>
+      <c r="AG18" s="100"/>
       <c r="AH18" s="12"/>
-      <c r="AI18" s="106"/>
-      <c r="AJ18" s="106"/>
-      <c r="AK18" s="106"/>
-      <c r="AL18" s="106"/>
-      <c r="AM18" s="127"/>
+      <c r="AI18" s="100"/>
+      <c r="AJ18" s="100"/>
+      <c r="AK18" s="100"/>
+      <c r="AL18" s="100"/>
+      <c r="AM18" s="101"/>
       <c r="AN18" s="20"/>
       <c r="AO18" s="19"/>
       <c r="AP18" s="19"/>
@@ -8458,42 +8458,42 @@
       <c r="C19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="106"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="107"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="103"/>
       <c r="I19" s="12"/>
-      <c r="J19" s="106"/>
-      <c r="K19" s="106"/>
-      <c r="L19" s="106"/>
-      <c r="M19" s="106"/>
+      <c r="J19" s="100"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="100"/>
+      <c r="M19" s="100"/>
       <c r="N19" s="12"/>
-      <c r="O19" s="106"/>
-      <c r="P19" s="106"/>
-      <c r="Q19" s="106"/>
-      <c r="R19" s="106"/>
+      <c r="O19" s="100"/>
+      <c r="P19" s="100"/>
+      <c r="Q19" s="100"/>
+      <c r="R19" s="100"/>
       <c r="S19" s="12"/>
-      <c r="T19" s="106"/>
-      <c r="U19" s="106"/>
-      <c r="V19" s="106"/>
-      <c r="W19" s="106"/>
+      <c r="T19" s="100"/>
+      <c r="U19" s="100"/>
+      <c r="V19" s="100"/>
+      <c r="W19" s="100"/>
       <c r="X19" s="12"/>
-      <c r="Y19" s="106"/>
-      <c r="Z19" s="106"/>
-      <c r="AA19" s="106"/>
-      <c r="AB19" s="106"/>
+      <c r="Y19" s="100"/>
+      <c r="Z19" s="100"/>
+      <c r="AA19" s="100"/>
+      <c r="AB19" s="100"/>
       <c r="AC19" s="12"/>
-      <c r="AD19" s="106"/>
-      <c r="AE19" s="106"/>
-      <c r="AF19" s="106"/>
-      <c r="AG19" s="106"/>
+      <c r="AD19" s="100"/>
+      <c r="AE19" s="100"/>
+      <c r="AF19" s="100"/>
+      <c r="AG19" s="100"/>
       <c r="AH19" s="12"/>
-      <c r="AI19" s="106"/>
-      <c r="AJ19" s="106"/>
-      <c r="AK19" s="106"/>
-      <c r="AL19" s="106"/>
-      <c r="AM19" s="127"/>
+      <c r="AI19" s="100"/>
+      <c r="AJ19" s="100"/>
+      <c r="AK19" s="100"/>
+      <c r="AL19" s="100"/>
+      <c r="AM19" s="101"/>
       <c r="AN19" s="20"/>
       <c r="AO19" s="19"/>
       <c r="AP19" s="19"/>
@@ -8502,42 +8502,42 @@
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="107"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="103"/>
       <c r="I20" s="12"/>
-      <c r="J20" s="106"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="106"/>
+      <c r="J20" s="100"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="100"/>
       <c r="N20" s="12"/>
-      <c r="O20" s="106"/>
-      <c r="P20" s="106"/>
-      <c r="Q20" s="106"/>
-      <c r="R20" s="106"/>
+      <c r="O20" s="100"/>
+      <c r="P20" s="100"/>
+      <c r="Q20" s="100"/>
+      <c r="R20" s="100"/>
       <c r="S20" s="12"/>
-      <c r="T20" s="106"/>
-      <c r="U20" s="106"/>
-      <c r="V20" s="106"/>
-      <c r="W20" s="106"/>
+      <c r="T20" s="100"/>
+      <c r="U20" s="100"/>
+      <c r="V20" s="100"/>
+      <c r="W20" s="100"/>
       <c r="X20" s="12"/>
-      <c r="Y20" s="106"/>
-      <c r="Z20" s="106"/>
-      <c r="AA20" s="106"/>
-      <c r="AB20" s="106"/>
+      <c r="Y20" s="100"/>
+      <c r="Z20" s="100"/>
+      <c r="AA20" s="100"/>
+      <c r="AB20" s="100"/>
       <c r="AC20" s="12"/>
-      <c r="AD20" s="106"/>
-      <c r="AE20" s="106"/>
-      <c r="AF20" s="106"/>
-      <c r="AG20" s="106"/>
+      <c r="AD20" s="100"/>
+      <c r="AE20" s="100"/>
+      <c r="AF20" s="100"/>
+      <c r="AG20" s="100"/>
       <c r="AH20" s="12"/>
-      <c r="AI20" s="106"/>
-      <c r="AJ20" s="106"/>
-      <c r="AK20" s="106"/>
-      <c r="AL20" s="106"/>
-      <c r="AM20" s="127"/>
+      <c r="AI20" s="100"/>
+      <c r="AJ20" s="100"/>
+      <c r="AK20" s="100"/>
+      <c r="AL20" s="100"/>
+      <c r="AM20" s="101"/>
       <c r="AN20" s="20"/>
       <c r="AO20" s="19"/>
       <c r="AP20" s="19"/>
@@ -8546,42 +8546,42 @@
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="107"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="103"/>
       <c r="I21" s="12"/>
-      <c r="J21" s="106"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="106"/>
-      <c r="M21" s="106"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="100"/>
       <c r="N21" s="12"/>
-      <c r="O21" s="106"/>
-      <c r="P21" s="106"/>
-      <c r="Q21" s="106"/>
-      <c r="R21" s="106"/>
+      <c r="O21" s="100"/>
+      <c r="P21" s="100"/>
+      <c r="Q21" s="100"/>
+      <c r="R21" s="100"/>
       <c r="S21" s="12"/>
-      <c r="T21" s="106"/>
-      <c r="U21" s="106"/>
-      <c r="V21" s="106"/>
-      <c r="W21" s="106"/>
+      <c r="T21" s="100"/>
+      <c r="U21" s="100"/>
+      <c r="V21" s="100"/>
+      <c r="W21" s="100"/>
       <c r="X21" s="12"/>
-      <c r="Y21" s="106"/>
-      <c r="Z21" s="106"/>
-      <c r="AA21" s="106"/>
-      <c r="AB21" s="106"/>
+      <c r="Y21" s="100"/>
+      <c r="Z21" s="100"/>
+      <c r="AA21" s="100"/>
+      <c r="AB21" s="100"/>
       <c r="AC21" s="12"/>
-      <c r="AD21" s="106"/>
-      <c r="AE21" s="106"/>
-      <c r="AF21" s="106"/>
-      <c r="AG21" s="106"/>
+      <c r="AD21" s="100"/>
+      <c r="AE21" s="100"/>
+      <c r="AF21" s="100"/>
+      <c r="AG21" s="100"/>
       <c r="AH21" s="12"/>
-      <c r="AI21" s="106"/>
-      <c r="AJ21" s="106"/>
-      <c r="AK21" s="106"/>
-      <c r="AL21" s="106"/>
-      <c r="AM21" s="127"/>
+      <c r="AI21" s="100"/>
+      <c r="AJ21" s="100"/>
+      <c r="AK21" s="100"/>
+      <c r="AL21" s="100"/>
+      <c r="AM21" s="101"/>
       <c r="AN21" s="20"/>
       <c r="AO21" s="19"/>
       <c r="AP21" s="19"/>
@@ -8590,42 +8590,42 @@
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
       <c r="I22" s="12"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="106"/>
-      <c r="L22" s="106"/>
-      <c r="M22" s="106"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="100"/>
       <c r="N22" s="12"/>
-      <c r="O22" s="106"/>
-      <c r="P22" s="106"/>
-      <c r="Q22" s="106"/>
-      <c r="R22" s="106"/>
+      <c r="O22" s="100"/>
+      <c r="P22" s="100"/>
+      <c r="Q22" s="100"/>
+      <c r="R22" s="100"/>
       <c r="S22" s="12"/>
-      <c r="T22" s="106"/>
-      <c r="U22" s="106"/>
-      <c r="V22" s="106"/>
-      <c r="W22" s="106"/>
+      <c r="T22" s="100"/>
+      <c r="U22" s="100"/>
+      <c r="V22" s="100"/>
+      <c r="W22" s="100"/>
       <c r="X22" s="12"/>
-      <c r="Y22" s="106"/>
-      <c r="Z22" s="106"/>
-      <c r="AA22" s="106"/>
-      <c r="AB22" s="106"/>
+      <c r="Y22" s="100"/>
+      <c r="Z22" s="100"/>
+      <c r="AA22" s="100"/>
+      <c r="AB22" s="100"/>
       <c r="AC22" s="12"/>
-      <c r="AD22" s="106"/>
-      <c r="AE22" s="106"/>
-      <c r="AF22" s="106"/>
-      <c r="AG22" s="106"/>
+      <c r="AD22" s="100"/>
+      <c r="AE22" s="100"/>
+      <c r="AF22" s="100"/>
+      <c r="AG22" s="100"/>
       <c r="AH22" s="12"/>
-      <c r="AI22" s="106"/>
-      <c r="AJ22" s="106"/>
-      <c r="AK22" s="106"/>
-      <c r="AL22" s="106"/>
-      <c r="AM22" s="127"/>
+      <c r="AI22" s="100"/>
+      <c r="AJ22" s="100"/>
+      <c r="AK22" s="100"/>
+      <c r="AL22" s="100"/>
+      <c r="AM22" s="101"/>
       <c r="AN22" s="20"/>
       <c r="AO22" s="19"/>
       <c r="AP22" s="19"/>
@@ -8634,42 +8634,42 @@
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="106"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
       <c r="I23" s="12"/>
-      <c r="J23" s="106"/>
-      <c r="K23" s="106"/>
-      <c r="L23" s="106"/>
-      <c r="M23" s="106"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="100"/>
       <c r="N23" s="12"/>
-      <c r="O23" s="106"/>
-      <c r="P23" s="106"/>
-      <c r="Q23" s="106"/>
-      <c r="R23" s="106"/>
+      <c r="O23" s="100"/>
+      <c r="P23" s="100"/>
+      <c r="Q23" s="100"/>
+      <c r="R23" s="100"/>
       <c r="S23" s="12"/>
-      <c r="T23" s="106"/>
-      <c r="U23" s="106"/>
-      <c r="V23" s="106"/>
-      <c r="W23" s="106"/>
+      <c r="T23" s="100"/>
+      <c r="U23" s="100"/>
+      <c r="V23" s="100"/>
+      <c r="W23" s="100"/>
       <c r="X23" s="12"/>
-      <c r="Y23" s="106"/>
-      <c r="Z23" s="106"/>
-      <c r="AA23" s="106"/>
-      <c r="AB23" s="106"/>
+      <c r="Y23" s="100"/>
+      <c r="Z23" s="100"/>
+      <c r="AA23" s="100"/>
+      <c r="AB23" s="100"/>
       <c r="AC23" s="12"/>
-      <c r="AD23" s="106"/>
-      <c r="AE23" s="106"/>
-      <c r="AF23" s="106"/>
-      <c r="AG23" s="106"/>
+      <c r="AD23" s="100"/>
+      <c r="AE23" s="100"/>
+      <c r="AF23" s="100"/>
+      <c r="AG23" s="100"/>
       <c r="AH23" s="12"/>
-      <c r="AI23" s="106"/>
-      <c r="AJ23" s="106"/>
-      <c r="AK23" s="106"/>
-      <c r="AL23" s="106"/>
-      <c r="AM23" s="127"/>
+      <c r="AI23" s="100"/>
+      <c r="AJ23" s="100"/>
+      <c r="AK23" s="100"/>
+      <c r="AL23" s="100"/>
+      <c r="AM23" s="101"/>
       <c r="AN23" s="20"/>
       <c r="AO23" s="19"/>
       <c r="AP23" s="19"/>
@@ -8678,42 +8678,42 @@
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="106"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
       <c r="I24" s="12"/>
-      <c r="J24" s="106"/>
-      <c r="K24" s="106"/>
-      <c r="L24" s="106"/>
-      <c r="M24" s="106"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="100"/>
       <c r="N24" s="12"/>
-      <c r="O24" s="106"/>
-      <c r="P24" s="106"/>
-      <c r="Q24" s="106"/>
-      <c r="R24" s="106"/>
+      <c r="O24" s="100"/>
+      <c r="P24" s="100"/>
+      <c r="Q24" s="100"/>
+      <c r="R24" s="100"/>
       <c r="S24" s="12"/>
-      <c r="T24" s="106"/>
-      <c r="U24" s="106"/>
-      <c r="V24" s="106"/>
-      <c r="W24" s="106"/>
+      <c r="T24" s="100"/>
+      <c r="U24" s="100"/>
+      <c r="V24" s="100"/>
+      <c r="W24" s="100"/>
       <c r="X24" s="12"/>
-      <c r="Y24" s="106"/>
-      <c r="Z24" s="106"/>
-      <c r="AA24" s="106"/>
-      <c r="AB24" s="106"/>
+      <c r="Y24" s="100"/>
+      <c r="Z24" s="100"/>
+      <c r="AA24" s="100"/>
+      <c r="AB24" s="100"/>
       <c r="AC24" s="12"/>
-      <c r="AD24" s="106"/>
-      <c r="AE24" s="106"/>
-      <c r="AF24" s="106"/>
-      <c r="AG24" s="106"/>
+      <c r="AD24" s="100"/>
+      <c r="AE24" s="100"/>
+      <c r="AF24" s="100"/>
+      <c r="AG24" s="100"/>
       <c r="AH24" s="12"/>
-      <c r="AI24" s="106"/>
-      <c r="AJ24" s="106"/>
-      <c r="AK24" s="106"/>
-      <c r="AL24" s="106"/>
-      <c r="AM24" s="127"/>
+      <c r="AI24" s="100"/>
+      <c r="AJ24" s="100"/>
+      <c r="AK24" s="100"/>
+      <c r="AL24" s="100"/>
+      <c r="AM24" s="101"/>
       <c r="AN24" s="20"/>
       <c r="AO24" s="19"/>
       <c r="AP24" s="19"/>
@@ -8722,42 +8722,42 @@
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="100"/>
       <c r="I25" s="12"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="106"/>
-      <c r="L25" s="106"/>
-      <c r="M25" s="106"/>
+      <c r="J25" s="100"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="100"/>
       <c r="N25" s="12"/>
-      <c r="O25" s="106"/>
-      <c r="P25" s="106"/>
-      <c r="Q25" s="106"/>
-      <c r="R25" s="106"/>
+      <c r="O25" s="100"/>
+      <c r="P25" s="100"/>
+      <c r="Q25" s="100"/>
+      <c r="R25" s="100"/>
       <c r="S25" s="12"/>
-      <c r="T25" s="106"/>
-      <c r="U25" s="106"/>
-      <c r="V25" s="106"/>
-      <c r="W25" s="106"/>
+      <c r="T25" s="100"/>
+      <c r="U25" s="100"/>
+      <c r="V25" s="100"/>
+      <c r="W25" s="100"/>
       <c r="X25" s="12"/>
-      <c r="Y25" s="106"/>
-      <c r="Z25" s="106"/>
-      <c r="AA25" s="106"/>
-      <c r="AB25" s="106"/>
+      <c r="Y25" s="100"/>
+      <c r="Z25" s="100"/>
+      <c r="AA25" s="100"/>
+      <c r="AB25" s="100"/>
       <c r="AC25" s="12"/>
-      <c r="AD25" s="106"/>
-      <c r="AE25" s="106"/>
-      <c r="AF25" s="106"/>
-      <c r="AG25" s="106"/>
+      <c r="AD25" s="100"/>
+      <c r="AE25" s="100"/>
+      <c r="AF25" s="100"/>
+      <c r="AG25" s="100"/>
       <c r="AH25" s="12"/>
-      <c r="AI25" s="106"/>
-      <c r="AJ25" s="106"/>
-      <c r="AK25" s="106"/>
-      <c r="AL25" s="106"/>
-      <c r="AM25" s="127"/>
+      <c r="AI25" s="100"/>
+      <c r="AJ25" s="100"/>
+      <c r="AK25" s="100"/>
+      <c r="AL25" s="100"/>
+      <c r="AM25" s="101"/>
       <c r="AN25" s="20"/>
       <c r="AO25" s="19"/>
       <c r="AP25" s="19"/>
@@ -8766,42 +8766,42 @@
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="106"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
       <c r="I26" s="12"/>
-      <c r="J26" s="106"/>
-      <c r="K26" s="106"/>
-      <c r="L26" s="106"/>
-      <c r="M26" s="106"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="100"/>
       <c r="N26" s="12"/>
-      <c r="O26" s="106"/>
-      <c r="P26" s="106"/>
-      <c r="Q26" s="106"/>
-      <c r="R26" s="106"/>
+      <c r="O26" s="100"/>
+      <c r="P26" s="100"/>
+      <c r="Q26" s="100"/>
+      <c r="R26" s="100"/>
       <c r="S26" s="12"/>
-      <c r="T26" s="106"/>
-      <c r="U26" s="106"/>
-      <c r="V26" s="106"/>
-      <c r="W26" s="106"/>
+      <c r="T26" s="100"/>
+      <c r="U26" s="100"/>
+      <c r="V26" s="100"/>
+      <c r="W26" s="100"/>
       <c r="X26" s="12"/>
-      <c r="Y26" s="106"/>
-      <c r="Z26" s="106"/>
-      <c r="AA26" s="106"/>
-      <c r="AB26" s="106"/>
+      <c r="Y26" s="100"/>
+      <c r="Z26" s="100"/>
+      <c r="AA26" s="100"/>
+      <c r="AB26" s="100"/>
       <c r="AC26" s="12"/>
-      <c r="AD26" s="106"/>
-      <c r="AE26" s="106"/>
-      <c r="AF26" s="106"/>
-      <c r="AG26" s="106"/>
+      <c r="AD26" s="100"/>
+      <c r="AE26" s="100"/>
+      <c r="AF26" s="100"/>
+      <c r="AG26" s="100"/>
       <c r="AH26" s="12"/>
-      <c r="AI26" s="106"/>
-      <c r="AJ26" s="106"/>
-      <c r="AK26" s="106"/>
-      <c r="AL26" s="106"/>
-      <c r="AM26" s="127"/>
+      <c r="AI26" s="100"/>
+      <c r="AJ26" s="100"/>
+      <c r="AK26" s="100"/>
+      <c r="AL26" s="100"/>
+      <c r="AM26" s="101"/>
       <c r="AN26" s="20"/>
       <c r="AO26" s="19"/>
       <c r="AP26" s="19"/>
@@ -8810,42 +8810,42 @@
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="100"/>
       <c r="I27" s="12"/>
-      <c r="J27" s="106"/>
-      <c r="K27" s="106"/>
-      <c r="L27" s="106"/>
-      <c r="M27" s="106"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="100"/>
+      <c r="M27" s="100"/>
       <c r="N27" s="12"/>
-      <c r="O27" s="106"/>
-      <c r="P27" s="106"/>
-      <c r="Q27" s="106"/>
-      <c r="R27" s="106"/>
+      <c r="O27" s="100"/>
+      <c r="P27" s="100"/>
+      <c r="Q27" s="100"/>
+      <c r="R27" s="100"/>
       <c r="S27" s="12"/>
-      <c r="T27" s="106"/>
-      <c r="U27" s="106"/>
-      <c r="V27" s="106"/>
-      <c r="W27" s="106"/>
+      <c r="T27" s="100"/>
+      <c r="U27" s="100"/>
+      <c r="V27" s="100"/>
+      <c r="W27" s="100"/>
       <c r="X27" s="12"/>
-      <c r="Y27" s="106"/>
-      <c r="Z27" s="106"/>
-      <c r="AA27" s="106"/>
-      <c r="AB27" s="106"/>
+      <c r="Y27" s="100"/>
+      <c r="Z27" s="100"/>
+      <c r="AA27" s="100"/>
+      <c r="AB27" s="100"/>
       <c r="AC27" s="12"/>
-      <c r="AD27" s="106"/>
-      <c r="AE27" s="106"/>
-      <c r="AF27" s="106"/>
-      <c r="AG27" s="106"/>
+      <c r="AD27" s="100"/>
+      <c r="AE27" s="100"/>
+      <c r="AF27" s="100"/>
+      <c r="AG27" s="100"/>
       <c r="AH27" s="12"/>
-      <c r="AI27" s="106"/>
-      <c r="AJ27" s="106"/>
-      <c r="AK27" s="106"/>
-      <c r="AL27" s="106"/>
-      <c r="AM27" s="127"/>
+      <c r="AI27" s="100"/>
+      <c r="AJ27" s="100"/>
+      <c r="AK27" s="100"/>
+      <c r="AL27" s="100"/>
+      <c r="AM27" s="101"/>
       <c r="AN27" s="20"/>
       <c r="AO27" s="19"/>
       <c r="AP27" s="19"/>
@@ -8854,42 +8854,42 @@
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="106"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="100"/>
       <c r="I28" s="12"/>
-      <c r="J28" s="106"/>
-      <c r="K28" s="106"/>
-      <c r="L28" s="106"/>
-      <c r="M28" s="106"/>
+      <c r="J28" s="100"/>
+      <c r="K28" s="100"/>
+      <c r="L28" s="100"/>
+      <c r="M28" s="100"/>
       <c r="N28" s="12"/>
-      <c r="O28" s="106"/>
-      <c r="P28" s="106"/>
-      <c r="Q28" s="106"/>
-      <c r="R28" s="106"/>
+      <c r="O28" s="100"/>
+      <c r="P28" s="100"/>
+      <c r="Q28" s="100"/>
+      <c r="R28" s="100"/>
       <c r="S28" s="12"/>
-      <c r="T28" s="106"/>
-      <c r="U28" s="106"/>
-      <c r="V28" s="106"/>
-      <c r="W28" s="106"/>
+      <c r="T28" s="100"/>
+      <c r="U28" s="100"/>
+      <c r="V28" s="100"/>
+      <c r="W28" s="100"/>
       <c r="X28" s="12"/>
-      <c r="Y28" s="106"/>
-      <c r="Z28" s="106"/>
-      <c r="AA28" s="106"/>
-      <c r="AB28" s="106"/>
+      <c r="Y28" s="100"/>
+      <c r="Z28" s="100"/>
+      <c r="AA28" s="100"/>
+      <c r="AB28" s="100"/>
       <c r="AC28" s="12"/>
-      <c r="AD28" s="106"/>
-      <c r="AE28" s="106"/>
-      <c r="AF28" s="106"/>
-      <c r="AG28" s="106"/>
+      <c r="AD28" s="100"/>
+      <c r="AE28" s="100"/>
+      <c r="AF28" s="100"/>
+      <c r="AG28" s="100"/>
       <c r="AH28" s="12"/>
-      <c r="AI28" s="106"/>
-      <c r="AJ28" s="106"/>
-      <c r="AK28" s="106"/>
-      <c r="AL28" s="106"/>
-      <c r="AM28" s="127"/>
+      <c r="AI28" s="100"/>
+      <c r="AJ28" s="100"/>
+      <c r="AK28" s="100"/>
+      <c r="AL28" s="100"/>
+      <c r="AM28" s="101"/>
       <c r="AN28" s="20"/>
       <c r="AO28" s="19"/>
       <c r="AP28" s="19"/>
@@ -8898,42 +8898,42 @@
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="100"/>
       <c r="I29" s="12"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="106"/>
-      <c r="L29" s="106"/>
-      <c r="M29" s="106"/>
+      <c r="J29" s="100"/>
+      <c r="K29" s="100"/>
+      <c r="L29" s="100"/>
+      <c r="M29" s="100"/>
       <c r="N29" s="12"/>
-      <c r="O29" s="106"/>
-      <c r="P29" s="106"/>
-      <c r="Q29" s="106"/>
-      <c r="R29" s="106"/>
+      <c r="O29" s="100"/>
+      <c r="P29" s="100"/>
+      <c r="Q29" s="100"/>
+      <c r="R29" s="100"/>
       <c r="S29" s="12"/>
-      <c r="T29" s="106"/>
-      <c r="U29" s="106"/>
-      <c r="V29" s="106"/>
-      <c r="W29" s="106"/>
+      <c r="T29" s="100"/>
+      <c r="U29" s="100"/>
+      <c r="V29" s="100"/>
+      <c r="W29" s="100"/>
       <c r="X29" s="12"/>
-      <c r="Y29" s="106"/>
-      <c r="Z29" s="106"/>
-      <c r="AA29" s="106"/>
-      <c r="AB29" s="106"/>
+      <c r="Y29" s="100"/>
+      <c r="Z29" s="100"/>
+      <c r="AA29" s="100"/>
+      <c r="AB29" s="100"/>
       <c r="AC29" s="12"/>
-      <c r="AD29" s="106"/>
-      <c r="AE29" s="106"/>
-      <c r="AF29" s="106"/>
-      <c r="AG29" s="106"/>
+      <c r="AD29" s="100"/>
+      <c r="AE29" s="100"/>
+      <c r="AF29" s="100"/>
+      <c r="AG29" s="100"/>
       <c r="AH29" s="12"/>
-      <c r="AI29" s="106"/>
-      <c r="AJ29" s="106"/>
-      <c r="AK29" s="106"/>
-      <c r="AL29" s="106"/>
-      <c r="AM29" s="127"/>
+      <c r="AI29" s="100"/>
+      <c r="AJ29" s="100"/>
+      <c r="AK29" s="100"/>
+      <c r="AL29" s="100"/>
+      <c r="AM29" s="101"/>
       <c r="AN29" s="20"/>
       <c r="AO29" s="19"/>
       <c r="AP29" s="19"/>
@@ -8942,42 +8942,42 @@
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="111"/>
-      <c r="H30" s="111"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="97"/>
+      <c r="H30" s="97"/>
       <c r="I30" s="12"/>
-      <c r="J30" s="111"/>
-      <c r="K30" s="111"/>
-      <c r="L30" s="111"/>
-      <c r="M30" s="111"/>
+      <c r="J30" s="97"/>
+      <c r="K30" s="97"/>
+      <c r="L30" s="97"/>
+      <c r="M30" s="97"/>
       <c r="N30" s="12"/>
-      <c r="O30" s="111"/>
-      <c r="P30" s="111"/>
-      <c r="Q30" s="111"/>
-      <c r="R30" s="111"/>
+      <c r="O30" s="97"/>
+      <c r="P30" s="97"/>
+      <c r="Q30" s="97"/>
+      <c r="R30" s="97"/>
       <c r="S30" s="12"/>
-      <c r="T30" s="111"/>
-      <c r="U30" s="111"/>
-      <c r="V30" s="111"/>
-      <c r="W30" s="111"/>
+      <c r="T30" s="97"/>
+      <c r="U30" s="97"/>
+      <c r="V30" s="97"/>
+      <c r="W30" s="97"/>
       <c r="X30" s="12"/>
-      <c r="Y30" s="111"/>
-      <c r="Z30" s="111"/>
-      <c r="AA30" s="111"/>
-      <c r="AB30" s="111"/>
+      <c r="Y30" s="97"/>
+      <c r="Z30" s="97"/>
+      <c r="AA30" s="97"/>
+      <c r="AB30" s="97"/>
       <c r="AC30" s="12"/>
-      <c r="AD30" s="111"/>
-      <c r="AE30" s="111"/>
-      <c r="AF30" s="111"/>
-      <c r="AG30" s="111"/>
+      <c r="AD30" s="97"/>
+      <c r="AE30" s="97"/>
+      <c r="AF30" s="97"/>
+      <c r="AG30" s="97"/>
       <c r="AH30" s="12"/>
-      <c r="AI30" s="111"/>
-      <c r="AJ30" s="111"/>
-      <c r="AK30" s="111"/>
-      <c r="AL30" s="111"/>
-      <c r="AM30" s="113"/>
+      <c r="AI30" s="97"/>
+      <c r="AJ30" s="97"/>
+      <c r="AK30" s="97"/>
+      <c r="AL30" s="97"/>
+      <c r="AM30" s="102"/>
       <c r="AN30" s="20"/>
       <c r="AO30" s="19"/>
       <c r="AP30" s="19"/>
@@ -8986,42 +8986,42 @@
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="112"/>
-      <c r="H31" s="112"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="95"/>
       <c r="I31" s="13"/>
-      <c r="J31" s="112"/>
-      <c r="K31" s="112"/>
-      <c r="L31" s="112"/>
-      <c r="M31" s="112"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
       <c r="N31" s="13"/>
-      <c r="O31" s="112"/>
-      <c r="P31" s="112"/>
-      <c r="Q31" s="112"/>
-      <c r="R31" s="112"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="95"/>
+      <c r="Q31" s="95"/>
+      <c r="R31" s="95"/>
       <c r="S31" s="13"/>
-      <c r="T31" s="112"/>
-      <c r="U31" s="112"/>
-      <c r="V31" s="112"/>
-      <c r="W31" s="112"/>
+      <c r="T31" s="95"/>
+      <c r="U31" s="95"/>
+      <c r="V31" s="95"/>
+      <c r="W31" s="95"/>
       <c r="X31" s="13"/>
-      <c r="Y31" s="112"/>
-      <c r="Z31" s="112"/>
-      <c r="AA31" s="112"/>
-      <c r="AB31" s="112"/>
+      <c r="Y31" s="95"/>
+      <c r="Z31" s="95"/>
+      <c r="AA31" s="95"/>
+      <c r="AB31" s="95"/>
       <c r="AC31" s="13"/>
-      <c r="AD31" s="112"/>
-      <c r="AE31" s="112"/>
-      <c r="AF31" s="112"/>
-      <c r="AG31" s="112"/>
+      <c r="AD31" s="95"/>
+      <c r="AE31" s="95"/>
+      <c r="AF31" s="95"/>
+      <c r="AG31" s="95"/>
       <c r="AH31" s="13"/>
-      <c r="AI31" s="112"/>
-      <c r="AJ31" s="112"/>
-      <c r="AK31" s="112"/>
-      <c r="AL31" s="112"/>
-      <c r="AM31" s="125"/>
+      <c r="AI31" s="95"/>
+      <c r="AJ31" s="95"/>
+      <c r="AK31" s="95"/>
+      <c r="AL31" s="95"/>
+      <c r="AM31" s="96"/>
       <c r="AN31" s="20"/>
       <c r="AO31" s="19"/>
       <c r="AP31" s="19"/>
@@ -9117,45 +9117,45 @@
     <row r="34" spans="1:42" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
-      <c r="C34" s="119" t="s">
+      <c r="C34" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="120"/>
-      <c r="E34" s="120"/>
-      <c r="F34" s="120"/>
-      <c r="G34" s="120"/>
-      <c r="H34" s="120"/>
-      <c r="I34" s="120"/>
-      <c r="J34" s="120"/>
-      <c r="K34" s="120"/>
-      <c r="L34" s="120"/>
-      <c r="M34" s="120"/>
-      <c r="N34" s="120"/>
-      <c r="O34" s="120"/>
-      <c r="P34" s="120"/>
-      <c r="Q34" s="120"/>
-      <c r="R34" s="120"/>
-      <c r="S34" s="120"/>
-      <c r="T34" s="120"/>
-      <c r="U34" s="120"/>
-      <c r="V34" s="120"/>
-      <c r="W34" s="120"/>
-      <c r="X34" s="120"/>
-      <c r="Y34" s="120"/>
-      <c r="Z34" s="120"/>
-      <c r="AA34" s="120"/>
-      <c r="AB34" s="120"/>
-      <c r="AC34" s="120"/>
-      <c r="AD34" s="120"/>
-      <c r="AE34" s="120"/>
-      <c r="AF34" s="120"/>
-      <c r="AG34" s="120"/>
-      <c r="AH34" s="120"/>
-      <c r="AI34" s="120"/>
-      <c r="AJ34" s="120"/>
-      <c r="AK34" s="120"/>
-      <c r="AL34" s="120"/>
-      <c r="AM34" s="121"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="84"/>
+      <c r="L34" s="84"/>
+      <c r="M34" s="84"/>
+      <c r="N34" s="84"/>
+      <c r="O34" s="84"/>
+      <c r="P34" s="84"/>
+      <c r="Q34" s="84"/>
+      <c r="R34" s="84"/>
+      <c r="S34" s="84"/>
+      <c r="T34" s="84"/>
+      <c r="U34" s="84"/>
+      <c r="V34" s="84"/>
+      <c r="W34" s="84"/>
+      <c r="X34" s="84"/>
+      <c r="Y34" s="84"/>
+      <c r="Z34" s="84"/>
+      <c r="AA34" s="84"/>
+      <c r="AB34" s="84"/>
+      <c r="AC34" s="84"/>
+      <c r="AD34" s="84"/>
+      <c r="AE34" s="84"/>
+      <c r="AF34" s="84"/>
+      <c r="AG34" s="84"/>
+      <c r="AH34" s="84"/>
+      <c r="AI34" s="84"/>
+      <c r="AJ34" s="84"/>
+      <c r="AK34" s="84"/>
+      <c r="AL34" s="84"/>
+      <c r="AM34" s="85"/>
       <c r="AN34" s="20"/>
       <c r="AO34" s="19"/>
       <c r="AP34" s="19"/>
@@ -9163,43 +9163,43 @@
     <row r="35" spans="1:42" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="29"/>
       <c r="B35" s="30"/>
-      <c r="C35" s="122"/>
-      <c r="D35" s="109"/>
-      <c r="E35" s="109"/>
-      <c r="F35" s="109"/>
-      <c r="G35" s="109"/>
-      <c r="H35" s="109"/>
-      <c r="I35" s="109"/>
-      <c r="J35" s="109"/>
-      <c r="K35" s="109"/>
-      <c r="L35" s="109"/>
-      <c r="M35" s="109"/>
-      <c r="N35" s="109"/>
-      <c r="O35" s="109"/>
-      <c r="P35" s="109"/>
-      <c r="Q35" s="109"/>
-      <c r="R35" s="109"/>
-      <c r="S35" s="109"/>
-      <c r="T35" s="109"/>
-      <c r="U35" s="109"/>
-      <c r="V35" s="109"/>
-      <c r="W35" s="109"/>
-      <c r="X35" s="109"/>
-      <c r="Y35" s="109"/>
-      <c r="Z35" s="109"/>
-      <c r="AA35" s="109"/>
-      <c r="AB35" s="109"/>
-      <c r="AC35" s="109"/>
-      <c r="AD35" s="109"/>
-      <c r="AE35" s="109"/>
-      <c r="AF35" s="109"/>
-      <c r="AG35" s="109"/>
-      <c r="AH35" s="109"/>
-      <c r="AI35" s="109"/>
-      <c r="AJ35" s="109"/>
-      <c r="AK35" s="109"/>
-      <c r="AL35" s="109"/>
-      <c r="AM35" s="110"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="87"/>
+      <c r="J35" s="87"/>
+      <c r="K35" s="87"/>
+      <c r="L35" s="87"/>
+      <c r="M35" s="87"/>
+      <c r="N35" s="87"/>
+      <c r="O35" s="87"/>
+      <c r="P35" s="87"/>
+      <c r="Q35" s="87"/>
+      <c r="R35" s="87"/>
+      <c r="S35" s="87"/>
+      <c r="T35" s="87"/>
+      <c r="U35" s="87"/>
+      <c r="V35" s="87"/>
+      <c r="W35" s="87"/>
+      <c r="X35" s="87"/>
+      <c r="Y35" s="87"/>
+      <c r="Z35" s="87"/>
+      <c r="AA35" s="87"/>
+      <c r="AB35" s="87"/>
+      <c r="AC35" s="87"/>
+      <c r="AD35" s="87"/>
+      <c r="AE35" s="87"/>
+      <c r="AF35" s="87"/>
+      <c r="AG35" s="87"/>
+      <c r="AH35" s="87"/>
+      <c r="AI35" s="87"/>
+      <c r="AJ35" s="87"/>
+      <c r="AK35" s="87"/>
+      <c r="AL35" s="87"/>
+      <c r="AM35" s="88"/>
       <c r="AN35" s="25"/>
       <c r="AO35" s="24"/>
       <c r="AP35" s="24"/>
@@ -9207,43 +9207,43 @@
     <row r="36" spans="1:42" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="29"/>
       <c r="B36" s="30"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="79"/>
-      <c r="J36" s="79"/>
-      <c r="K36" s="79"/>
-      <c r="L36" s="79"/>
-      <c r="M36" s="79"/>
-      <c r="N36" s="79"/>
-      <c r="O36" s="79"/>
-      <c r="P36" s="79"/>
-      <c r="Q36" s="79"/>
-      <c r="R36" s="79"/>
-      <c r="S36" s="79"/>
-      <c r="T36" s="79"/>
-      <c r="U36" s="79"/>
-      <c r="V36" s="79"/>
-      <c r="W36" s="79"/>
-      <c r="X36" s="79"/>
-      <c r="Y36" s="79"/>
-      <c r="Z36" s="79"/>
-      <c r="AA36" s="79"/>
-      <c r="AB36" s="79"/>
-      <c r="AC36" s="79"/>
-      <c r="AD36" s="79"/>
-      <c r="AE36" s="79"/>
-      <c r="AF36" s="79"/>
-      <c r="AG36" s="79"/>
-      <c r="AH36" s="79"/>
-      <c r="AI36" s="79"/>
-      <c r="AJ36" s="79"/>
-      <c r="AK36" s="79"/>
-      <c r="AL36" s="79"/>
-      <c r="AM36" s="80"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="117"/>
+      <c r="E36" s="117"/>
+      <c r="F36" s="117"/>
+      <c r="G36" s="117"/>
+      <c r="H36" s="117"/>
+      <c r="I36" s="117"/>
+      <c r="J36" s="117"/>
+      <c r="K36" s="117"/>
+      <c r="L36" s="117"/>
+      <c r="M36" s="117"/>
+      <c r="N36" s="117"/>
+      <c r="O36" s="117"/>
+      <c r="P36" s="117"/>
+      <c r="Q36" s="117"/>
+      <c r="R36" s="117"/>
+      <c r="S36" s="117"/>
+      <c r="T36" s="117"/>
+      <c r="U36" s="117"/>
+      <c r="V36" s="117"/>
+      <c r="W36" s="117"/>
+      <c r="X36" s="117"/>
+      <c r="Y36" s="117"/>
+      <c r="Z36" s="117"/>
+      <c r="AA36" s="117"/>
+      <c r="AB36" s="117"/>
+      <c r="AC36" s="117"/>
+      <c r="AD36" s="117"/>
+      <c r="AE36" s="117"/>
+      <c r="AF36" s="117"/>
+      <c r="AG36" s="117"/>
+      <c r="AH36" s="117"/>
+      <c r="AI36" s="117"/>
+      <c r="AJ36" s="117"/>
+      <c r="AK36" s="117"/>
+      <c r="AL36" s="117"/>
+      <c r="AM36" s="118"/>
       <c r="AN36" s="25"/>
       <c r="AO36" s="24"/>
       <c r="AP36" s="24"/>
@@ -9251,43 +9251,43 @@
     <row r="37" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
-      <c r="C37" s="123"/>
-      <c r="D37" s="96"/>
-      <c r="E37" s="96"/>
-      <c r="F37" s="96"/>
-      <c r="G37" s="96"/>
-      <c r="H37" s="96"/>
-      <c r="I37" s="96"/>
-      <c r="J37" s="96"/>
-      <c r="K37" s="96"/>
-      <c r="L37" s="96"/>
-      <c r="M37" s="96"/>
-      <c r="N37" s="96"/>
-      <c r="O37" s="96"/>
-      <c r="P37" s="96"/>
-      <c r="Q37" s="96"/>
-      <c r="R37" s="96"/>
-      <c r="S37" s="96"/>
-      <c r="T37" s="96"/>
-      <c r="U37" s="96"/>
-      <c r="V37" s="96"/>
-      <c r="W37" s="96"/>
-      <c r="X37" s="96"/>
-      <c r="Y37" s="96"/>
-      <c r="Z37" s="96"/>
-      <c r="AA37" s="96"/>
-      <c r="AB37" s="96"/>
-      <c r="AC37" s="96"/>
-      <c r="AD37" s="96"/>
-      <c r="AE37" s="96"/>
-      <c r="AF37" s="96"/>
-      <c r="AG37" s="96"/>
-      <c r="AH37" s="96"/>
-      <c r="AI37" s="96"/>
-      <c r="AJ37" s="96"/>
-      <c r="AK37" s="96"/>
-      <c r="AL37" s="96"/>
-      <c r="AM37" s="97"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="90"/>
+      <c r="K37" s="90"/>
+      <c r="L37" s="90"/>
+      <c r="M37" s="90"/>
+      <c r="N37" s="90"/>
+      <c r="O37" s="90"/>
+      <c r="P37" s="90"/>
+      <c r="Q37" s="90"/>
+      <c r="R37" s="90"/>
+      <c r="S37" s="90"/>
+      <c r="T37" s="90"/>
+      <c r="U37" s="90"/>
+      <c r="V37" s="90"/>
+      <c r="W37" s="90"/>
+      <c r="X37" s="90"/>
+      <c r="Y37" s="90"/>
+      <c r="Z37" s="90"/>
+      <c r="AA37" s="90"/>
+      <c r="AB37" s="90"/>
+      <c r="AC37" s="90"/>
+      <c r="AD37" s="90"/>
+      <c r="AE37" s="90"/>
+      <c r="AF37" s="90"/>
+      <c r="AG37" s="90"/>
+      <c r="AH37" s="90"/>
+      <c r="AI37" s="90"/>
+      <c r="AJ37" s="90"/>
+      <c r="AK37" s="90"/>
+      <c r="AL37" s="90"/>
+      <c r="AM37" s="91"/>
       <c r="AN37" s="20"/>
       <c r="AO37" s="19"/>
       <c r="AP37" s="19"/>
@@ -9295,43 +9295,43 @@
     <row r="38" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
-      <c r="C38" s="124"/>
-      <c r="D38" s="98"/>
-      <c r="E38" s="98"/>
-      <c r="F38" s="98"/>
-      <c r="G38" s="98"/>
-      <c r="H38" s="98"/>
-      <c r="I38" s="98"/>
-      <c r="J38" s="98"/>
-      <c r="K38" s="98"/>
-      <c r="L38" s="98"/>
-      <c r="M38" s="98"/>
-      <c r="N38" s="98"/>
-      <c r="O38" s="98"/>
-      <c r="P38" s="98"/>
-      <c r="Q38" s="98"/>
-      <c r="R38" s="98"/>
-      <c r="S38" s="98"/>
-      <c r="T38" s="98"/>
-      <c r="U38" s="98"/>
-      <c r="V38" s="98"/>
-      <c r="W38" s="98"/>
-      <c r="X38" s="98"/>
-      <c r="Y38" s="98"/>
-      <c r="Z38" s="98"/>
-      <c r="AA38" s="98"/>
-      <c r="AB38" s="98"/>
-      <c r="AC38" s="98"/>
-      <c r="AD38" s="98"/>
-      <c r="AE38" s="98"/>
-      <c r="AF38" s="98"/>
-      <c r="AG38" s="98"/>
-      <c r="AH38" s="98"/>
-      <c r="AI38" s="98"/>
-      <c r="AJ38" s="98"/>
-      <c r="AK38" s="98"/>
-      <c r="AL38" s="98"/>
-      <c r="AM38" s="99"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="93"/>
+      <c r="I38" s="93"/>
+      <c r="J38" s="93"/>
+      <c r="K38" s="93"/>
+      <c r="L38" s="93"/>
+      <c r="M38" s="93"/>
+      <c r="N38" s="93"/>
+      <c r="O38" s="93"/>
+      <c r="P38" s="93"/>
+      <c r="Q38" s="93"/>
+      <c r="R38" s="93"/>
+      <c r="S38" s="93"/>
+      <c r="T38" s="93"/>
+      <c r="U38" s="93"/>
+      <c r="V38" s="93"/>
+      <c r="W38" s="93"/>
+      <c r="X38" s="93"/>
+      <c r="Y38" s="93"/>
+      <c r="Z38" s="93"/>
+      <c r="AA38" s="93"/>
+      <c r="AB38" s="93"/>
+      <c r="AC38" s="93"/>
+      <c r="AD38" s="93"/>
+      <c r="AE38" s="93"/>
+      <c r="AF38" s="93"/>
+      <c r="AG38" s="93"/>
+      <c r="AH38" s="93"/>
+      <c r="AI38" s="93"/>
+      <c r="AJ38" s="93"/>
+      <c r="AK38" s="93"/>
+      <c r="AL38" s="93"/>
+      <c r="AM38" s="94"/>
       <c r="AN38" s="20"/>
       <c r="AO38" s="19"/>
       <c r="AP38" s="19"/>
@@ -9469,6 +9469,137 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="155">
+    <mergeCell ref="C36:AM36"/>
+    <mergeCell ref="AH15:AI16"/>
+    <mergeCell ref="C7:M7"/>
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="C10:M10"/>
+    <mergeCell ref="C11:M11"/>
+    <mergeCell ref="C12:M12"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="AC11:AM11"/>
+    <mergeCell ref="AC12:AM12"/>
+    <mergeCell ref="Q11:Z11"/>
+    <mergeCell ref="Q12:Z12"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="X15:Y16"/>
+    <mergeCell ref="Z15:AB15"/>
+    <mergeCell ref="Z16:AB16"/>
+    <mergeCell ref="AC15:AD16"/>
+    <mergeCell ref="AE15:AG15"/>
+    <mergeCell ref="AE16:AG16"/>
+    <mergeCell ref="AJ15:AL15"/>
+    <mergeCell ref="AJ16:AL16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="AC7:AM7"/>
+    <mergeCell ref="AC8:AM8"/>
+    <mergeCell ref="AC9:AM9"/>
+    <mergeCell ref="AC10:AM10"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="I15:J16"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N15:O16"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S15:T16"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="V4:Z4"/>
+    <mergeCell ref="Q7:Z7"/>
+    <mergeCell ref="Q8:Z8"/>
+    <mergeCell ref="Q9:Z9"/>
+    <mergeCell ref="Q10:Z10"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="AD22:AG22"/>
+    <mergeCell ref="AD23:AG23"/>
+    <mergeCell ref="AD24:AG24"/>
+    <mergeCell ref="AD25:AG25"/>
+    <mergeCell ref="AD26:AG26"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="T20:W20"/>
+    <mergeCell ref="T21:W21"/>
+    <mergeCell ref="T22:W22"/>
+    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="T25:W25"/>
+    <mergeCell ref="T26:W26"/>
+    <mergeCell ref="T27:W27"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="T29:W29"/>
+    <mergeCell ref="T30:W30"/>
+    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="AI30:AM30"/>
+    <mergeCell ref="Y29:AB29"/>
+    <mergeCell ref="Y30:AB30"/>
+    <mergeCell ref="Y31:AB31"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="AD27:AG27"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="AD29:AG29"/>
+    <mergeCell ref="Y17:AB17"/>
+    <mergeCell ref="Y18:AB18"/>
+    <mergeCell ref="Y19:AB19"/>
+    <mergeCell ref="Y20:AB20"/>
+    <mergeCell ref="Y21:AB21"/>
+    <mergeCell ref="Y22:AB22"/>
+    <mergeCell ref="Y23:AB23"/>
+    <mergeCell ref="Y24:AB24"/>
+    <mergeCell ref="Y25:AB25"/>
+    <mergeCell ref="Y26:AB26"/>
+    <mergeCell ref="Y27:AB27"/>
+    <mergeCell ref="Y28:AB28"/>
+    <mergeCell ref="AD18:AG18"/>
+    <mergeCell ref="AD19:AG19"/>
+    <mergeCell ref="AD20:AG20"/>
+    <mergeCell ref="AD21:AG21"/>
     <mergeCell ref="C3:AM3"/>
     <mergeCell ref="C6:M6"/>
     <mergeCell ref="P6:Z6"/>
@@ -9493,137 +9624,6 @@
     <mergeCell ref="AI27:AM27"/>
     <mergeCell ref="AI28:AM28"/>
     <mergeCell ref="AI29:AM29"/>
-    <mergeCell ref="AI30:AM30"/>
-    <mergeCell ref="Y29:AB29"/>
-    <mergeCell ref="Y30:AB30"/>
-    <mergeCell ref="Y31:AB31"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="AD27:AG27"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="AD29:AG29"/>
-    <mergeCell ref="Y17:AB17"/>
-    <mergeCell ref="Y18:AB18"/>
-    <mergeCell ref="Y19:AB19"/>
-    <mergeCell ref="Y20:AB20"/>
-    <mergeCell ref="Y21:AB21"/>
-    <mergeCell ref="Y22:AB22"/>
-    <mergeCell ref="Y23:AB23"/>
-    <mergeCell ref="Y24:AB24"/>
-    <mergeCell ref="Y25:AB25"/>
-    <mergeCell ref="Y26:AB26"/>
-    <mergeCell ref="Y27:AB27"/>
-    <mergeCell ref="Y28:AB28"/>
-    <mergeCell ref="AD18:AG18"/>
-    <mergeCell ref="AD19:AG19"/>
-    <mergeCell ref="AD20:AG20"/>
-    <mergeCell ref="AD21:AG21"/>
-    <mergeCell ref="AD22:AG22"/>
-    <mergeCell ref="AD23:AG23"/>
-    <mergeCell ref="AD24:AG24"/>
-    <mergeCell ref="AD25:AG25"/>
-    <mergeCell ref="AD26:AG26"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="T19:W19"/>
-    <mergeCell ref="T20:W20"/>
-    <mergeCell ref="T21:W21"/>
-    <mergeCell ref="T22:W22"/>
-    <mergeCell ref="T23:W23"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="T25:W25"/>
-    <mergeCell ref="T26:W26"/>
-    <mergeCell ref="T27:W27"/>
-    <mergeCell ref="T28:W28"/>
-    <mergeCell ref="T29:W29"/>
-    <mergeCell ref="T30:W30"/>
-    <mergeCell ref="T31:W31"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="V4:Z4"/>
-    <mergeCell ref="Q7:Z7"/>
-    <mergeCell ref="Q8:Z8"/>
-    <mergeCell ref="Q9:Z9"/>
-    <mergeCell ref="Q10:Z10"/>
-    <mergeCell ref="AC7:AM7"/>
-    <mergeCell ref="AC8:AM8"/>
-    <mergeCell ref="AC9:AM9"/>
-    <mergeCell ref="AC10:AM10"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="I15:J16"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="N15:O16"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S15:T16"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="C36:AM36"/>
-    <mergeCell ref="AH15:AI16"/>
-    <mergeCell ref="C7:M7"/>
-    <mergeCell ref="C8:M8"/>
-    <mergeCell ref="C9:M9"/>
-    <mergeCell ref="C10:M10"/>
-    <mergeCell ref="C11:M11"/>
-    <mergeCell ref="C12:M12"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="AC11:AM11"/>
-    <mergeCell ref="AC12:AM12"/>
-    <mergeCell ref="Q11:Z11"/>
-    <mergeCell ref="Q12:Z12"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="X15:Y16"/>
-    <mergeCell ref="Z15:AB15"/>
-    <mergeCell ref="Z16:AB16"/>
-    <mergeCell ref="AC15:AD16"/>
-    <mergeCell ref="AE15:AG15"/>
-    <mergeCell ref="AE16:AG16"/>
-    <mergeCell ref="AJ15:AL15"/>
-    <mergeCell ref="AJ16:AL16"/>
-    <mergeCell ref="D17:H17"/>
   </mergeCells>
   <conditionalFormatting sqref="C6:C12 C15 E15:E16 O13:AM13 C1:AM1 C17:D31 J17:J31 C35:C38 C43:AM1048576 C4:AM5 O6:O12 AA6:AB12">
     <cfRule type="cellIs" dxfId="92" priority="99" operator="equal">
@@ -10007,8 +10007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAD748A-0236-4680-920A-ED00DE65B007}">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="88" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10165,7 +10165,9 @@
       <c r="D4" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="57"/>
+      <c r="E4" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="F4" s="57"/>
       <c r="G4" s="57"/>
       <c r="H4" s="57"/>
@@ -10186,7 +10188,9 @@
       <c r="D5" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="57"/>
+      <c r="E5" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="F5" s="57"/>
       <c r="G5" s="57"/>
       <c r="H5" s="57"/>
@@ -10207,7 +10211,9 @@
       <c r="D6" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="57"/>
+      <c r="E6" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="F6" s="57"/>
       <c r="G6" s="57"/>
       <c r="H6" s="57"/>
@@ -10228,7 +10234,9 @@
       <c r="D7" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="57"/>
+      <c r="E7" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="F7" s="57"/>
       <c r="G7" s="57"/>
       <c r="H7" s="57"/>
@@ -10249,7 +10257,9 @@
       <c r="D8" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="57"/>
+      <c r="E8" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="F8" s="57"/>
       <c r="G8" s="57"/>
       <c r="H8" s="57"/>
@@ -10270,7 +10280,9 @@
       <c r="D9" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="57"/>
+      <c r="E9" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="F9" s="57"/>
       <c r="G9" s="57"/>
       <c r="H9" s="57"/>
@@ -10291,7 +10303,9 @@
       <c r="D10" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="57"/>
+      <c r="E10" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="F10" s="57"/>
       <c r="G10" s="57"/>
       <c r="H10" s="57"/>
@@ -10327,7 +10341,9 @@
       <c r="D12" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="57"/>
+      <c r="E12" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="F12" s="57"/>
       <c r="G12" s="57"/>
       <c r="H12" s="57"/>
@@ -10348,7 +10364,9 @@
       <c r="D13" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="57"/>
+      <c r="E13" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="F13" s="57"/>
       <c r="G13" s="57"/>
       <c r="H13" s="57"/>
@@ -10369,7 +10387,9 @@
       <c r="D14" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="57"/>
+      <c r="E14" s="57" t="s">
+        <v>69</v>
+      </c>
       <c r="F14" s="57"/>
       <c r="G14" s="57"/>
       <c r="H14" s="57"/>
@@ -10405,7 +10425,9 @@
       <c r="D16" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="57"/>
+      <c r="E16" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="F16" s="57"/>
       <c r="G16" s="57"/>
       <c r="H16" s="57"/>
@@ -10426,7 +10448,9 @@
       <c r="D17" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="57"/>
+      <c r="E17" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="F17" s="57"/>
       <c r="G17" s="57"/>
       <c r="H17" s="57"/>
@@ -10447,7 +10471,9 @@
       <c r="D18" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="57"/>
+      <c r="E18" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="F18" s="57"/>
       <c r="G18" s="57"/>
       <c r="H18" s="57"/>
@@ -10468,7 +10494,9 @@
       <c r="D19" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="57"/>
+      <c r="E19" s="57" t="s">
+        <v>69</v>
+      </c>
       <c r="F19" s="57"/>
       <c r="G19" s="57"/>
       <c r="H19" s="57"/>
@@ -10489,7 +10517,9 @@
       <c r="D20" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="57"/>
+      <c r="E20" s="57" t="s">
+        <v>69</v>
+      </c>
       <c r="F20" s="57"/>
       <c r="G20" s="57"/>
       <c r="H20" s="57"/>
@@ -10510,7 +10540,9 @@
       <c r="D21" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="57"/>
+      <c r="E21" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="F21" s="57"/>
       <c r="G21" s="57"/>
       <c r="H21" s="57"/>
@@ -10531,7 +10563,9 @@
       <c r="D22" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="57"/>
+      <c r="E22" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="F22" s="57"/>
       <c r="G22" s="57"/>
       <c r="H22" s="57"/>
@@ -10551,7 +10585,7 @@
       </c>
       <c r="E23" s="57">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F23" s="57">
         <f t="shared" si="0"/>
@@ -10578,7 +10612,7 @@
     <row r="24" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="65">
         <f>SUM(Table1[[#Totals],[Mon - Apr 19th]:[Sun - Apr 25th]])/16</f>
-        <v>4.6875E-2</v>
+        <v>0.1015625</v>
       </c>
       <c r="B24" s="62"/>
       <c r="C24" s="61"/>
@@ -10588,7 +10622,7 @@
       </c>
       <c r="E24" s="64">
         <f t="shared" ref="E24:J24" si="1">SUM(E23)/16</f>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="F24" s="64">
         <f t="shared" si="1"/>
@@ -10648,6 +10682,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="46e0ad8bcb937777a496f4378509b82b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3afd91b9dddacb5807afd727ccca0e2e" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -10868,15 +10911,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -10887,6 +10921,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D895C161-5F30-4256-BAD3-309A58746C18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C3BEF7D-0560-4D92-8503-510D68BBABDD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10905,14 +10947,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D895C161-5F30-4256-BAD3-309A58746C18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D61C0559-A3A8-404B-B3C9-59977EEF143B}">
   <ds:schemaRefs>
